--- a/docs/arch.xlsx
+++ b/docs/arch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\ProjetsRecherche\Embedded\CAN\dev\caniot\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89280EA-FA51-4982-AE68-96EC625F1D59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83367951-A0CB-4C44-AEA0-5E81D5FB8FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{3F2F15D1-277A-4EC5-A845-66E8BFF58C30}"/>
+    <workbookView xWindow="3255" yWindow="735" windowWidth="21585" windowHeight="11340" activeTab="2" xr2:uid="{3F2F15D1-277A-4EC5-A845-66E8BFF58C30}"/>
   </bookViews>
   <sheets>
     <sheet name="frames-data-bits" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="273">
   <si>
     <t>temperature</t>
   </si>
@@ -2519,8 +2519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABEE202-717B-4A96-9406-D9A14283F0F2}">
   <dimension ref="B1:AH50"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4818,7 +4818,7 @@
   <dimension ref="A2:BO45"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9012,8 +9012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36880ADF-04C9-4A12-8EFC-224812D037A0}">
   <dimension ref="A3:K87"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10813,20 +10813,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BCC11E-390E-4EFB-A4DD-B5D6139D8CF5}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H10" sqref="D10:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="4" max="14" width="3.42578125" style="67" customWidth="1"/>
+    <col min="15" max="35" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B2" s="226" t="s">
         <v>232</v>
       </c>
@@ -10845,9 +10846,28 @@
       <c r="M2" s="229"/>
       <c r="N2" s="229"/>
       <c r="O2" s="229"/>
-      <c r="P2" s="230"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P2" s="228"/>
+      <c r="Q2" s="228"/>
+      <c r="R2" s="228"/>
+      <c r="S2" s="228"/>
+      <c r="T2" s="228"/>
+      <c r="U2" s="228"/>
+      <c r="V2" s="228"/>
+      <c r="W2" s="228"/>
+      <c r="X2" s="228"/>
+      <c r="Y2" s="228"/>
+      <c r="Z2" s="228"/>
+      <c r="AA2" s="228"/>
+      <c r="AB2" s="228"/>
+      <c r="AC2" s="228"/>
+      <c r="AD2" s="228"/>
+      <c r="AE2" s="228"/>
+      <c r="AF2" s="228"/>
+      <c r="AG2" s="228"/>
+      <c r="AH2" s="228"/>
+      <c r="AI2" s="230"/>
+    </row>
+    <row r="3" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="231" t="s">
         <v>234</v>
       </c>
@@ -10866,9 +10886,28 @@
       <c r="M3" s="233"/>
       <c r="N3" s="233"/>
       <c r="O3" s="233"/>
-      <c r="P3" s="234"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P3" s="232"/>
+      <c r="Q3" s="232"/>
+      <c r="R3" s="232"/>
+      <c r="S3" s="232"/>
+      <c r="T3" s="232"/>
+      <c r="U3" s="232"/>
+      <c r="V3" s="232"/>
+      <c r="W3" s="232"/>
+      <c r="X3" s="232"/>
+      <c r="Y3" s="232"/>
+      <c r="Z3" s="232"/>
+      <c r="AA3" s="232"/>
+      <c r="AB3" s="232"/>
+      <c r="AC3" s="232"/>
+      <c r="AD3" s="232"/>
+      <c r="AE3" s="232"/>
+      <c r="AF3" s="232"/>
+      <c r="AG3" s="232"/>
+      <c r="AH3" s="232"/>
+      <c r="AI3" s="234"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D5" s="20" t="s">
         <v>10</v>
       </c>
@@ -10885,7 +10924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D6" s="26" t="s">
         <v>8</v>
       </c>
@@ -10899,8 +10938,31 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="13"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O6" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="28"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D7" s="165">
         <v>0</v>
       </c>
@@ -10934,8 +10996,71 @@
       <c r="N7" s="225">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O7" s="14">
+        <v>11</v>
+      </c>
+      <c r="P7" s="15">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>13</v>
+      </c>
+      <c r="R7" s="15">
+        <v>14</v>
+      </c>
+      <c r="S7" s="15">
+        <v>15</v>
+      </c>
+      <c r="T7" s="14">
+        <v>16</v>
+      </c>
+      <c r="U7" s="15">
+        <v>17</v>
+      </c>
+      <c r="V7" s="15">
+        <v>18</v>
+      </c>
+      <c r="W7" s="15">
+        <v>19</v>
+      </c>
+      <c r="X7" s="15">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="15">
+        <v>21</v>
+      </c>
+      <c r="Z7" s="15">
+        <v>22</v>
+      </c>
+      <c r="AA7" s="15">
+        <v>23</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>24</v>
+      </c>
+      <c r="AC7" s="15">
+        <v>25</v>
+      </c>
+      <c r="AD7" s="15">
+        <v>26</v>
+      </c>
+      <c r="AE7" s="15">
+        <v>27</v>
+      </c>
+      <c r="AF7" s="16">
+        <v>28</v>
+      </c>
+      <c r="AG7" s="181">
+        <v>31</v>
+      </c>
+      <c r="AH7" s="182">
+        <v>30</v>
+      </c>
+      <c r="AI7" s="183">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D8" s="166" t="s">
         <v>107</v>
       </c>
@@ -10969,8 +11094,71 @@
       <c r="N8" s="171" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="S8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="V8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="W8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="X8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG8" s="184" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH8" s="185" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI8" s="186" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -11013,8 +11201,65 @@
       <c r="N10" s="67">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O10" s="67">
+        <v>1</v>
+      </c>
+      <c r="P10" s="67">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="67">
+        <v>1</v>
+      </c>
+      <c r="R10" s="67">
+        <v>1</v>
+      </c>
+      <c r="S10" s="67">
+        <v>1</v>
+      </c>
+      <c r="T10" s="67">
+        <v>1</v>
+      </c>
+      <c r="U10" s="67">
+        <v>1</v>
+      </c>
+      <c r="V10" s="67">
+        <v>1</v>
+      </c>
+      <c r="W10" s="67">
+        <v>1</v>
+      </c>
+      <c r="X10" s="67">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="67">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="67">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="67">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="67">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="67">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="67">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="67">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="67">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="67"/>
+      <c r="AH10" s="67"/>
+      <c r="AI10" s="67"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="91" t="s">
         <v>239</v>
       </c>
@@ -11054,110 +11299,85 @@
       <c r="N11" s="67" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="91"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C13" t="s">
-        <v>236</v>
-      </c>
-      <c r="D13" s="67">
-        <v>0</v>
-      </c>
-      <c r="E13" s="67">
-        <v>1</v>
-      </c>
-      <c r="F13" s="67">
-        <v>1</v>
-      </c>
-      <c r="G13" s="67">
-        <v>1</v>
-      </c>
-      <c r="H13" s="67">
-        <v>1</v>
-      </c>
-      <c r="I13" s="67">
-        <v>0</v>
-      </c>
-      <c r="J13" s="67">
-        <v>0</v>
-      </c>
-      <c r="K13" s="67">
-        <v>0</v>
-      </c>
-      <c r="L13" s="67">
-        <v>0</v>
-      </c>
-      <c r="M13" s="67">
-        <v>0</v>
-      </c>
-      <c r="N13" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
-        <v>239</v>
-      </c>
-      <c r="C14" t="s">
-        <v>235</v>
-      </c>
-      <c r="D14" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="67">
-        <v>1</v>
-      </c>
-      <c r="F14" s="67">
-        <v>1</v>
-      </c>
-      <c r="G14" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="H14" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="M14" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="N14" s="67" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="91"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="91"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="91"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="C16" t="s">
         <v>236</v>
       </c>
       <c r="D16" s="67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="67">
         <v>1</v>
@@ -11197,11 +11417,11 @@
       <c r="C17" t="s">
         <v>235</v>
       </c>
-      <c r="D17" s="67">
-        <v>1</v>
+      <c r="D17" s="67" t="s">
+        <v>46</v>
       </c>
       <c r="E17" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="67">
         <v>1</v>
@@ -11242,7 +11462,7 @@
         <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D19" s="67">
         <v>1</v>
@@ -11280,29 +11500,117 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="91" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" s="67">
+        <v>1</v>
+      </c>
+      <c r="E20" s="67">
+        <v>0</v>
+      </c>
+      <c r="F20" s="67">
+        <v>1</v>
+      </c>
+      <c r="G20" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" s="67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" s="67">
+        <v>1</v>
+      </c>
+      <c r="E22" s="67">
+        <v>1</v>
+      </c>
+      <c r="F22" s="67">
+        <v>1</v>
+      </c>
+      <c r="G22" s="67">
+        <v>1</v>
+      </c>
+      <c r="H22" s="67">
+        <v>1</v>
+      </c>
+      <c r="I22" s="67">
+        <v>0</v>
+      </c>
+      <c r="J22" s="67">
+        <v>0</v>
+      </c>
+      <c r="K22" s="67">
+        <v>0</v>
+      </c>
+      <c r="L22" s="67">
+        <v>0</v>
+      </c>
+      <c r="M22" s="67">
+        <v>0</v>
+      </c>
+      <c r="N22" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C23" t="s">
         <v>238</v>
       </c>
-      <c r="D20" s="67">
-        <v>1</v>
-      </c>
-      <c r="E20" s="67">
-        <v>0</v>
-      </c>
-      <c r="F20" s="67">
-        <v>1</v>
-      </c>
-      <c r="G20" s="67">
-        <v>1</v>
-      </c>
-      <c r="H20" s="67">
+      <c r="D23" s="67">
+        <v>1</v>
+      </c>
+      <c r="E23" s="67">
+        <v>0</v>
+      </c>
+      <c r="F23" s="67">
+        <v>1</v>
+      </c>
+      <c r="G23" s="67">
+        <v>1</v>
+      </c>
+      <c r="H23" s="67">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D10:N10">
+  <conditionalFormatting sqref="D10:AI10">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -11314,7 +11622,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:N16">
+  <conditionalFormatting sqref="D19:N19">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -11326,7 +11634,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:N19">
+  <conditionalFormatting sqref="D22:N22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -11338,7 +11646,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:N13">
+  <conditionalFormatting sqref="D16:N16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -12334,8 +12642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440C4F6B-A1C2-4D6C-BCC9-98B3358D661D}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12417,7 +12725,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="221" t="str">
-        <f t="shared" ref="C3:C6" si="0">DEC2HEX(B3 + _xlfn.BITLSHIFT(B$2,8),4)</f>
+        <f t="shared" ref="C3:C5" si="0">DEC2HEX(B3 + _xlfn.BITLSHIFT(B$2,8),4)</f>
         <v>0000</v>
       </c>
       <c r="D3" s="224" t="s">

--- a/docs/arch.xlsx
+++ b/docs/arch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\ProjetsRecherche\Embedded\CAN\dev\caniot\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83367951-A0CB-4C44-AEA0-5E81D5FB8FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE0835E-67A2-4228-BDA3-9B6E2A5A52F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="735" windowWidth="21585" windowHeight="11340" activeTab="2" xr2:uid="{3F2F15D1-277A-4EC5-A845-66E8BFF58C30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{3F2F15D1-277A-4EC5-A845-66E8BFF58C30}"/>
   </bookViews>
   <sheets>
     <sheet name="frames-data-bits" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="280">
   <si>
     <t>temperature</t>
   </si>
@@ -480,9 +480,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>Write/Read</t>
-  </si>
-  <si>
     <t>W/R</t>
   </si>
   <si>
@@ -585,9 +582,6 @@
     <t>seconds</t>
   </si>
   <si>
-    <t>frequency</t>
-  </si>
-  <si>
     <t>battery</t>
   </si>
   <si>
@@ -859,6 +853,33 @@
   </si>
   <si>
     <t>OutdoorSensor1</t>
+  </si>
+  <si>
+    <t>abs time</t>
+  </si>
+  <si>
+    <t>SCHEDULE</t>
+  </si>
+  <si>
+    <t>messages sent</t>
+  </si>
+  <si>
+    <t>messages received</t>
+  </si>
+  <si>
+    <t>telemetry period</t>
+  </si>
+  <si>
+    <t>Write Attribute</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Q/R</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2519,8 +2540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABEE202-717B-4A96-9406-D9A14283F0F2}">
   <dimension ref="B1:AH50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2534,7 +2555,7 @@
     <row r="1" spans="2:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="207" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="200"/>
       <c r="D2" s="200"/>
@@ -2587,7 +2608,7 @@
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -3004,10 +3025,10 @@
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>156</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>157</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -3675,10 +3696,10 @@
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>146</v>
+        <v>277</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -3714,7 +3735,7 @@
     <row r="30" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B30" s="6"/>
       <c r="C30" s="210" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="19" t="s">
@@ -3871,52 +3892,52 @@
     </row>
     <row r="34" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C34" s="187" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D34" s="188" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E34" s="188" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F34" s="188" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G34" s="188" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H34" s="188" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I34" s="188" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J34" s="188" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K34" s="188" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L34" s="188" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M34" s="188" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N34" s="188" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O34" s="188" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P34" s="188" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q34" s="188" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R34" s="188" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S34" s="184" t="s">
         <v>46</v>
@@ -4241,10 +4262,10 @@
     </row>
     <row r="40" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>146</v>
+        <v>276</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
@@ -4256,6 +4277,9 @@
       <c r="K40" s="48"/>
       <c r="L40" s="48"/>
       <c r="M40" s="48"/>
+      <c r="T40" s="3" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="41" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B41" s="10" t="s">
@@ -4280,11 +4304,11 @@
     <row r="42" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B42" s="6"/>
       <c r="C42" s="210" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="19" t="s">
-        <v>14</v>
+        <v>278</v>
       </c>
       <c r="F42" s="19" t="s">
         <v>145</v>
@@ -4436,101 +4460,101 @@
       </c>
     </row>
     <row r="46" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="C46" s="189" t="s">
-        <v>149</v>
-      </c>
-      <c r="D46" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="E46" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="F46" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="G46" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="H46" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="I46" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="J46" s="191" t="s">
-        <v>149</v>
-      </c>
-      <c r="K46" s="189" t="s">
-        <v>149</v>
-      </c>
-      <c r="L46" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="M46" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="N46" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="O46" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="P46" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q46" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="R46" s="191" t="s">
-        <v>149</v>
+      <c r="C46" s="187" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="188" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="188" t="s">
+        <v>147</v>
+      </c>
+      <c r="F46" s="188" t="s">
+        <v>147</v>
+      </c>
+      <c r="G46" s="188" t="s">
+        <v>147</v>
+      </c>
+      <c r="H46" s="188" t="s">
+        <v>147</v>
+      </c>
+      <c r="I46" s="188" t="s">
+        <v>147</v>
+      </c>
+      <c r="J46" s="188" t="s">
+        <v>147</v>
+      </c>
+      <c r="K46" s="188" t="s">
+        <v>147</v>
+      </c>
+      <c r="L46" s="188" t="s">
+        <v>147</v>
+      </c>
+      <c r="M46" s="188" t="s">
+        <v>147</v>
+      </c>
+      <c r="N46" s="188" t="s">
+        <v>147</v>
+      </c>
+      <c r="O46" s="188" t="s">
+        <v>147</v>
+      </c>
+      <c r="P46" s="188" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q46" s="188" t="s">
+        <v>147</v>
+      </c>
+      <c r="R46" s="188" t="s">
+        <v>147</v>
       </c>
       <c r="S46" s="189" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T46" s="190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U46" s="190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V46" s="190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W46" s="190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X46" s="190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y46" s="190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Z46" s="191" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA46" s="189" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB46" s="190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC46" s="190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AD46" s="190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE46" s="190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF46" s="190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG46" s="190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AH46" s="191" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="2:34" x14ac:dyDescent="0.2">
@@ -4709,100 +4733,100 @@
     </row>
     <row r="50" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C50" s="189" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E50" s="190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F50" s="190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G50" s="190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H50" s="190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I50" s="190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J50" s="191" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K50" s="189" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L50" s="190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M50" s="190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N50" s="190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O50" s="190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P50" s="190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q50" s="190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R50" s="191" t="s">
-        <v>149</v>
-      </c>
-      <c r="S50" s="189" t="s">
-        <v>149</v>
-      </c>
-      <c r="T50" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="U50" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="V50" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="W50" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="X50" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y50" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z50" s="191" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA50" s="189" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB50" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC50" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD50" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE50" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF50" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG50" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH50" s="191" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="S50" s="184" t="s">
+        <v>46</v>
+      </c>
+      <c r="T50" s="185" t="s">
+        <v>46</v>
+      </c>
+      <c r="U50" s="185" t="s">
+        <v>46</v>
+      </c>
+      <c r="V50" s="185" t="s">
+        <v>46</v>
+      </c>
+      <c r="W50" s="185" t="s">
+        <v>46</v>
+      </c>
+      <c r="X50" s="185" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y50" s="185" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z50" s="186" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA50" s="184" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB50" s="185" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC50" s="185" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD50" s="185" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE50" s="185" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF50" s="185" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG50" s="185" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH50" s="186" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4832,10 +4856,10 @@
   <sheetData>
     <row r="2" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A2" s="246" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="235">
         <v>0</v>
@@ -4923,7 +4947,7 @@
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A3" s="249" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>84</v>
@@ -5128,210 +5152,210 @@
     <row r="4" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A4" s="247"/>
       <c r="B4" s="237" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C4" s="241">
         <v>8</v>
       </c>
       <c r="D4" s="243" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K4" s="245" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L4" s="243" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="S4" s="245" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="T4" s="243" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="U4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="V4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="W4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="X4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Y4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Z4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AA4" s="245" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB4" s="243" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AC4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AD4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AE4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AF4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AH4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AI4" s="245" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AJ4" s="243" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AK4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AL4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AM4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AN4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AO4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AP4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AQ4" s="245" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AR4" s="243" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AS4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AT4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AU4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AV4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AW4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AX4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AY4" s="245" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AZ4" s="243" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BA4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BB4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BC4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BD4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BE4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BF4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BG4" s="245" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BH4" s="243" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BI4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BJ4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BK4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BL4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BM4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BN4" s="244" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BO4" s="245" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A6" s="246" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="235">
         <v>1</v>
@@ -5419,7 +5443,7 @@
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A7" s="248" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>83</v>
@@ -5624,7 +5648,7 @@
     <row r="8" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A8" s="247"/>
       <c r="B8" s="237" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C8" s="241">
         <v>1</v>
@@ -5824,10 +5848,10 @@
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A10" s="246" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="235">
         <v>2</v>
@@ -5915,7 +5939,7 @@
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A11" s="249" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>83</v>
@@ -6120,7 +6144,7 @@
     <row r="12" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A12" s="247"/>
       <c r="B12" s="237" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C12" s="241">
         <v>4</v>
@@ -6174,34 +6198,34 @@
         <v>42</v>
       </c>
       <c r="T12" s="187" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="U12" s="188" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="V12" s="188" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="W12" s="188" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="X12" s="188" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Y12" s="188" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Z12" s="188" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AA12" s="240" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AB12" s="187" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AC12" s="188" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AD12" s="185" t="s">
         <v>46</v>
@@ -6354,10 +6378,10 @@
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A14" s="246" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="235">
         <v>3</v>
@@ -6445,7 +6469,7 @@
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A15" s="249" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>84</v>
@@ -6650,7 +6674,7 @@
     <row r="16" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A16" s="247"/>
       <c r="B16" s="237" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C16" s="241">
         <v>4</v>
@@ -6884,10 +6908,10 @@
     </row>
     <row r="18" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A18" s="246" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="235">
         <v>4</v>
@@ -6975,7 +6999,7 @@
     </row>
     <row r="19" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A19" s="249" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>84</v>
@@ -7180,7 +7204,7 @@
     <row r="20" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A20" s="247"/>
       <c r="B20" s="237" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C20" s="241">
         <v>8</v>
@@ -7330,34 +7354,34 @@
         <v>25</v>
       </c>
       <c r="AZ20" s="187" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="BA20" s="188" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="BB20" s="188" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="BC20" s="188" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="BD20" s="188" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="BE20" s="188" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="BF20" s="188" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="BG20" s="240" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="BH20" s="187" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="BI20" s="188" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="BJ20" s="185" t="s">
         <v>46</v>
@@ -7414,10 +7438,10 @@
     </row>
     <row r="22" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A22" s="246" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C22" s="235">
         <v>5</v>
@@ -7505,7 +7529,7 @@
     </row>
     <row r="23" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A23" s="249" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>84</v>
@@ -7710,7 +7734,7 @@
     <row r="24" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A24" s="247"/>
       <c r="B24" s="237" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C24" s="241">
         <v>8</v>
@@ -7812,108 +7836,108 @@
         <v>24</v>
       </c>
       <c r="AJ24" s="187" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AK24" s="188" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AL24" s="188" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AM24" s="188" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AN24" s="188" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AO24" s="188" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AP24" s="188" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AQ24" s="240" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AR24" s="187" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AS24" s="188" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AT24" s="185" t="s">
         <v>46</v>
       </c>
       <c r="AU24" s="188" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AV24" s="188" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AW24" s="188" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AX24" s="188" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AY24" s="240" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AZ24" s="187" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BA24" s="188" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BB24" s="188" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BC24" s="188" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BD24" s="188" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BE24" s="185" t="s">
         <v>46</v>
       </c>
       <c r="BF24" s="188" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="BG24" s="240" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="BH24" s="187" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="BI24" s="188" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="BJ24" s="188" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="BK24" s="188" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="BL24" s="188" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="BM24" s="188" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="BN24" s="188" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="BO24" s="240" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A26" s="246" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C26" s="235">
         <v>6</v>
@@ -8001,7 +8025,7 @@
     </row>
     <row r="27" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A27" s="249" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>84</v>
@@ -8206,7 +8230,7 @@
     <row r="28" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A28" s="247"/>
       <c r="B28" s="237" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C28" s="241">
         <v>8</v>
@@ -8356,52 +8380,52 @@
         <v>26</v>
       </c>
       <c r="AZ28" s="39" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BA28" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BB28" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BC28" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BD28" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BE28" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BF28" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BG28" s="41" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BH28" s="39" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BI28" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BJ28" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BK28" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BL28" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BM28" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BN28" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BO28" s="41" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:67" x14ac:dyDescent="0.2">
@@ -8440,10 +8464,10 @@
     </row>
     <row r="30" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A30" s="246" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C30" s="235">
         <v>7</v>
@@ -8736,7 +8760,7 @@
     <row r="32" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A32" s="247"/>
       <c r="B32" s="237" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C32" s="241">
         <v>0</v>
@@ -9012,7 +9036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36880ADF-04C9-4A12-8EFC-224812D037A0}">
   <dimension ref="A3:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -9467,10 +9491,10 @@
         <v>58</v>
       </c>
       <c r="I23" s="64" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K23" s="259" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -9529,7 +9553,7 @@
         <v>85</v>
       </c>
       <c r="I25" s="250" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K25" s="260"/>
     </row>
@@ -9557,7 +9581,7 @@
       </c>
       <c r="H26" s="86"/>
       <c r="I26" s="250" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K26" s="260"/>
     </row>
@@ -9580,7 +9604,7 @@
       </c>
       <c r="H27" s="86"/>
       <c r="I27" s="250" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K27" s="260"/>
     </row>
@@ -9601,7 +9625,7 @@
       </c>
       <c r="H28" s="88"/>
       <c r="I28" s="250" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K28" s="261"/>
     </row>
@@ -9622,7 +9646,7 @@
       </c>
       <c r="H29" s="88"/>
       <c r="I29" s="250" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K29" s="261"/>
     </row>
@@ -9643,7 +9667,7 @@
       </c>
       <c r="H30" s="88"/>
       <c r="I30" s="250" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K30" s="261"/>
     </row>
@@ -9664,7 +9688,7 @@
       </c>
       <c r="H31" s="88"/>
       <c r="I31" s="250" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K31" s="261"/>
     </row>
@@ -9685,10 +9709,10 @@
       </c>
       <c r="H32" s="88"/>
       <c r="I32" s="251" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K32" s="261" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.25">
@@ -9708,7 +9732,7 @@
       </c>
       <c r="H33" s="88"/>
       <c r="I33" s="251" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K33" s="261"/>
     </row>
@@ -9729,7 +9753,7 @@
       </c>
       <c r="H34" s="88"/>
       <c r="I34" s="251" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K34" s="261"/>
     </row>
@@ -9750,7 +9774,7 @@
       </c>
       <c r="H35" s="88"/>
       <c r="I35" s="251" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K35" s="261"/>
     </row>
@@ -9771,7 +9795,7 @@
       </c>
       <c r="H36" s="88"/>
       <c r="I36" s="251" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K36" s="261"/>
     </row>
@@ -9792,7 +9816,7 @@
       </c>
       <c r="H37" s="88"/>
       <c r="I37" s="251" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K37" s="261"/>
     </row>
@@ -9813,7 +9837,7 @@
       </c>
       <c r="H38" s="85"/>
       <c r="I38" s="251" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K38" s="261"/>
     </row>
@@ -9834,7 +9858,7 @@
       </c>
       <c r="H39" s="89"/>
       <c r="I39" s="251" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K39" s="261"/>
     </row>
@@ -9851,10 +9875,10 @@
         <v>10</v>
       </c>
       <c r="G40" s="77" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I40" s="252" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K40" s="261"/>
     </row>
@@ -9871,10 +9895,10 @@
         <v>11</v>
       </c>
       <c r="G41" s="77" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I41" s="252" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K41" s="261"/>
     </row>
@@ -9891,10 +9915,10 @@
         <v>12</v>
       </c>
       <c r="G42" s="77" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I42" s="252" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K42" s="261"/>
     </row>
@@ -9911,10 +9935,10 @@
         <v>13</v>
       </c>
       <c r="G43" s="77" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I43" s="252" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K43" s="261"/>
     </row>
@@ -9931,10 +9955,10 @@
         <v>14</v>
       </c>
       <c r="G44" s="77" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I44" s="252" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K44" s="261"/>
     </row>
@@ -9951,10 +9975,10 @@
         <v>15</v>
       </c>
       <c r="G45" s="77" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I45" s="252" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K45" s="261"/>
     </row>
@@ -9971,10 +9995,10 @@
         <v>16</v>
       </c>
       <c r="G46" s="77" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I46" s="252" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K46" s="261"/>
     </row>
@@ -9991,10 +10015,10 @@
         <v>17</v>
       </c>
       <c r="G47" s="77" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I47" s="252" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K47" s="261"/>
     </row>
@@ -10011,13 +10035,13 @@
         <v>18</v>
       </c>
       <c r="G48" s="77" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I48" s="251" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K48" s="261" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="4:11" x14ac:dyDescent="0.25">
@@ -10033,10 +10057,10 @@
         <v>19</v>
       </c>
       <c r="G49" s="77" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I49" s="251" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K49" s="261"/>
     </row>
@@ -10053,10 +10077,10 @@
         <v>1A</v>
       </c>
       <c r="G50" s="77" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I50" s="251" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K50" s="261"/>
     </row>
@@ -10073,10 +10097,10 @@
         <v>1B</v>
       </c>
       <c r="G51" s="77" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I51" s="251" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K51" s="261"/>
     </row>
@@ -10093,10 +10117,10 @@
         <v>1C</v>
       </c>
       <c r="G52" s="77" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I52" s="251" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K52" s="261"/>
     </row>
@@ -10113,10 +10137,10 @@
         <v>1D</v>
       </c>
       <c r="G53" s="77" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I53" s="251" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K53" s="261"/>
     </row>
@@ -10133,10 +10157,10 @@
         <v>1E</v>
       </c>
       <c r="G54" s="77" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I54" s="251" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K54" s="261"/>
     </row>
@@ -10153,10 +10177,10 @@
         <v>1F</v>
       </c>
       <c r="G55" s="77" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I55" s="251" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K55" s="261"/>
     </row>
@@ -10173,10 +10197,10 @@
         <v>20</v>
       </c>
       <c r="G56" s="77" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I56" s="251" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K56" s="261"/>
     </row>
@@ -10193,10 +10217,10 @@
         <v>21</v>
       </c>
       <c r="G57" s="77" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I57" s="251" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K57" s="261"/>
     </row>
@@ -10213,10 +10237,10 @@
         <v>22</v>
       </c>
       <c r="G58" s="77" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I58" s="251" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K58" s="261"/>
     </row>
@@ -10233,10 +10257,10 @@
         <v>23</v>
       </c>
       <c r="G59" s="77" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I59" s="251" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K59" s="261"/>
     </row>
@@ -10253,10 +10277,10 @@
         <v>24</v>
       </c>
       <c r="G60" s="77" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I60" s="251" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K60" s="261"/>
     </row>
@@ -10273,10 +10297,10 @@
         <v>25</v>
       </c>
       <c r="G61" s="77" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I61" s="251" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K61" s="261"/>
     </row>
@@ -10293,10 +10317,10 @@
         <v>26</v>
       </c>
       <c r="G62" s="77" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I62" s="251" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K62" s="261"/>
     </row>
@@ -10313,10 +10337,10 @@
         <v>27</v>
       </c>
       <c r="G63" s="77" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I63" s="251" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K63" s="261"/>
     </row>
@@ -10333,10 +10357,10 @@
         <v>28</v>
       </c>
       <c r="G64" s="77" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I64" s="251" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K64" s="261"/>
     </row>
@@ -10353,10 +10377,10 @@
         <v>29</v>
       </c>
       <c r="G65" s="77" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I65" s="251" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K65" s="261"/>
     </row>
@@ -10373,10 +10397,10 @@
         <v>2A</v>
       </c>
       <c r="G66" s="77" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I66" s="251" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K66" s="261"/>
     </row>
@@ -10393,10 +10417,10 @@
         <v>2B</v>
       </c>
       <c r="G67" s="77" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I67" s="251" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K67" s="261"/>
     </row>
@@ -10413,10 +10437,10 @@
         <v>2C</v>
       </c>
       <c r="G68" s="77" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I68" s="251" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K68" s="261"/>
     </row>
@@ -10433,10 +10457,10 @@
         <v>2D</v>
       </c>
       <c r="G69" s="77" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I69" s="251" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K69" s="261"/>
     </row>
@@ -10453,10 +10477,10 @@
         <v>2E</v>
       </c>
       <c r="G70" s="77" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I70" s="251" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K70" s="261"/>
     </row>
@@ -10473,10 +10497,10 @@
         <v>2F</v>
       </c>
       <c r="G71" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I71" s="251" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K71" s="261"/>
     </row>
@@ -10493,10 +10517,10 @@
         <v>30</v>
       </c>
       <c r="G72" s="77" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I72" s="251" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K72" s="261"/>
     </row>
@@ -10513,10 +10537,10 @@
         <v>31</v>
       </c>
       <c r="G73" s="77" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I73" s="251" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K73" s="261"/>
     </row>
@@ -10533,10 +10557,10 @@
         <v>32</v>
       </c>
       <c r="G74" s="77" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I74" s="251" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K74" s="261"/>
     </row>
@@ -10553,10 +10577,10 @@
         <v>33</v>
       </c>
       <c r="G75" s="77" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I75" s="251" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K75" s="261"/>
     </row>
@@ -10573,10 +10597,10 @@
         <v>34</v>
       </c>
       <c r="G76" s="77" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I76" s="251" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K76" s="261"/>
     </row>
@@ -10593,10 +10617,10 @@
         <v>35</v>
       </c>
       <c r="G77" s="77" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I77" s="251" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K77" s="261"/>
     </row>
@@ -10613,10 +10637,10 @@
         <v>36</v>
       </c>
       <c r="G78" s="77" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I78" s="251" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K78" s="261"/>
     </row>
@@ -10633,10 +10657,10 @@
         <v>37</v>
       </c>
       <c r="G79" s="77" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I79" s="251" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K79" s="261"/>
     </row>
@@ -10653,7 +10677,7 @@
         <v>38</v>
       </c>
       <c r="G80" s="77" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I80" s="251" t="s">
         <v>46</v>
@@ -10673,7 +10697,7 @@
         <v>39</v>
       </c>
       <c r="G81" s="77" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I81" s="251" t="s">
         <v>46</v>
@@ -10693,7 +10717,7 @@
         <v>3A</v>
       </c>
       <c r="G82" s="77" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I82" s="251" t="s">
         <v>46</v>
@@ -10713,7 +10737,7 @@
         <v>3B</v>
       </c>
       <c r="G83" s="77" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I83" s="251" t="s">
         <v>46</v>
@@ -10733,7 +10757,7 @@
         <v>3C</v>
       </c>
       <c r="G84" s="77" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I84" s="251" t="s">
         <v>46</v>
@@ -10753,7 +10777,7 @@
         <v>3D</v>
       </c>
       <c r="G85" s="77" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I85" s="251" t="s">
         <v>46</v>
@@ -10773,7 +10797,7 @@
         <v>3E</v>
       </c>
       <c r="G86" s="77" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H86" s="85" t="s">
         <v>86</v>
@@ -10829,10 +10853,10 @@
     <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B2" s="226" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C2" s="227" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D2" s="228"/>
       <c r="E2" s="229"/>
@@ -10869,7 +10893,7 @@
     </row>
     <row r="3" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="231" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C3" s="232">
         <v>5</v>
@@ -11163,10 +11187,10 @@
         <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D10" s="67">
         <v>0</v>
@@ -11261,10 +11285,10 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="91" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D11" s="67" t="s">
         <v>46</v>
@@ -11282,7 +11306,7 @@
         <v>46</v>
       </c>
       <c r="I11" s="67" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J11" s="67" t="s">
         <v>66</v>
@@ -11371,10 +11395,10 @@
         <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D16" s="67">
         <v>0</v>
@@ -11412,10 +11436,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="91" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D17" s="67" t="s">
         <v>46</v>
@@ -11462,7 +11486,7 @@
         <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D19" s="67">
         <v>1</v>
@@ -11500,10 +11524,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="91" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D20" s="67">
         <v>1</v>
@@ -11550,7 +11574,7 @@
         <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D22" s="67">
         <v>1</v>
@@ -11591,7 +11615,7 @@
         <v>139</v>
       </c>
       <c r="C23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D23" s="67">
         <v>1</v>
@@ -11744,10 +11768,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C7" s="239" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -12022,7 +12046,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" s="212" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" s="155" t="s">
         <v>107</v>
@@ -12077,7 +12101,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="212" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="96">
         <v>0</v>
@@ -12136,7 +12160,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="212" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C8" s="96">
         <v>1</v>
@@ -12195,7 +12219,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="212" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" s="96">
         <v>1</v>
@@ -12254,7 +12278,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="212" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" s="96">
         <v>0</v>
@@ -12305,7 +12329,7 @@
         <v>116</v>
       </c>
       <c r="T10" s="97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -12313,7 +12337,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="212" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="96">
         <v>0</v>
@@ -12364,7 +12388,7 @@
         <v>121</v>
       </c>
       <c r="T11" s="97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -12372,7 +12396,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="212" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12" s="96">
         <v>1</v>
@@ -12423,7 +12447,7 @@
         <v>116</v>
       </c>
       <c r="T12" s="97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -12431,7 +12455,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="212" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" s="96">
         <v>1</v>
@@ -12482,7 +12506,7 @@
         <v>121</v>
       </c>
       <c r="T13" s="97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -12490,7 +12514,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="212" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C14" s="96">
         <v>0</v>
@@ -12541,7 +12565,7 @@
         <v>121</v>
       </c>
       <c r="T14" s="97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -12549,7 +12573,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="212" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C15" s="96">
         <v>1</v>
@@ -12594,7 +12618,7 @@
         <v>116</v>
       </c>
       <c r="R15" s="49" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="S15" s="49" t="s">
         <v>121</v>
@@ -12640,10 +12664,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440C4F6B-A1C2-4D6C-BCC9-98B3358D661D}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12651,7 +12675,7 @@
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="221" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="224" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="224" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
@@ -12663,52 +12687,52 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C1" s="219" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D1" s="222" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="H1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J1" s="51" t="s">
         <v>49</v>
       </c>
       <c r="K1" s="51"/>
       <c r="L1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="217" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" s="218">
         <v>0</v>
@@ -12716,8 +12740,8 @@
       <c r="C2" s="220"/>
       <c r="D2" s="223"/>
       <c r="H2" s="218">
-        <f>SUM(H3:H6)</f>
-        <v>35</v>
+        <f>SUM(H3:H4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -12725,260 +12749,424 @@
         <v>0</v>
       </c>
       <c r="C3" s="221" t="str">
-        <f t="shared" ref="C3:C5" si="0">DEC2HEX(B3 + _xlfn.BITLSHIFT(B$2,8),4)</f>
+        <f>DEC2HEX(B3 + _xlfn.BITLSHIFT(B$2,8),4)</f>
         <v>0000</v>
       </c>
       <c r="D3" s="224" t="s">
-        <v>53</v>
+        <v>243</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
-        <f>F3*G3</f>
-        <v>32</v>
+        <f t="shared" ref="H3" si="0">F3*G3</f>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>62</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="221" t="str">
-        <f t="shared" si="0"/>
-        <v>0004</v>
+        <f t="shared" ref="C4" si="1">DEC2HEX(B4 + _xlfn.BITLSHIFT(B$2,8),4)</f>
+        <v>0001</v>
       </c>
       <c r="D4" s="224" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" t="s">
         <v>245</v>
       </c>
-      <c r="E4" t="s">
-        <v>183</v>
-      </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H6" si="1">F4*G4</f>
-        <v>1</v>
+        <f>F4*G4</f>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>62</v>
+        <v>65535</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="O4" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="221" t="str">
-        <f t="shared" si="0"/>
-        <v>0005</v>
+        <f>DEC2HEX(B5 + _xlfn.BITLSHIFT(B$2,8),4)</f>
+        <v>0003</v>
       </c>
       <c r="D5" s="224" t="s">
-        <v>246</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>247</v>
+        <v>177</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5" s="1">
         <f>F5*G5</f>
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>65535</v>
-      </c>
-      <c r="N5">
-        <v>100</v>
-      </c>
-      <c r="O5" t="s">
-        <v>253</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" s="221" t="str">
         <f>DEC2HEX(B6 + _xlfn.BITLSHIFT(B$2,8),4)</f>
-        <v>0007</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="218" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="217" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" s="218">
-        <v>1</v>
-      </c>
-      <c r="C7" s="220"/>
-      <c r="D7" s="223"/>
-      <c r="H7" s="218">
-        <f>SUM(H8:H10)</f>
+        <v>0004</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>5</v>
       </c>
+      <c r="C7" s="221" t="str">
+        <f>DEC2HEX(B7 + _xlfn.BITLSHIFT(B$2,8),4)</f>
+        <v>0005</v>
+      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8" s="221" t="str">
-        <f>DEC2HEX(B8 + _xlfn.BITLSHIFT(B$7,8),4)</f>
-        <v>0100</v>
-      </c>
-      <c r="D8" s="224" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" t="s">
-        <v>179</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1">
-        <f>F8*G8</f>
-        <v>4</v>
-      </c>
-      <c r="O8" t="s">
-        <v>180</v>
-      </c>
+        <f>DEC2HEX(B8 + _xlfn.BITLSHIFT(B$2,8),4)</f>
+        <v>0006</v>
+      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" s="221" t="str">
-        <f t="shared" ref="C9:C10" si="2">DEC2HEX(B9 + _xlfn.BITLSHIFT(B$7,8),4)</f>
-        <v>0101</v>
-      </c>
-      <c r="D9" s="224" t="s">
-        <v>182</v>
-      </c>
-      <c r="E9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" ref="H9:H10" si="3">F9*G9</f>
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>100</v>
-      </c>
-      <c r="N9">
-        <v>35</v>
-      </c>
-      <c r="O9" t="s">
-        <v>252</v>
-      </c>
+        <f>DEC2HEX(B9 + _xlfn.BITLSHIFT(B$2,8),4)</f>
+        <v>0007</v>
+      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="221" t="str">
+        <f>DEC2HEX(B10 + _xlfn.BITLSHIFT(B$2,8),4)</f>
+        <v>0008</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="221" t="str">
+        <f>DEC2HEX(B11 + _xlfn.BITLSHIFT(B$2,8),4)</f>
+        <v>0009</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="221" t="str">
+        <f>DEC2HEX(B12 + _xlfn.BITLSHIFT(B$2,8),4)</f>
+        <v>000A</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" s="218" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="217" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="218">
+        <v>1</v>
+      </c>
+      <c r="C13" s="220"/>
+      <c r="D13" s="223"/>
+      <c r="H13" s="218">
+        <f>SUM(H14:H18)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="221" t="str">
+        <f>DEC2HEX(B14 + _xlfn.BITLSHIFT(B$13,8),4)</f>
+        <v>0100</v>
+      </c>
+      <c r="D14" s="224" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <f>F14*G14</f>
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>B14+ROUNDUP(H14/8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="221" t="str">
+        <f t="shared" ref="C15:C18" si="2">DEC2HEX(B15 + _xlfn.BITLSHIFT(B$13,8),4)</f>
+        <v>0101</v>
+      </c>
+      <c r="D15" s="224" t="s">
+        <v>271</v>
+      </c>
+      <c r="E15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <f>F15*G15</f>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f t="shared" ref="B16:B18" si="3">B15+ROUNDUP(H15/8,0)</f>
         <v>2</v>
       </c>
-      <c r="C10" s="221" t="str">
+      <c r="C16" s="221" t="str">
         <f t="shared" si="2"/>
         <v>0102</v>
       </c>
-      <c r="H10" s="1">
+      <c r="D16" s="224" t="s">
+        <v>273</v>
+      </c>
+      <c r="E16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" ref="H16:H17" si="4">F16*G16</f>
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="218" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="217" t="s">
-        <v>254</v>
-      </c>
-      <c r="B11" s="218">
+        <v>3</v>
+      </c>
+      <c r="C17" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>0103</v>
+      </c>
+      <c r="D17" s="224" t="s">
+        <v>274</v>
+      </c>
+      <c r="E17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C18" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>0104</v>
+      </c>
+      <c r="D18" s="224" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <f>F18*G18</f>
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>100</v>
+      </c>
+      <c r="N18">
+        <v>35</v>
+      </c>
+      <c r="O18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" s="218" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="217" t="s">
+        <v>252</v>
+      </c>
+      <c r="B21" s="218">
         <v>2</v>
       </c>
-      <c r="C11" s="220"/>
-      <c r="D11" s="223"/>
-      <c r="H11" s="218">
-        <f>SUM(H12:H13)</f>
+      <c r="C21" s="220"/>
+      <c r="D21" s="223"/>
+      <c r="H21" s="218">
+        <f>SUM(H22:H23)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" s="221" t="str">
-        <f>DEC2HEX(B12 + _xlfn.BITLSHIFT(B$11,8),4)</f>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="221" t="str">
+        <f>DEC2HEX(B22 + _xlfn.BITLSHIFT(B$21,8),4)</f>
         <v>0200</v>
       </c>
-      <c r="D12" s="224" t="s">
-        <v>181</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D22" s="224" t="s">
+        <v>275</v>
+      </c>
+      <c r="E22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1">
+        <f>F22*G22</f>
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
         <v>179</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12" s="1">
-        <f>F12*G12</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="221" t="str">
-        <f t="shared" ref="C13" si="4">DEC2HEX(B13 + _xlfn.BITLSHIFT(B$11,8),4)</f>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="221" t="str">
+        <f t="shared" ref="C23" si="5">DEC2HEX(B23 + _xlfn.BITLSHIFT(B$21,8),4)</f>
         <v>0201</v>
       </c>
-      <c r="H13" s="1">
-        <f>F13*G13</f>
+      <c r="H23" s="1">
+        <f>F23*G23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="218" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="217" t="s">
+        <v>272</v>
+      </c>
+      <c r="B30" s="218">
+        <v>3</v>
+      </c>
+      <c r="C30" s="220"/>
+      <c r="D30" s="223"/>
+      <c r="H30" s="218">
+        <f>SUM(H31:H32)</f>
         <v>0</v>
       </c>
     </row>

--- a/docs/arch.xlsx
+++ b/docs/arch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\ProjetsRecherche\Embedded\CAN\dev\caniot\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE0835E-67A2-4228-BDA3-9B6E2A5A52F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F397AA9C-6470-4F17-A146-F81A1D509F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{3F2F15D1-277A-4EC5-A845-66E8BFF58C30}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="285">
   <si>
     <t>temperature</t>
   </si>
@@ -880,6 +880,21 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>with Q = 0 -&gt; error</t>
+  </si>
+  <si>
+    <t>with X = 0 -&gt; error</t>
+  </si>
+  <si>
+    <t>uptime shift</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1395,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2039,6 +2054,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2540,8 +2559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABEE202-717B-4A96-9406-D9A14283F0F2}">
   <dimension ref="B1:AH50"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="T40" sqref="T40"/>
+    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9036,8 +9055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36880ADF-04C9-4A12-8EFC-224812D037A0}">
   <dimension ref="A3:K87"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9106,7 +9125,9 @@
       <c r="I4" s="65">
         <v>8</v>
       </c>
-      <c r="K4" s="258"/>
+      <c r="K4" s="258" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="5" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
@@ -9268,7 +9289,9 @@
       <c r="I11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="258"/>
+      <c r="K11" s="258" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="12" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
@@ -10840,7 +10863,7 @@
   <dimension ref="A1:AI23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H10" sqref="D10:H11"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11936,7 +11959,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12631,6 +12654,60 @@
       <c r="A16">
         <v>9</v>
       </c>
+      <c r="B16" s="212" t="s">
+        <v>280</v>
+      </c>
+      <c r="C16" s="96">
+        <v>0</v>
+      </c>
+      <c r="D16" s="97">
+        <v>0</v>
+      </c>
+      <c r="E16" s="58">
+        <v>0</v>
+      </c>
+      <c r="F16" s="96">
+        <v>1</v>
+      </c>
+      <c r="G16" s="97">
+        <v>1</v>
+      </c>
+      <c r="H16" s="96">
+        <v>0</v>
+      </c>
+      <c r="I16" s="264">
+        <v>1</v>
+      </c>
+      <c r="J16" s="264">
+        <v>0</v>
+      </c>
+      <c r="K16" s="264">
+        <v>0</v>
+      </c>
+      <c r="L16" s="264">
+        <v>0</v>
+      </c>
+      <c r="M16" s="97">
+        <v>0</v>
+      </c>
+      <c r="O16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" s="264" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q16" s="264" t="s">
+        <v>116</v>
+      </c>
+      <c r="R16" s="264" t="s">
+        <v>240</v>
+      </c>
+      <c r="S16" s="264" t="s">
+        <v>121</v>
+      </c>
+      <c r="T16" s="97" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -12664,10 +12741,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440C4F6B-A1C2-4D6C-BCC9-98B3358D661D}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12676,16 +12753,17 @@
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="221" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="224" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" style="258" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>167</v>
       </c>
@@ -12698,39 +12776,40 @@
       <c r="D1" s="222" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="G1" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="H1" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="K1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="51"/>
+      <c r="M1" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="218" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="217" t="s">
         <v>161</v>
       </c>
@@ -12739,12 +12818,15 @@
       </c>
       <c r="C2" s="220"/>
       <c r="D2" s="223"/>
-      <c r="H2" s="218">
-        <f>SUM(H3:H4)</f>
+      <c r="E2" s="265" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="218">
+        <f>SUM(I3:I4)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -12755,33 +12837,36 @@
       <c r="D3" s="224" t="s">
         <v>243</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="258">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
         <v>181</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3" si="0">F3*G3</f>
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="L3">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3" si="0">G3*H3</f>
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
       <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>62</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -12792,134 +12877,161 @@
       <c r="D4" s="224" t="s">
         <v>244</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="258">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>245</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="H4" s="1">
-        <f>F4*G4</f>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+      <c r="J4">
+        <v>1</v>
       </c>
       <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>65535</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>100</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" s="221" t="str">
-        <f>DEC2HEX(B5 + _xlfn.BITLSHIFT(B$2,8),4)</f>
+        <f t="shared" ref="C5:C12" si="2">DEC2HEX(B5 + _xlfn.BITLSHIFT(B$2,8),4)</f>
         <v>0003</v>
       </c>
       <c r="D5" s="224" t="s">
         <v>53</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="258">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
         <v>177</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>8</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="H5" s="1">
-        <f>F5*G5</f>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
         <v>32</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" s="221" t="str">
-        <f>DEC2HEX(B6 + _xlfn.BITLSHIFT(B$2,8),4)</f>
+        <f t="shared" si="2"/>
         <v>0004</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E6" s="258">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" s="221" t="str">
-        <f>DEC2HEX(B7 + _xlfn.BITLSHIFT(B$2,8),4)</f>
+        <f t="shared" si="2"/>
         <v>0005</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E7" s="258">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" s="221" t="str">
-        <f>DEC2HEX(B8 + _xlfn.BITLSHIFT(B$2,8),4)</f>
+        <f t="shared" si="2"/>
         <v>0006</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E8" s="258">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" s="221" t="str">
-        <f>DEC2HEX(B9 + _xlfn.BITLSHIFT(B$2,8),4)</f>
+        <f t="shared" si="2"/>
         <v>0007</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E9" s="258">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" s="221" t="str">
-        <f>DEC2HEX(B10 + _xlfn.BITLSHIFT(B$2,8),4)</f>
+        <f t="shared" si="2"/>
         <v>0008</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E10" s="258">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" s="221" t="str">
-        <f>DEC2HEX(B11 + _xlfn.BITLSHIFT(B$2,8),4)</f>
+        <f t="shared" si="2"/>
         <v>0009</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E11" s="258">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" s="221" t="str">
-        <f>DEC2HEX(B12 + _xlfn.BITLSHIFT(B$2,8),4)</f>
+        <f t="shared" si="2"/>
         <v>000A</v>
       </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" s="218" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="258">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="217" t="s">
         <v>160</v>
       </c>
@@ -12928,12 +13040,13 @@
       </c>
       <c r="C13" s="220"/>
       <c r="D13" s="223"/>
-      <c r="H13" s="218">
-        <f>SUM(H14:H18)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E13" s="265"/>
+      <c r="I13" s="218">
+        <f>SUM(I14:I19)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0</v>
       </c>
@@ -12944,234 +13057,280 @@
       <c r="D14" s="224" t="s">
         <v>165</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="258">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
         <v>178</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
       <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <v>4</v>
       </c>
-      <c r="H14" s="1">
-        <f>F14*G14</f>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
         <v>4</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15">
-        <f>B14+ROUNDUP(H14/8,0)</f>
+        <f>B14+ROUNDUP(I14/8,0)</f>
         <v>1</v>
       </c>
       <c r="C15" s="221" t="str">
-        <f t="shared" ref="C15:C18" si="2">DEC2HEX(B15 + _xlfn.BITLSHIFT(B$13,8),4)</f>
+        <f t="shared" ref="C15:C19" si="3">DEC2HEX(B15 + _xlfn.BITLSHIFT(B$13,8),4)</f>
         <v>0101</v>
       </c>
       <c r="D15" s="224" t="s">
         <v>271</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="258">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
         <v>178</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" s="1">
-        <f>F15*G15</f>
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
-        <f t="shared" ref="B16:B18" si="3">B15+ROUNDUP(H15/8,0)</f>
         <v>2</v>
       </c>
       <c r="C16" s="221" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0102</v>
       </c>
       <c r="D16" s="224" t="s">
+        <v>284</v>
+      </c>
+      <c r="E16" s="258">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1">
+        <f>G16*H16</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="221" t="str">
+        <f t="shared" si="3"/>
+        <v>0103</v>
+      </c>
+      <c r="D17" s="224" t="s">
         <v>273</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" s="258">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
         <v>178</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>4</v>
       </c>
-      <c r="H16" s="1">
-        <f t="shared" ref="H16:H17" si="4">F16*G16</f>
+      <c r="I17" s="1">
+        <f t="shared" ref="I17:I18" si="4">G17*H17</f>
         <v>4</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" s="221" t="str">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="C17" s="221" t="str">
-        <f t="shared" si="2"/>
-        <v>0103</v>
-      </c>
-      <c r="D17" s="224" t="s">
+        <v>0104</v>
+      </c>
+      <c r="D18" s="224" t="s">
         <v>274</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" s="258">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
         <v>178</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
         <v>4</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I18" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B18">
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" s="221" t="str">
         <f t="shared" si="3"/>
+        <v>0105</v>
+      </c>
+      <c r="D19" s="224" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" s="258">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <f>G19*H19</f>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>100</v>
+      </c>
+      <c r="O19">
+        <v>35</v>
+      </c>
+      <c r="P19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" s="218" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="217" t="s">
+        <v>252</v>
+      </c>
+      <c r="B22" s="218">
+        <v>2</v>
+      </c>
+      <c r="C22" s="220"/>
+      <c r="D22" s="223"/>
+      <c r="E22" s="265"/>
+      <c r="I22" s="218">
+        <f>SUM(I23:I24)</f>
         <v>4</v>
       </c>
-      <c r="C18" s="221" t="str">
-        <f t="shared" si="2"/>
-        <v>0104</v>
-      </c>
-      <c r="D18" s="224" t="s">
-        <v>180</v>
-      </c>
-      <c r="E18" t="s">
-        <v>181</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <f>F18*G18</f>
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>100</v>
-      </c>
-      <c r="N18">
-        <v>35</v>
-      </c>
-      <c r="O18" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" s="218" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="217" t="s">
-        <v>252</v>
-      </c>
-      <c r="B21" s="218">
-        <v>2</v>
-      </c>
-      <c r="C21" s="220"/>
-      <c r="D21" s="223"/>
-      <c r="H21" s="218">
-        <f>SUM(H22:H23)</f>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="221" t="str">
+        <f>DEC2HEX(B23 + _xlfn.BITLSHIFT(B$22,8),4)</f>
+        <v>0200</v>
+      </c>
+      <c r="D23" s="224" t="s">
+        <v>275</v>
+      </c>
+      <c r="E23" s="258">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" s="221" t="str">
-        <f>DEC2HEX(B22 + _xlfn.BITLSHIFT(B$21,8),4)</f>
-        <v>0200</v>
-      </c>
-      <c r="D22" s="224" t="s">
-        <v>275</v>
-      </c>
-      <c r="E22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
+      <c r="I23" s="1">
+        <f>G23*H23</f>
         <v>4</v>
       </c>
-      <c r="H22" s="1">
-        <f>F22*G22</f>
-        <v>4</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="P23" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="221" t="str">
-        <f t="shared" ref="C23" si="5">DEC2HEX(B23 + _xlfn.BITLSHIFT(B$21,8),4)</f>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="221" t="str">
+        <f t="shared" ref="C24" si="5">DEC2HEX(B24 + _xlfn.BITLSHIFT(B$22,8),4)</f>
         <v>0201</v>
       </c>
-      <c r="H23" s="1">
-        <f>F23*G23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="218" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="217" t="s">
+      <c r="I24" s="1">
+        <f>G24*H24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="218" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="217" t="s">
         <v>272</v>
       </c>
-      <c r="B30" s="218">
+      <c r="B31" s="218">
         <v>3</v>
       </c>
-      <c r="C30" s="220"/>
-      <c r="D30" s="223"/>
-      <c r="H30" s="218">
-        <f>SUM(H31:H32)</f>
+      <c r="C31" s="220"/>
+      <c r="D31" s="223"/>
+      <c r="E31" s="265"/>
+      <c r="I31" s="218">
+        <f>SUM(I32:I33)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/docs/arch.xlsx
+++ b/docs/arch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\ProjetsRecherche\Embedded\CAN\dev\caniot\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F397AA9C-6470-4F17-A146-F81A1D509F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09464772-404B-4012-9DB8-A9B85A736E6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{3F2F15D1-277A-4EC5-A845-66E8BFF58C30}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="308">
   <si>
     <t>temperature</t>
   </si>
@@ -798,9 +798,6 @@
     <t>w</t>
   </si>
   <si>
-    <t>TELEMETRY CONFIG</t>
-  </si>
-  <si>
     <t>Data type</t>
   </si>
   <si>
@@ -855,18 +852,9 @@
     <t>OutdoorSensor1</t>
   </si>
   <si>
-    <t>abs time</t>
-  </si>
-  <si>
     <t>SCHEDULE</t>
   </si>
   <si>
-    <t>messages sent</t>
-  </si>
-  <si>
-    <t>messages received</t>
-  </si>
-  <si>
     <t>telemetry period</t>
   </si>
   <si>
@@ -894,14 +882,95 @@
     <t>with X = 0 -&gt; error</t>
   </si>
   <si>
-    <t>uptime shift</t>
+    <t>FLASH</t>
+  </si>
+  <si>
+    <t>EEPROM</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>CONFIG</t>
+  </si>
+  <si>
+    <t>0 (disabled)</t>
+  </si>
+  <si>
+    <t>UINT32_MAX</t>
+  </si>
+  <si>
+    <t>last_telemetry</t>
+  </si>
+  <si>
+    <t>message_sent</t>
+  </si>
+  <si>
+    <t>message_received</t>
+  </si>
+  <si>
+    <t>uptime_shift</t>
+  </si>
+  <si>
+    <t>abstime</t>
+  </si>
+  <si>
+    <t>schedule[1] days</t>
+  </si>
+  <si>
+    <t>schedule[0] days</t>
+  </si>
+  <si>
+    <t>schedule[0] time</t>
+  </si>
+  <si>
+    <t>schedule[0] controller</t>
+  </si>
+  <si>
+    <t>schedule[2] time</t>
+  </si>
+  <si>
+    <t>schedule[1] time</t>
+  </si>
+  <si>
+    <t>schedule[1] controller</t>
+  </si>
+  <si>
+    <t>schedule[2] days</t>
+  </si>
+  <si>
+    <t>schedule[2] controller</t>
+  </si>
+  <si>
+    <t>schedule[3] days</t>
+  </si>
+  <si>
+    <t>schedule[3] time</t>
+  </si>
+  <si>
+    <t>schedule[3] controller</t>
+  </si>
+  <si>
+    <t>schedule[4] days</t>
+  </si>
+  <si>
+    <t>schedule[4] time</t>
+  </si>
+  <si>
+    <t>schedule[4] controller</t>
+  </si>
+  <si>
+    <t>1*</t>
+  </si>
+  <si>
+    <t>TELEMETRY/SCHEDULE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -989,6 +1058,14 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1395,7 +1472,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2058,6 +2135,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2559,7 +2639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABEE202-717B-4A96-9406-D9A14283F0F2}">
   <dimension ref="B1:AH50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
@@ -3718,7 +3798,7 @@
         <v>154</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -4284,7 +4364,7 @@
         <v>153</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
@@ -4297,7 +4377,7 @@
       <c r="L40" s="48"/>
       <c r="M40" s="48"/>
       <c r="T40" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="2:34" x14ac:dyDescent="0.2">
@@ -4327,7 +4407,7 @@
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="19" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F42" s="19" t="s">
         <v>145</v>
@@ -4860,8 +4940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D135A44-A127-4252-B653-8392D6AD3A28}">
   <dimension ref="A2:BO45"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4875,7 +4955,7 @@
   <sheetData>
     <row r="2" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A2" s="246" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>157</v>
@@ -4966,7 +5046,7 @@
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A3" s="249" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>84</v>
@@ -5171,207 +5251,207 @@
     <row r="4" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A4" s="247"/>
       <c r="B4" s="237" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C4" s="241">
         <v>8</v>
       </c>
       <c r="D4" s="243" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K4" s="245" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L4" s="243" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S4" s="245" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T4" s="243" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="X4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Y4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Z4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AA4" s="245" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AB4" s="243" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AD4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AE4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AH4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AI4" s="245" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AJ4" s="243" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AK4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AL4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AM4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AN4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AO4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AP4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AQ4" s="245" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AR4" s="243" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AS4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AT4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AU4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AV4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AW4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AX4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AY4" s="245" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AZ4" s="243" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BA4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BB4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BC4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BD4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BE4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BF4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BG4" s="245" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BH4" s="243" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BI4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BJ4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BK4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BL4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BM4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BN4" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BO4" s="245" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A6" s="246" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>157</v>
@@ -5462,7 +5542,7 @@
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A7" s="248" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>83</v>
@@ -5667,7 +5747,7 @@
     <row r="8" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A8" s="247"/>
       <c r="B8" s="237" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C8" s="241">
         <v>1</v>
@@ -5867,7 +5947,7 @@
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A10" s="246" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>157</v>
@@ -5958,7 +6038,7 @@
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A11" s="249" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>83</v>
@@ -6163,7 +6243,7 @@
     <row r="12" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A12" s="247"/>
       <c r="B12" s="237" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" s="241">
         <v>4</v>
@@ -6217,34 +6297,34 @@
         <v>42</v>
       </c>
       <c r="T12" s="187" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="U12" s="188" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="V12" s="188" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W12" s="188" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X12" s="188" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Y12" s="188" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z12" s="188" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AA12" s="240" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AB12" s="187" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC12" s="188" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AD12" s="185" t="s">
         <v>46</v>
@@ -6397,7 +6477,7 @@
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A14" s="246" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>157</v>
@@ -6488,7 +6568,7 @@
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A15" s="249" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>84</v>
@@ -6693,7 +6773,7 @@
     <row r="16" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A16" s="247"/>
       <c r="B16" s="237" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C16" s="241">
         <v>4</v>
@@ -6927,7 +7007,7 @@
     </row>
     <row r="18" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A18" s="246" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>157</v>
@@ -7018,7 +7098,7 @@
     </row>
     <row r="19" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A19" s="249" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>84</v>
@@ -7223,7 +7303,7 @@
     <row r="20" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A20" s="247"/>
       <c r="B20" s="237" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C20" s="241">
         <v>8</v>
@@ -7373,34 +7453,34 @@
         <v>25</v>
       </c>
       <c r="AZ20" s="187" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BA20" s="188" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BB20" s="188" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BC20" s="188" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BD20" s="188" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BE20" s="188" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BF20" s="188" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BG20" s="240" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BH20" s="187" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BI20" s="188" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BJ20" s="185" t="s">
         <v>46</v>
@@ -7457,7 +7537,7 @@
     </row>
     <row r="22" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A22" s="246" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>157</v>
@@ -7548,7 +7628,7 @@
     </row>
     <row r="23" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A23" s="249" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>84</v>
@@ -7677,83 +7757,83 @@
       <c r="AQ23" s="24">
         <v>39</v>
       </c>
-      <c r="AR23" s="23">
+      <c r="AR23" s="263">
         <v>40</v>
       </c>
-      <c r="AS23" s="19">
+      <c r="AS23" s="18">
         <v>41</v>
       </c>
-      <c r="AT23" s="19">
+      <c r="AT23" s="18">
         <v>42</v>
       </c>
-      <c r="AU23" s="19">
+      <c r="AU23" s="18">
         <v>43</v>
       </c>
-      <c r="AV23" s="19">
+      <c r="AV23" s="18">
         <v>44</v>
       </c>
-      <c r="AW23" s="19">
+      <c r="AW23" s="18">
         <v>45</v>
       </c>
-      <c r="AX23" s="19">
-        <v>46</v>
-      </c>
-      <c r="AY23" s="24">
+      <c r="AX23" s="18">
+        <v>46</v>
+      </c>
+      <c r="AY23" s="209">
         <v>47</v>
       </c>
-      <c r="AZ23" s="23">
+      <c r="AZ23" s="263">
         <v>48</v>
       </c>
-      <c r="BA23" s="19">
+      <c r="BA23" s="18">
         <v>49</v>
       </c>
-      <c r="BB23" s="19">
+      <c r="BB23" s="18">
         <v>50</v>
       </c>
-      <c r="BC23" s="19">
+      <c r="BC23" s="18">
         <v>51</v>
       </c>
-      <c r="BD23" s="19">
+      <c r="BD23" s="18">
         <v>52</v>
       </c>
-      <c r="BE23" s="19">
+      <c r="BE23" s="18">
         <v>53</v>
       </c>
-      <c r="BF23" s="19">
+      <c r="BF23" s="18">
         <v>54</v>
       </c>
-      <c r="BG23" s="24">
+      <c r="BG23" s="209">
         <v>55</v>
       </c>
-      <c r="BH23" s="23">
+      <c r="BH23" s="263">
         <v>56</v>
       </c>
-      <c r="BI23" s="19">
+      <c r="BI23" s="18">
         <v>57</v>
       </c>
-      <c r="BJ23" s="19">
+      <c r="BJ23" s="18">
         <v>58</v>
       </c>
-      <c r="BK23" s="19">
+      <c r="BK23" s="18">
         <v>59</v>
       </c>
-      <c r="BL23" s="19">
+      <c r="BL23" s="18">
         <v>60</v>
       </c>
-      <c r="BM23" s="19">
+      <c r="BM23" s="18">
         <v>61</v>
       </c>
-      <c r="BN23" s="19">
+      <c r="BN23" s="18">
         <v>62</v>
       </c>
-      <c r="BO23" s="24">
+      <c r="BO23" s="209">
         <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A24" s="247"/>
       <c r="B24" s="237" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C24" s="241">
         <v>8</v>
@@ -7855,105 +7935,105 @@
         <v>24</v>
       </c>
       <c r="AJ24" s="187" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AK24" s="188" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AL24" s="188" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AM24" s="188" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AN24" s="188" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AO24" s="188" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AP24" s="188" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AQ24" s="240" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AR24" s="187" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AS24" s="188" t="s">
-        <v>255</v>
-      </c>
-      <c r="AT24" s="185" t="s">
-        <v>46</v>
+        <v>254</v>
+      </c>
+      <c r="AT24" s="188" t="s">
+        <v>258</v>
       </c>
       <c r="AU24" s="188" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AV24" s="188" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AW24" s="188" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AX24" s="188" t="s">
-        <v>259</v>
-      </c>
-      <c r="AY24" s="240" t="s">
-        <v>259</v>
+        <v>258</v>
+      </c>
+      <c r="AY24" s="188" t="s">
+        <v>258</v>
       </c>
       <c r="AZ24" s="187" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BA24" s="188" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BB24" s="188" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BC24" s="188" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BD24" s="188" t="s">
         <v>259</v>
       </c>
-      <c r="BE24" s="185" t="s">
-        <v>46</v>
+      <c r="BE24" s="188" t="s">
+        <v>259</v>
       </c>
       <c r="BF24" s="188" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG24" s="240" t="s">
-        <v>260</v>
-      </c>
-      <c r="BH24" s="187" t="s">
-        <v>260</v>
+        <v>259</v>
+      </c>
+      <c r="BH24" s="188" t="s">
+        <v>259</v>
       </c>
       <c r="BI24" s="188" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BJ24" s="188" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BK24" s="188" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BL24" s="188" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BM24" s="188" t="s">
-        <v>260</v>
-      </c>
-      <c r="BN24" s="188" t="s">
-        <v>260</v>
-      </c>
-      <c r="BO24" s="240" t="s">
-        <v>260</v>
+        <v>259</v>
+      </c>
+      <c r="BN24" s="185" t="s">
+        <v>46</v>
+      </c>
+      <c r="BO24" s="186" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A26" s="246" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>157</v>
@@ -8044,7 +8124,7 @@
     </row>
     <row r="27" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A27" s="249" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>84</v>
@@ -8249,7 +8329,7 @@
     <row r="28" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A28" s="247"/>
       <c r="B28" s="237" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C28" s="241">
         <v>8</v>
@@ -8399,52 +8479,52 @@
         <v>26</v>
       </c>
       <c r="AZ28" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BA28" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BB28" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BC28" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BD28" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BE28" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BF28" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BG28" s="41" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BH28" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BI28" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BJ28" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BK28" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BL28" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BM28" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN28" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BO28" s="41" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:67" x14ac:dyDescent="0.2">
@@ -8483,7 +8563,7 @@
     </row>
     <row r="30" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A30" s="246" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>157</v>
@@ -8779,7 +8859,7 @@
     <row r="32" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A32" s="247"/>
       <c r="B32" s="237" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C32" s="241">
         <v>0</v>
@@ -9056,7 +9136,7 @@
   <dimension ref="A3:K87"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9126,7 +9206,7 @@
         <v>8</v>
       </c>
       <c r="K4" s="258" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -9290,7 +9370,7 @@
         <v>45</v>
       </c>
       <c r="K11" s="258" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -9514,10 +9594,10 @@
         <v>58</v>
       </c>
       <c r="I23" s="64" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K23" s="259" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -9576,7 +9656,7 @@
         <v>85</v>
       </c>
       <c r="I25" s="250" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K25" s="260"/>
     </row>
@@ -9604,7 +9684,7 @@
       </c>
       <c r="H26" s="86"/>
       <c r="I26" s="250" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K26" s="260"/>
     </row>
@@ -9627,7 +9707,7 @@
       </c>
       <c r="H27" s="86"/>
       <c r="I27" s="250" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K27" s="260"/>
     </row>
@@ -9648,7 +9728,7 @@
       </c>
       <c r="H28" s="88"/>
       <c r="I28" s="250" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K28" s="261"/>
     </row>
@@ -9669,7 +9749,7 @@
       </c>
       <c r="H29" s="88"/>
       <c r="I29" s="250" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K29" s="261"/>
     </row>
@@ -9690,7 +9770,7 @@
       </c>
       <c r="H30" s="88"/>
       <c r="I30" s="250" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K30" s="261"/>
     </row>
@@ -9711,7 +9791,7 @@
       </c>
       <c r="H31" s="88"/>
       <c r="I31" s="250" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K31" s="261"/>
     </row>
@@ -9732,10 +9812,10 @@
       </c>
       <c r="H32" s="88"/>
       <c r="I32" s="251" t="s">
+        <v>266</v>
+      </c>
+      <c r="K32" s="261" t="s">
         <v>267</v>
-      </c>
-      <c r="K32" s="261" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.25">
@@ -9755,7 +9835,7 @@
       </c>
       <c r="H33" s="88"/>
       <c r="I33" s="251" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K33" s="261"/>
     </row>
@@ -9776,7 +9856,7 @@
       </c>
       <c r="H34" s="88"/>
       <c r="I34" s="251" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K34" s="261"/>
     </row>
@@ -9797,7 +9877,7 @@
       </c>
       <c r="H35" s="88"/>
       <c r="I35" s="251" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K35" s="261"/>
     </row>
@@ -9818,7 +9898,7 @@
       </c>
       <c r="H36" s="88"/>
       <c r="I36" s="251" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K36" s="261"/>
     </row>
@@ -9839,7 +9919,7 @@
       </c>
       <c r="H37" s="88"/>
       <c r="I37" s="251" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K37" s="261"/>
     </row>
@@ -9860,7 +9940,7 @@
       </c>
       <c r="H38" s="85"/>
       <c r="I38" s="251" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K38" s="261"/>
     </row>
@@ -9881,7 +9961,7 @@
       </c>
       <c r="H39" s="89"/>
       <c r="I39" s="251" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K39" s="261"/>
     </row>
@@ -9901,7 +9981,7 @@
         <v>182</v>
       </c>
       <c r="I40" s="252" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K40" s="261"/>
     </row>
@@ -9921,7 +10001,7 @@
         <v>183</v>
       </c>
       <c r="I41" s="252" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K41" s="261"/>
     </row>
@@ -9941,7 +10021,7 @@
         <v>184</v>
       </c>
       <c r="I42" s="252" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K42" s="261"/>
     </row>
@@ -9961,7 +10041,7 @@
         <v>185</v>
       </c>
       <c r="I43" s="252" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K43" s="261"/>
     </row>
@@ -9981,7 +10061,7 @@
         <v>186</v>
       </c>
       <c r="I44" s="252" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K44" s="261"/>
     </row>
@@ -10001,7 +10081,7 @@
         <v>187</v>
       </c>
       <c r="I45" s="252" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K45" s="261"/>
     </row>
@@ -10021,7 +10101,7 @@
         <v>188</v>
       </c>
       <c r="I46" s="252" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K46" s="261"/>
     </row>
@@ -10041,7 +10121,7 @@
         <v>189</v>
       </c>
       <c r="I47" s="252" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K47" s="261"/>
     </row>
@@ -10061,10 +10141,10 @@
         <v>190</v>
       </c>
       <c r="I48" s="251" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K48" s="261" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="4:11" x14ac:dyDescent="0.25">
@@ -10083,7 +10163,7 @@
         <v>191</v>
       </c>
       <c r="I49" s="251" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K49" s="261"/>
     </row>
@@ -10103,7 +10183,7 @@
         <v>192</v>
       </c>
       <c r="I50" s="251" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K50" s="261"/>
     </row>
@@ -10123,7 +10203,7 @@
         <v>193</v>
       </c>
       <c r="I51" s="251" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K51" s="261"/>
     </row>
@@ -10143,7 +10223,7 @@
         <v>194</v>
       </c>
       <c r="I52" s="251" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K52" s="261"/>
     </row>
@@ -10163,7 +10243,7 @@
         <v>195</v>
       </c>
       <c r="I53" s="251" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K53" s="261"/>
     </row>
@@ -10183,7 +10263,7 @@
         <v>196</v>
       </c>
       <c r="I54" s="251" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K54" s="261"/>
     </row>
@@ -10203,7 +10283,7 @@
         <v>197</v>
       </c>
       <c r="I55" s="251" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K55" s="261"/>
     </row>
@@ -10223,7 +10303,7 @@
         <v>198</v>
       </c>
       <c r="I56" s="251" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K56" s="261"/>
     </row>
@@ -10243,7 +10323,7 @@
         <v>199</v>
       </c>
       <c r="I57" s="251" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K57" s="261"/>
     </row>
@@ -10263,7 +10343,7 @@
         <v>200</v>
       </c>
       <c r="I58" s="251" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K58" s="261"/>
     </row>
@@ -10283,7 +10363,7 @@
         <v>201</v>
       </c>
       <c r="I59" s="251" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K59" s="261"/>
     </row>
@@ -10303,7 +10383,7 @@
         <v>202</v>
       </c>
       <c r="I60" s="251" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K60" s="261"/>
     </row>
@@ -10323,7 +10403,7 @@
         <v>203</v>
       </c>
       <c r="I61" s="251" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K61" s="261"/>
     </row>
@@ -10343,7 +10423,7 @@
         <v>204</v>
       </c>
       <c r="I62" s="251" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K62" s="261"/>
     </row>
@@ -10363,7 +10443,7 @@
         <v>205</v>
       </c>
       <c r="I63" s="251" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K63" s="261"/>
     </row>
@@ -10383,7 +10463,7 @@
         <v>206</v>
       </c>
       <c r="I64" s="251" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K64" s="261"/>
     </row>
@@ -10403,7 +10483,7 @@
         <v>207</v>
       </c>
       <c r="I65" s="251" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K65" s="261"/>
     </row>
@@ -10423,7 +10503,7 @@
         <v>208</v>
       </c>
       <c r="I66" s="251" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K66" s="261"/>
     </row>
@@ -10443,7 +10523,7 @@
         <v>209</v>
       </c>
       <c r="I67" s="251" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K67" s="261"/>
     </row>
@@ -10463,7 +10543,7 @@
         <v>210</v>
       </c>
       <c r="I68" s="251" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K68" s="261"/>
     </row>
@@ -10483,7 +10563,7 @@
         <v>211</v>
       </c>
       <c r="I69" s="251" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K69" s="261"/>
     </row>
@@ -10503,7 +10583,7 @@
         <v>212</v>
       </c>
       <c r="I70" s="251" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K70" s="261"/>
     </row>
@@ -10523,7 +10603,7 @@
         <v>213</v>
       </c>
       <c r="I71" s="251" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K71" s="261"/>
     </row>
@@ -10543,7 +10623,7 @@
         <v>214</v>
       </c>
       <c r="I72" s="251" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K72" s="261"/>
     </row>
@@ -10563,7 +10643,7 @@
         <v>215</v>
       </c>
       <c r="I73" s="251" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K73" s="261"/>
     </row>
@@ -10583,7 +10663,7 @@
         <v>216</v>
       </c>
       <c r="I74" s="251" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K74" s="261"/>
     </row>
@@ -10603,7 +10683,7 @@
         <v>217</v>
       </c>
       <c r="I75" s="251" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K75" s="261"/>
     </row>
@@ -10623,7 +10703,7 @@
         <v>218</v>
       </c>
       <c r="I76" s="251" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K76" s="261"/>
     </row>
@@ -10643,7 +10723,7 @@
         <v>219</v>
       </c>
       <c r="I77" s="251" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K77" s="261"/>
     </row>
@@ -10663,7 +10743,7 @@
         <v>220</v>
       </c>
       <c r="I78" s="251" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K78" s="261"/>
     </row>
@@ -10683,7 +10763,7 @@
         <v>221</v>
       </c>
       <c r="I79" s="251" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K79" s="261"/>
     </row>
@@ -11791,10 +11871,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="239" t="s">
         <v>256</v>
-      </c>
-      <c r="C7" s="239" t="s">
-        <v>257</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -11959,7 +12039,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12655,7 +12735,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="212" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C16" s="96">
         <v>0</v>
@@ -12694,7 +12774,7 @@
         <v>105</v>
       </c>
       <c r="P16" s="264" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q16" s="264" t="s">
         <v>116</v>
@@ -12709,27 +12789,60 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C17" s="96">
+        <v>1</v>
+      </c>
+      <c r="D17" s="97">
+        <v>0</v>
+      </c>
+      <c r="E17" s="58">
+        <v>1</v>
+      </c>
+      <c r="F17" s="96">
+        <v>1</v>
+      </c>
+      <c r="G17" s="97">
+        <v>1</v>
+      </c>
+      <c r="H17" s="96">
+        <v>0</v>
+      </c>
+      <c r="I17" s="264">
+        <v>1</v>
+      </c>
+      <c r="J17" s="264">
+        <v>1</v>
+      </c>
+      <c r="K17" s="264">
+        <v>0</v>
+      </c>
+      <c r="L17" s="264">
+        <v>0</v>
+      </c>
+      <c r="M17" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14</v>
       </c>
@@ -12741,591 +12854,926 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440C4F6B-A1C2-4D6C-BCC9-98B3358D661D}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="221" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="224" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" style="258" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="7" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="221" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="224" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" style="258" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="7" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="219" t="s">
+      <c r="E1" s="219" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="222" t="s">
+      <c r="F1" s="222" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="63"/>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="I1" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="J1" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="M1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="51"/>
+      <c r="O1" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="218" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="217" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="218">
-        <v>0</v>
-      </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="265" t="s">
+      <c r="C2" s="218" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="218">
+        <v>0</v>
+      </c>
+      <c r="E2" s="220"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="265" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="218">
-        <f>SUM(I3:I4)</f>
+      <c r="K2" s="218">
+        <f>SUM(K3:K4)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="221" t="str">
-        <f>DEC2HEX(B3 + _xlfn.BITLSHIFT(B$2,8),4)</f>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="221" t="str">
+        <f>DEC2HEX(D3 + _xlfn.BITLSHIFT(D$2,8),4)</f>
         <v>0000</v>
       </c>
-      <c r="D3" s="224" t="s">
+      <c r="F3" s="224" t="s">
         <v>243</v>
       </c>
-      <c r="E3" s="258">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" s="258">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>181</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3" si="0">G3*H3</f>
+      <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
+      <c r="K3" s="1">
+        <f t="shared" ref="K3" si="0">I3*J3</f>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
         <v>62</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="221" t="str">
-        <f t="shared" ref="C4" si="1">DEC2HEX(B4 + _xlfn.BITLSHIFT(B$2,8),4)</f>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="221" t="str">
+        <f t="shared" ref="E4" si="1">DEC2HEX(D4 + _xlfn.BITLSHIFT(D$2,8),4)</f>
         <v>0001</v>
       </c>
-      <c r="D4" s="224" t="s">
+      <c r="F4" s="224" t="s">
         <v>244</v>
       </c>
-      <c r="E4" s="258">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" s="258">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>245</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>2</v>
       </c>
-      <c r="I4" s="1">
-        <f>G4*H4</f>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
         <v>2</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>65535</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>100</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="C5" s="221" t="str">
-        <f t="shared" ref="C5:C12" si="2">DEC2HEX(B5 + _xlfn.BITLSHIFT(B$2,8),4)</f>
+      <c r="E5" s="221" t="str">
+        <f t="shared" ref="E5:E12" si="2">DEC2HEX(D5 + _xlfn.BITLSHIFT(D$2,8),4)</f>
         <v>0003</v>
       </c>
-      <c r="D5" s="224" t="s">
+      <c r="F5" s="224" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="258">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" s="258">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>177</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>8</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="I5" s="1">
-        <f>G5*H5</f>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
         <v>32</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="C6" s="221" t="str">
+      <c r="E6" s="221" t="str">
         <f t="shared" si="2"/>
         <v>0004</v>
       </c>
-      <c r="E6" s="258">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="F6" s="224" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="258">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D7">
         <v>5</v>
       </c>
-      <c r="C7" s="221" t="str">
+      <c r="E7" s="221" t="str">
         <f t="shared" si="2"/>
         <v>0005</v>
       </c>
-      <c r="E7" s="258">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="F7" s="224" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="258">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="C8" s="221" t="str">
+      <c r="E8" s="221" t="str">
         <f t="shared" si="2"/>
         <v>0006</v>
       </c>
-      <c r="E8" s="258">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="F8" s="224" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="258">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D9">
         <v>7</v>
       </c>
-      <c r="C9" s="221" t="str">
+      <c r="E9" s="221" t="str">
         <f t="shared" si="2"/>
         <v>0007</v>
       </c>
-      <c r="E9" s="258">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="F9" s="224" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="258">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D10">
         <v>8</v>
       </c>
-      <c r="C10" s="221" t="str">
+      <c r="E10" s="221" t="str">
         <f t="shared" si="2"/>
         <v>0008</v>
       </c>
-      <c r="E10" s="258">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="F10" s="224" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="258">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D11">
         <v>9</v>
       </c>
-      <c r="C11" s="221" t="str">
+      <c r="E11" s="221" t="str">
         <f t="shared" si="2"/>
         <v>0009</v>
       </c>
-      <c r="E11" s="258">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="F11" s="224" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="258">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D12">
         <v>10</v>
       </c>
-      <c r="C12" s="221" t="str">
+      <c r="E12" s="221" t="str">
         <f t="shared" si="2"/>
         <v>000A</v>
       </c>
-      <c r="E12" s="258">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" s="218" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="217" t="s">
+      <c r="F12" s="224" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="258">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="G13" s="258">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" s="218" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="217" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="218">
-        <v>1</v>
-      </c>
-      <c r="C13" s="220"/>
-      <c r="D13" s="223"/>
-      <c r="E13" s="265"/>
-      <c r="I13" s="218">
-        <f>SUM(I14:I19)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" s="221" t="str">
-        <f>DEC2HEX(B14 + _xlfn.BITLSHIFT(B$13,8),4)</f>
+      <c r="C14" s="218" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" s="218">
+        <v>1</v>
+      </c>
+      <c r="E14" s="220"/>
+      <c r="F14" s="223"/>
+      <c r="G14" s="265"/>
+      <c r="K14" s="218">
+        <f>SUM(K15:K21)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="221" t="str">
+        <f>DEC2HEX(D15 + _xlfn.BITLSHIFT(D$14,8),4)</f>
         <v>0100</v>
       </c>
-      <c r="D14" s="224" t="s">
+      <c r="F15" s="224" t="s">
         <v>165</v>
       </c>
-      <c r="E14" s="258">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G15" s="258">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
         <v>178</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
         <v>4</v>
       </c>
-      <c r="I14" s="1">
-        <f>G14*H14</f>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
         <v>4</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <f>B14+ROUNDUP(I14/8,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C15" s="221" t="str">
-        <f t="shared" ref="C15:C19" si="3">DEC2HEX(B15 + _xlfn.BITLSHIFT(B$13,8),4)</f>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>D15+ROUNDUP(K15/8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="221" t="str">
+        <f>DEC2HEX(D16 + _xlfn.BITLSHIFT(D$14,8),4)</f>
         <v>0101</v>
       </c>
-      <c r="D15" s="224" t="s">
-        <v>271</v>
-      </c>
-      <c r="E15" s="258">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="F16" s="224" t="s">
+        <v>290</v>
+      </c>
+      <c r="G16" s="258">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
         <v>178</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
         <v>4</v>
       </c>
-      <c r="I15" s="1">
-        <f>G15*H15</f>
+      <c r="K16" s="1">
+        <f>I16*J16</f>
         <v>4</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D17">
         <v>2</v>
       </c>
-      <c r="C16" s="221" t="str">
-        <f t="shared" si="3"/>
+      <c r="E17" s="221" t="str">
+        <f t="shared" ref="E17:E21" si="3">DEC2HEX(D17 + _xlfn.BITLSHIFT(D$14,8),4)</f>
         <v>0102</v>
       </c>
-      <c r="D16" s="224" t="s">
-        <v>284</v>
-      </c>
-      <c r="E16" s="258">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="F17" s="224" t="s">
+        <v>289</v>
+      </c>
+      <c r="G17" s="266" t="s">
+        <v>306</v>
+      </c>
+      <c r="H17" t="s">
         <v>178</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
         <v>4</v>
       </c>
-      <c r="I16" s="1">
-        <f>G16*H16</f>
+      <c r="K17" s="1">
+        <f>I17*J17</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f t="shared" ref="D18" si="4">D17+ROUNDUP(K17/8,0)</f>
         <v>3</v>
       </c>
-      <c r="C17" s="221" t="str">
+      <c r="E18" s="221" t="str">
         <f t="shared" si="3"/>
         <v>0103</v>
       </c>
-      <c r="D17" s="224" t="s">
-        <v>273</v>
-      </c>
-      <c r="E17" s="258">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="F18" s="224" t="s">
+        <v>286</v>
+      </c>
+      <c r="G18" s="258">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
         <v>178</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
         <v>4</v>
       </c>
-      <c r="I17" s="1">
-        <f t="shared" ref="I17:I18" si="4">G17*H17</f>
+      <c r="K18" s="1">
         <v>4</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B18">
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" s="221" t="str">
+        <f t="shared" si="3"/>
+        <v>0103</v>
+      </c>
+      <c r="F19" s="224" t="s">
+        <v>287</v>
+      </c>
+      <c r="G19" s="258">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>178</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
         <v>4</v>
       </c>
-      <c r="C18" s="221" t="str">
+      <c r="K19" s="1">
+        <f t="shared" ref="K19:K20" si="5">I19*J19</f>
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f t="shared" ref="D20" si="6">D19+ROUNDUP(K19/8,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E20" s="221" t="str">
         <f t="shared" si="3"/>
         <v>0104</v>
       </c>
-      <c r="D18" s="224" t="s">
-        <v>274</v>
-      </c>
-      <c r="E18" s="258">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="F20" s="224" t="s">
+        <v>288</v>
+      </c>
+      <c r="G20" s="258">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
         <v>178</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
         <v>4</v>
       </c>
-      <c r="I18" s="1">
-        <f t="shared" si="4"/>
+      <c r="K20" s="1">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B19">
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" s="221" t="str">
+        <f t="shared" si="3"/>
+        <v>0104</v>
+      </c>
+      <c r="F21" s="224" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" s="258">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>181</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <f>I21*J21</f>
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>100</v>
+      </c>
+      <c r="Q21">
+        <v>35</v>
+      </c>
+      <c r="R21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f t="shared" ref="D22" si="7">D21+ROUNDUP(K21/8,0)</f>
         <v>5</v>
       </c>
-      <c r="C19" s="221" t="str">
-        <f t="shared" si="3"/>
-        <v>0105</v>
-      </c>
-      <c r="D19" s="224" t="s">
-        <v>180</v>
-      </c>
-      <c r="E19" s="258">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>181</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
-        <f>G19*H19</f>
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>100</v>
-      </c>
-      <c r="O19">
-        <v>35</v>
-      </c>
-      <c r="P19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" s="218" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="217" t="s">
-        <v>252</v>
-      </c>
-      <c r="B22" s="218">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" s="218" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="217" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24" s="218" t="s">
+        <v>307</v>
+      </c>
+      <c r="C24" s="218" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" s="218">
         <v>2</v>
       </c>
-      <c r="C22" s="220"/>
-      <c r="D22" s="223"/>
-      <c r="E22" s="265"/>
-      <c r="I22" s="218">
-        <f>SUM(I23:I24)</f>
+      <c r="E24" s="220"/>
+      <c r="F24" s="223"/>
+      <c r="G24" s="265"/>
+      <c r="K24" s="218">
+        <f>SUM(K25:K26)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" s="221" t="str">
-        <f>DEC2HEX(B23 + _xlfn.BITLSHIFT(B$22,8),4)</f>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="221" t="str">
+        <f>DEC2HEX(D25 + _xlfn.BITLSHIFT(D$24,8),4)</f>
         <v>0200</v>
       </c>
-      <c r="D23" s="224" t="s">
-        <v>275</v>
-      </c>
-      <c r="E23" s="258">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="F25" s="224" t="s">
+        <v>271</v>
+      </c>
+      <c r="G25" s="258">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
         <v>178</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
         <v>4</v>
       </c>
-      <c r="I23" s="1">
-        <f>G23*H23</f>
+      <c r="K25" s="1">
+        <f>I25*J25</f>
         <v>4</v>
       </c>
-      <c r="P23" t="s">
+      <c r="O25" t="s">
+        <v>284</v>
+      </c>
+      <c r="P25" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q25">
+        <v>10</v>
+      </c>
+      <c r="R25" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="221" t="str">
-        <f t="shared" ref="C24" si="5">DEC2HEX(B24 + _xlfn.BITLSHIFT(B$22,8),4)</f>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="221" t="str">
+        <f t="shared" ref="E26:E40" si="8">DEC2HEX(D26 + _xlfn.BITLSHIFT(D$24,8),4)</f>
         <v>0201</v>
       </c>
-      <c r="I24" s="1">
-        <f>G24*H24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="218" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="217" t="s">
-        <v>272</v>
-      </c>
-      <c r="B31" s="218">
+      <c r="F26" s="224" t="s">
+        <v>292</v>
+      </c>
+      <c r="G26" s="258">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <f>I26*J26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" s="221" t="str">
+        <f t="shared" si="8"/>
+        <v>0202</v>
+      </c>
+      <c r="F27" s="224" t="s">
+        <v>293</v>
+      </c>
+      <c r="G27" s="258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D28">
         <v>3</v>
       </c>
-      <c r="C31" s="220"/>
-      <c r="D31" s="223"/>
-      <c r="E31" s="265"/>
-      <c r="I31" s="218">
-        <f>SUM(I32:I33)</f>
-        <v>0</v>
+      <c r="E28" s="221" t="str">
+        <f t="shared" si="8"/>
+        <v>0203</v>
+      </c>
+      <c r="F28" s="224" t="s">
+        <v>294</v>
+      </c>
+      <c r="G28" s="258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" s="221" t="str">
+        <f t="shared" si="8"/>
+        <v>0204</v>
+      </c>
+      <c r="F29" s="224" t="s">
+        <v>291</v>
+      </c>
+      <c r="G29" s="258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" s="221" t="str">
+        <f t="shared" si="8"/>
+        <v>0205</v>
+      </c>
+      <c r="F30" s="224" t="s">
+        <v>296</v>
+      </c>
+      <c r="G30" s="258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31" s="221" t="str">
+        <f t="shared" si="8"/>
+        <v>0206</v>
+      </c>
+      <c r="F31" s="224" t="s">
+        <v>297</v>
+      </c>
+      <c r="G31" s="258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32" s="221" t="str">
+        <f t="shared" si="8"/>
+        <v>0207</v>
+      </c>
+      <c r="F32" s="224" t="s">
+        <v>298</v>
+      </c>
+      <c r="G32" s="258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33" s="221" t="str">
+        <f t="shared" si="8"/>
+        <v>0208</v>
+      </c>
+      <c r="F33" s="224" t="s">
+        <v>295</v>
+      </c>
+      <c r="G33" s="258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34" s="221" t="str">
+        <f t="shared" si="8"/>
+        <v>0209</v>
+      </c>
+      <c r="F34" s="224" t="s">
+        <v>299</v>
+      </c>
+      <c r="G34" s="258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35" s="221" t="str">
+        <f t="shared" si="8"/>
+        <v>020A</v>
+      </c>
+      <c r="F35" s="224" t="s">
+        <v>300</v>
+      </c>
+      <c r="G35" s="258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36" s="221" t="str">
+        <f t="shared" si="8"/>
+        <v>020B</v>
+      </c>
+      <c r="F36" s="224" t="s">
+        <v>301</v>
+      </c>
+      <c r="G36" s="258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37" s="221" t="str">
+        <f t="shared" si="8"/>
+        <v>020C</v>
+      </c>
+      <c r="F37" s="224" t="s">
+        <v>302</v>
+      </c>
+      <c r="G37" s="258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38" s="221" t="str">
+        <f t="shared" si="8"/>
+        <v>020D</v>
+      </c>
+      <c r="F38" s="224" t="s">
+        <v>303</v>
+      </c>
+      <c r="G38" s="258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39" s="221" t="str">
+        <f t="shared" si="8"/>
+        <v>020E</v>
+      </c>
+      <c r="F39" s="224" t="s">
+        <v>304</v>
+      </c>
+      <c r="G39" s="258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40" s="221" t="str">
+        <f t="shared" si="8"/>
+        <v>020F</v>
+      </c>
+      <c r="F40" s="224" t="s">
+        <v>305</v>
+      </c>
+      <c r="G40" s="258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="218" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="218" t="s">
+        <v>283</v>
+      </c>
+      <c r="B41" s="218" t="s">
+        <v>270</v>
+      </c>
+      <c r="C41" s="218" t="s">
+        <v>281</v>
+      </c>
+      <c r="D41" s="218">
+        <v>3</v>
+      </c>
+      <c r="E41" s="220"/>
+      <c r="F41" s="223"/>
+      <c r="G41" s="265"/>
+      <c r="K41" s="218">
+        <f>SUM(K42:K43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" s="221" t="str">
+        <f>DEC2HEX(D42 + _xlfn.BITLSHIFT(D$41,8),4)</f>
+        <v>0300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="221" t="str">
+        <f>DEC2HEX(D43 + _xlfn.BITLSHIFT(D$41,8),4)</f>
+        <v>0301</v>
       </c>
     </row>
   </sheetData>

--- a/docs/arch.xlsx
+++ b/docs/arch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\ProjetsRecherche\Embedded\CAN\dev\caniot\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09464772-404B-4012-9DB8-A9B85A736E6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43786FC-560D-4A6F-9FBD-476EFE6C09C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{3F2F15D1-277A-4EC5-A845-66E8BFF58C30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3F2F15D1-277A-4EC5-A845-66E8BFF58C30}"/>
   </bookViews>
   <sheets>
     <sheet name="frames-data-bits" sheetId="2" r:id="rId1"/>
@@ -2640,7 +2640,7 @@
   <dimension ref="B1:AH50"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4940,7 +4940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D135A44-A127-4252-B653-8392D6AD3A28}">
   <dimension ref="A2:BO45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -9135,8 +9135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36880ADF-04C9-4A12-8EFC-224812D037A0}">
   <dimension ref="A3:K87"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12039,7 +12039,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12856,7 +12856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440C4F6B-A1C2-4D6C-BCC9-98B3358D661D}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>

--- a/docs/arch.xlsx
+++ b/docs/arch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\ProjetsRecherche\Embedded\CAN\dev\caniot\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43786FC-560D-4A6F-9FBD-476EFE6C09C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CDEC63-4528-420D-86B4-102E404C62A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3F2F15D1-277A-4EC5-A845-66E8BFF58C30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3F2F15D1-277A-4EC5-A845-66E8BFF58C30}"/>
   </bookViews>
   <sheets>
     <sheet name="frames-data-bits" sheetId="2" r:id="rId1"/>
@@ -4940,8 +4940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D135A44-A127-4252-B653-8392D6AD3A28}">
   <dimension ref="A2:BO45"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5764,41 +5764,41 @@
       <c r="G8" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="238" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="M8" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="N8" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="O8" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="184" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="185" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="185" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="185" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" s="185" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="185" t="s">
-        <v>46</v>
-      </c>
-      <c r="R8" s="185" t="s">
-        <v>46</v>
-      </c>
-      <c r="S8" s="186" t="s">
-        <v>46</v>
+      <c r="P8" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" s="44" t="s">
+        <v>42</v>
       </c>
       <c r="T8" s="184" t="s">
         <v>46</v>
@@ -9135,7 +9135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36880ADF-04C9-4A12-8EFC-224812D037A0}">
   <dimension ref="A3:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>

--- a/docs/arch.xlsx
+++ b/docs/arch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\ProjetsRecherche\Embedded\CAN\dev\caniot\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CDEC63-4528-420D-86B4-102E404C62A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5C78FA-48A2-4AE6-83D9-8DBFE0848B0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3F2F15D1-277A-4EC5-A845-66E8BFF58C30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{3F2F15D1-277A-4EC5-A845-66E8BFF58C30}"/>
   </bookViews>
   <sheets>
     <sheet name="frames-data-bits" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="347">
   <si>
     <t>temperature</t>
   </si>
@@ -201,9 +201,6 @@
     <t>Device</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>val</t>
   </si>
   <si>
@@ -531,12 +528,6 @@
     <t>parts</t>
   </si>
   <si>
-    <t>part size (B)</t>
-  </si>
-  <si>
-    <t>attribute size (B)</t>
-  </si>
-  <si>
     <t>uptime</t>
   </si>
   <si>
@@ -780,9 +771,6 @@
     <t>uint16_t</t>
   </si>
   <si>
-    <t>PROGMEM</t>
-  </si>
-  <si>
     <t>min</t>
   </si>
   <si>
@@ -903,12 +891,6 @@
     <t>last_telemetry</t>
   </si>
   <si>
-    <t>message_sent</t>
-  </si>
-  <si>
-    <t>message_received</t>
-  </si>
-  <si>
     <t>uptime_shift</t>
   </si>
   <si>
@@ -924,53 +906,188 @@
     <t>schedule[0] time</t>
   </si>
   <si>
-    <t>schedule[0] controller</t>
-  </si>
-  <si>
     <t>schedule[2] time</t>
   </si>
   <si>
     <t>schedule[1] time</t>
   </si>
   <si>
-    <t>schedule[1] controller</t>
-  </si>
-  <si>
     <t>schedule[2] days</t>
   </si>
   <si>
-    <t>schedule[2] controller</t>
-  </si>
-  <si>
     <t>schedule[3] days</t>
   </si>
   <si>
     <t>schedule[3] time</t>
   </si>
   <si>
-    <t>schedule[3] controller</t>
-  </si>
-  <si>
     <t>schedule[4] days</t>
   </si>
   <si>
     <t>schedule[4] time</t>
   </si>
   <si>
-    <t>schedule[4] controller</t>
-  </si>
-  <si>
     <t>1*</t>
   </si>
   <si>
-    <t>TELEMETRY/SCHEDULE</t>
+    <t>schedule[0] command</t>
+  </si>
+  <si>
+    <t>schedule[1] command</t>
+  </si>
+  <si>
+    <t>schedule[2] command</t>
+  </si>
+  <si>
+    <t>schedule[3] command</t>
+  </si>
+  <si>
+    <t>schedule[4] command</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>name[0:3]</t>
+  </si>
+  <si>
+    <t>name[4:7]</t>
+  </si>
+  <si>
+    <t>name[8:11]</t>
+  </si>
+  <si>
+    <t>name[12:15]</t>
+  </si>
+  <si>
+    <t>name[16:19]</t>
+  </si>
+  <si>
+    <t>name[20:23]</t>
+  </si>
+  <si>
+    <t>name[24:27]</t>
+  </si>
+  <si>
+    <t>name[28:31]</t>
+  </si>
+  <si>
+    <t>127 (everyday)</t>
+  </si>
+  <si>
+    <t>0b1000011</t>
+  </si>
+  <si>
+    <t>Mo Sa Su</t>
+  </si>
+  <si>
+    <t>0 = "00:00"</t>
+  </si>
+  <si>
+    <t>96="24:00"</t>
+  </si>
+  <si>
+    <t>quarters (15min)</t>
+  </si>
+  <si>
+    <t>38 = "9:30"</t>
+  </si>
+  <si>
+    <t>Attribute Key</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>section (identification, system, config, schedule, …)</t>
+  </si>
+  <si>
+    <t>offse for attribute bigger that 4B (i.e. name)</t>
+  </si>
+  <si>
+    <t>attribute in section, starting at 0</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>255 (section</t>
+  </si>
+  <si>
+    <t>size (B)</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Request ID</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>Response controller must include Query controllers or more</t>
+  </si>
+  <si>
+    <t>response.controllers &amp; query.controllers == query.controllers</t>
+  </si>
+  <si>
+    <t>last_query_error</t>
+  </si>
+  <si>
+    <t>last_telemetry_error</t>
+  </si>
+  <si>
+    <t>received.total</t>
+  </si>
+  <si>
+    <t>received.read_attribute</t>
+  </si>
+  <si>
+    <t>received.write_attribute</t>
+  </si>
+  <si>
+    <t>received.command</t>
+  </si>
+  <si>
+    <t>received.request_telemetry</t>
+  </si>
+  <si>
+    <t>received.processed</t>
+  </si>
+  <si>
+    <t>received.query_failed</t>
+  </si>
+  <si>
+    <t>sent.total</t>
+  </si>
+  <si>
+    <t>sent.telemetry</t>
+  </si>
+  <si>
+    <t>telemetry request random period</t>
+  </si>
+  <si>
+    <t>random period between 0 and value when requesting telemetry in broadcast</t>
+  </si>
+  <si>
+    <t>calculated_abstime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1070,8 +1187,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1177,6 +1301,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFADEF4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1472,7 +1602,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2035,12 +2165,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2139,6 +2263,42 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2637,10 +2797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABEE202-717B-4A96-9406-D9A14283F0F2}">
-  <dimension ref="B1:AH50"/>
+  <dimension ref="B1:AH59"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="N13" sqref="N13:U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2654,7 +2814,7 @@
     <row r="1" spans="2:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="207" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="200"/>
       <c r="D2" s="200"/>
@@ -2695,27 +2855,27 @@
     <row r="4" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B4" s="202"/>
       <c r="C4" s="192" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="196" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4" s="197" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="196" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M4" s="197" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N4" s="203"/>
     </row>
@@ -2791,7 +2951,7 @@
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.2">
@@ -2952,13 +3112,13 @@
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C13" s="166" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13" s="167" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" s="172" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F13" s="168" t="s">
         <v>23</v>
@@ -2967,46 +3127,46 @@
         <v>23</v>
       </c>
       <c r="H13" s="169" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I13" s="170" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J13" s="169" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K13" s="169" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L13" s="169" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M13" s="171" t="s">
-        <v>82</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="O13" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="P13" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q13" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="R13" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="S13" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="T13" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="U13" s="25" t="s">
-        <v>45</v>
+        <v>81</v>
+      </c>
+      <c r="N13" s="167" t="s">
+        <v>327</v>
+      </c>
+      <c r="O13" s="167" t="s">
+        <v>327</v>
+      </c>
+      <c r="P13" s="167" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q13" s="167" t="s">
+        <v>327</v>
+      </c>
+      <c r="R13" s="167" t="s">
+        <v>327</v>
+      </c>
+      <c r="S13" s="167" t="s">
+        <v>327</v>
+      </c>
+      <c r="T13" s="167" t="s">
+        <v>327</v>
+      </c>
+      <c r="U13" s="167" t="s">
+        <v>327</v>
       </c>
       <c r="V13" s="25" t="s">
         <v>45</v>
@@ -3054,13 +3214,13 @@
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
-      <c r="H14" s="242" t="s">
+      <c r="H14" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="242" t="s">
+      <c r="I14" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="242" t="s">
+      <c r="J14" s="240" t="s">
         <v>44</v>
       </c>
       <c r="K14" s="20"/>
@@ -3124,10 +3284,10 @@
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>155</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>156</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -3163,20 +3323,20 @@
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C17" s="211" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="209"/>
@@ -3209,17 +3369,17 @@
     <row r="18" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
       <c r="C18" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="24"/>
@@ -3795,10 +3955,10 @@
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -3813,20 +3973,20 @@
     </row>
     <row r="29" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="11"/>
@@ -3834,17 +3994,17 @@
     <row r="30" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B30" s="6"/>
       <c r="C30" s="210" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="8"/>
@@ -3991,52 +4151,52 @@
     </row>
     <row r="34" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C34" s="187" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D34" s="188" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E34" s="188" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F34" s="188" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G34" s="188" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H34" s="188" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I34" s="188" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J34" s="188" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K34" s="188" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L34" s="188" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M34" s="188" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N34" s="188" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O34" s="188" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P34" s="188" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q34" s="188" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R34" s="188" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S34" s="184" t="s">
         <v>46</v>
@@ -4361,10 +4521,10 @@
     </row>
     <row r="40" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
@@ -4377,25 +4537,25 @@
       <c r="L40" s="48"/>
       <c r="M40" s="48"/>
       <c r="T40" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B41" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="11"/>
@@ -4403,17 +4563,17 @@
     <row r="42" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B42" s="6"/>
       <c r="C42" s="210" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="19" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="8"/>
@@ -4560,100 +4720,100 @@
     </row>
     <row r="46" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C46" s="187" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="F46" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="H46" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="I46" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="J46" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="K46" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="L46" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="M46" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="N46" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="O46" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="P46" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q46" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="R46" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="S46" s="189" t="s">
         <v>147</v>
       </c>
-      <c r="D46" s="188" t="s">
+      <c r="T46" s="190" t="s">
         <v>147</v>
       </c>
-      <c r="E46" s="188" t="s">
+      <c r="U46" s="190" t="s">
         <v>147</v>
       </c>
-      <c r="F46" s="188" t="s">
+      <c r="V46" s="190" t="s">
         <v>147</v>
       </c>
-      <c r="G46" s="188" t="s">
+      <c r="W46" s="190" t="s">
         <v>147</v>
       </c>
-      <c r="H46" s="188" t="s">
+      <c r="X46" s="190" t="s">
         <v>147</v>
       </c>
-      <c r="I46" s="188" t="s">
+      <c r="Y46" s="190" t="s">
         <v>147</v>
       </c>
-      <c r="J46" s="188" t="s">
+      <c r="Z46" s="191" t="s">
         <v>147</v>
       </c>
-      <c r="K46" s="188" t="s">
+      <c r="AA46" s="189" t="s">
         <v>147</v>
       </c>
-      <c r="L46" s="188" t="s">
+      <c r="AB46" s="190" t="s">
         <v>147</v>
       </c>
-      <c r="M46" s="188" t="s">
+      <c r="AC46" s="190" t="s">
         <v>147</v>
       </c>
-      <c r="N46" s="188" t="s">
+      <c r="AD46" s="190" t="s">
         <v>147</v>
       </c>
-      <c r="O46" s="188" t="s">
+      <c r="AE46" s="190" t="s">
         <v>147</v>
       </c>
-      <c r="P46" s="188" t="s">
+      <c r="AF46" s="190" t="s">
         <v>147</v>
       </c>
-      <c r="Q46" s="188" t="s">
+      <c r="AG46" s="190" t="s">
         <v>147</v>
       </c>
-      <c r="R46" s="188" t="s">
+      <c r="AH46" s="191" t="s">
         <v>147</v>
-      </c>
-      <c r="S46" s="189" t="s">
-        <v>148</v>
-      </c>
-      <c r="T46" s="190" t="s">
-        <v>148</v>
-      </c>
-      <c r="U46" s="190" t="s">
-        <v>148</v>
-      </c>
-      <c r="V46" s="190" t="s">
-        <v>148</v>
-      </c>
-      <c r="W46" s="190" t="s">
-        <v>148</v>
-      </c>
-      <c r="X46" s="190" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y46" s="190" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z46" s="191" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA46" s="189" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB46" s="190" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC46" s="190" t="s">
-        <v>148</v>
-      </c>
-      <c r="AD46" s="190" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE46" s="190" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF46" s="190" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG46" s="190" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH46" s="191" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="47" spans="2:34" x14ac:dyDescent="0.2">
@@ -4732,7 +4892,7 @@
       <c r="AG48" s="27"/>
       <c r="AH48" s="28"/>
     </row>
-    <row r="49" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C49" s="23">
         <v>32</v>
       </c>
@@ -4830,54 +4990,54 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C50" s="189" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="190" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E50" s="190" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F50" s="190" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G50" s="190" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H50" s="190" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I50" s="190" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J50" s="191" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K50" s="189" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L50" s="190" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M50" s="190" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N50" s="190" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O50" s="190" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P50" s="190" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q50" s="190" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R50" s="191" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S50" s="184" t="s">
         <v>46</v>
@@ -4926,6 +5086,205 @@
       </c>
       <c r="AH50" s="186" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="28"/>
+    </row>
+    <row r="53" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="C53" s="23">
+        <v>0</v>
+      </c>
+      <c r="D53" s="19">
+        <v>1</v>
+      </c>
+      <c r="E53" s="19">
+        <v>2</v>
+      </c>
+      <c r="F53" s="19">
+        <v>3</v>
+      </c>
+      <c r="G53" s="19">
+        <v>4</v>
+      </c>
+      <c r="H53" s="19">
+        <v>5</v>
+      </c>
+      <c r="I53" s="19">
+        <v>6</v>
+      </c>
+      <c r="J53" s="24">
+        <v>7</v>
+      </c>
+      <c r="K53" s="23">
+        <v>8</v>
+      </c>
+      <c r="L53" s="19">
+        <v>9</v>
+      </c>
+      <c r="M53" s="19">
+        <v>10</v>
+      </c>
+      <c r="N53" s="19">
+        <v>11</v>
+      </c>
+      <c r="O53" s="19">
+        <v>12</v>
+      </c>
+      <c r="P53" s="19">
+        <v>13</v>
+      </c>
+      <c r="Q53" s="19">
+        <v>14</v>
+      </c>
+      <c r="R53" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="C54" s="187" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="E54" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="G54" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="H54" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="I54" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="J54" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="K54" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="L54" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="M54" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="N54" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="O54" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="P54" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q54" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="R54" s="238" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="C55" s="268" t="s">
+        <v>319</v>
+      </c>
+      <c r="D55" s="268" t="s">
+        <v>319</v>
+      </c>
+      <c r="E55" s="268" t="s">
+        <v>319</v>
+      </c>
+      <c r="F55" s="268" t="s">
+        <v>319</v>
+      </c>
+      <c r="G55" s="269" t="s">
+        <v>252</v>
+      </c>
+      <c r="H55" s="269" t="s">
+        <v>252</v>
+      </c>
+      <c r="I55" s="269" t="s">
+        <v>252</v>
+      </c>
+      <c r="J55" s="269" t="s">
+        <v>252</v>
+      </c>
+      <c r="K55" s="269" t="s">
+        <v>252</v>
+      </c>
+      <c r="L55" s="269" t="s">
+        <v>252</v>
+      </c>
+      <c r="M55" s="269" t="s">
+        <v>252</v>
+      </c>
+      <c r="N55" s="269" t="s">
+        <v>252</v>
+      </c>
+      <c r="O55" s="270" t="s">
+        <v>320</v>
+      </c>
+      <c r="P55" s="270" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q55" s="270" t="s">
+        <v>320</v>
+      </c>
+      <c r="R55" s="270" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="57" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="C57" s="268" t="s">
+        <v>319</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="58" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="C58" s="269" t="s">
+        <v>252</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="59" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="C59" s="270" t="s">
+        <v>320</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -4940,8 +5299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D135A44-A127-4252-B653-8392D6AD3A28}">
   <dimension ref="A2:BO45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4954,13 +5313,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A2" s="246" t="s">
-        <v>252</v>
+      <c r="A2" s="244" t="s">
+        <v>248</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="235">
+        <v>156</v>
+      </c>
+      <c r="C2" s="233">
         <v>0</v>
       </c>
       <c r="D2" s="26" t="s">
@@ -5045,13 +5404,13 @@
       <c r="BO2" s="28"/>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A3" s="249" t="s">
-        <v>260</v>
+      <c r="A3" s="247" t="s">
+        <v>256</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="236" t="str">
+        <v>83</v>
+      </c>
+      <c r="C3" s="234" t="str">
         <f>DEC2BIN(C2,3)</f>
         <v>000</v>
       </c>
@@ -5249,214 +5608,214 @@
       </c>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A4" s="247"/>
-      <c r="B4" s="237" t="s">
-        <v>253</v>
-      </c>
-      <c r="C4" s="241">
+      <c r="A4" s="245"/>
+      <c r="B4" s="235" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="239">
         <v>8</v>
       </c>
-      <c r="D4" s="243" t="s">
-        <v>260</v>
-      </c>
-      <c r="E4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="F4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="G4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="H4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="I4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="J4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="K4" s="245" t="s">
-        <v>260</v>
-      </c>
-      <c r="L4" s="243" t="s">
-        <v>260</v>
-      </c>
-      <c r="M4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="N4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="O4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="P4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="R4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="S4" s="245" t="s">
-        <v>260</v>
-      </c>
-      <c r="T4" s="243" t="s">
-        <v>260</v>
-      </c>
-      <c r="U4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="V4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="W4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="X4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA4" s="245" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB4" s="243" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="AD4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="AI4" s="245" t="s">
-        <v>260</v>
-      </c>
-      <c r="AJ4" s="243" t="s">
-        <v>260</v>
-      </c>
-      <c r="AK4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="AL4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="AM4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="AN4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="AO4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="AP4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="AQ4" s="245" t="s">
-        <v>260</v>
-      </c>
-      <c r="AR4" s="243" t="s">
-        <v>260</v>
-      </c>
-      <c r="AS4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="AT4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="AU4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="AV4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="AW4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="AX4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="AY4" s="245" t="s">
-        <v>260</v>
-      </c>
-      <c r="AZ4" s="243" t="s">
-        <v>260</v>
-      </c>
-      <c r="BA4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="BC4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="BD4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="BE4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="BF4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="BG4" s="245" t="s">
-        <v>260</v>
-      </c>
-      <c r="BH4" s="243" t="s">
-        <v>260</v>
-      </c>
-      <c r="BI4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="BJ4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="BK4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="BL4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="BM4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="BN4" s="244" t="s">
-        <v>260</v>
-      </c>
-      <c r="BO4" s="245" t="s">
-        <v>260</v>
+      <c r="D4" s="241" t="s">
+        <v>256</v>
+      </c>
+      <c r="E4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="G4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="H4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="I4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="J4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="K4" s="243" t="s">
+        <v>256</v>
+      </c>
+      <c r="L4" s="241" t="s">
+        <v>256</v>
+      </c>
+      <c r="M4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="N4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="O4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="P4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="R4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="S4" s="243" t="s">
+        <v>256</v>
+      </c>
+      <c r="T4" s="241" t="s">
+        <v>256</v>
+      </c>
+      <c r="U4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="V4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="W4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="X4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA4" s="243" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB4" s="241" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="AI4" s="243" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ4" s="241" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="AM4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="AN4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="AO4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="AP4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="AQ4" s="243" t="s">
+        <v>256</v>
+      </c>
+      <c r="AR4" s="241" t="s">
+        <v>256</v>
+      </c>
+      <c r="AS4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="AT4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="AV4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="AW4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="AY4" s="243" t="s">
+        <v>256</v>
+      </c>
+      <c r="AZ4" s="241" t="s">
+        <v>256</v>
+      </c>
+      <c r="BA4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="BB4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="BC4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="BD4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="BE4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="BF4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="BG4" s="243" t="s">
+        <v>256</v>
+      </c>
+      <c r="BH4" s="241" t="s">
+        <v>256</v>
+      </c>
+      <c r="BI4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="BJ4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="BK4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="BL4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="BM4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="BN4" s="242" t="s">
+        <v>256</v>
+      </c>
+      <c r="BO4" s="243" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A6" s="246" t="s">
-        <v>252</v>
+      <c r="A6" s="244" t="s">
+        <v>248</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="235">
+        <v>156</v>
+      </c>
+      <c r="C6" s="233">
         <v>1</v>
       </c>
       <c r="D6" s="26" t="s">
@@ -5541,17 +5900,17 @@
       <c r="BO6" s="28"/>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A7" s="248" t="s">
-        <v>266</v>
+      <c r="A7" s="246" t="s">
+        <v>262</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="236" t="str">
+        <v>82</v>
+      </c>
+      <c r="C7" s="234" t="str">
         <f>DEC2BIN(C6,3)</f>
         <v>001</v>
       </c>
-      <c r="D7" s="263">
+      <c r="D7" s="261">
         <v>0</v>
       </c>
       <c r="E7" s="18">
@@ -5745,11 +6104,11 @@
       </c>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A8" s="247"/>
-      <c r="B8" s="237" t="s">
-        <v>253</v>
-      </c>
-      <c r="C8" s="241">
+      <c r="A8" s="245"/>
+      <c r="B8" s="235" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="239">
         <v>1</v>
       </c>
       <c r="D8" s="45" t="s">
@@ -5773,7 +6132,7 @@
       <c r="J8" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="238" t="s">
+      <c r="K8" s="236" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="42" t="s">
@@ -5946,13 +6305,13 @@
       </c>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A10" s="246" t="s">
-        <v>252</v>
+      <c r="A10" s="244" t="s">
+        <v>248</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="235">
+        <v>156</v>
+      </c>
+      <c r="C10" s="233">
         <v>2</v>
       </c>
       <c r="D10" s="26" t="s">
@@ -6037,13 +6396,13 @@
       <c r="BO10" s="28"/>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A11" s="249" t="s">
-        <v>261</v>
+      <c r="A11" s="247" t="s">
+        <v>257</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="236" t="str">
+        <v>82</v>
+      </c>
+      <c r="C11" s="234" t="str">
         <f>DEC2BIN(C10,3)</f>
         <v>010</v>
       </c>
@@ -6241,11 +6600,11 @@
       </c>
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A12" s="247"/>
-      <c r="B12" s="237" t="s">
-        <v>253</v>
-      </c>
-      <c r="C12" s="241">
+      <c r="A12" s="245"/>
+      <c r="B12" s="235" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="239">
         <v>4</v>
       </c>
       <c r="D12" s="45" t="s">
@@ -6269,7 +6628,7 @@
       <c r="J12" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="238" t="s">
+      <c r="K12" s="236" t="s">
         <v>34</v>
       </c>
       <c r="L12" s="42" t="s">
@@ -6297,34 +6656,34 @@
         <v>42</v>
       </c>
       <c r="T12" s="187" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="U12" s="188" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="V12" s="188" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="W12" s="188" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="X12" s="188" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Y12" s="188" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Z12" s="188" t="s">
-        <v>254</v>
-      </c>
-      <c r="AA12" s="240" t="s">
-        <v>254</v>
+        <v>250</v>
+      </c>
+      <c r="AA12" s="238" t="s">
+        <v>250</v>
       </c>
       <c r="AB12" s="187" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AC12" s="188" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AD12" s="185" t="s">
         <v>46</v>
@@ -6476,13 +6835,13 @@
       <c r="AI13" s="20"/>
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A14" s="246" t="s">
-        <v>252</v>
+      <c r="A14" s="244" t="s">
+        <v>248</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="235">
+        <v>156</v>
+      </c>
+      <c r="C14" s="233">
         <v>3</v>
       </c>
       <c r="D14" s="26" t="s">
@@ -6567,13 +6926,13 @@
       <c r="BO14" s="28"/>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A15" s="249" t="s">
-        <v>262</v>
+      <c r="A15" s="247" t="s">
+        <v>258</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="236" t="str">
+        <v>83</v>
+      </c>
+      <c r="C15" s="234" t="str">
         <f>DEC2BIN(C14,3)</f>
         <v>011</v>
       </c>
@@ -6771,11 +7130,11 @@
       </c>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A16" s="247"/>
-      <c r="B16" s="237" t="s">
-        <v>253</v>
-      </c>
-      <c r="C16" s="241">
+      <c r="A16" s="245"/>
+      <c r="B16" s="235" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" s="239">
         <v>4</v>
       </c>
       <c r="D16" s="45" t="s">
@@ -6799,7 +7158,7 @@
       <c r="J16" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="238" t="s">
+      <c r="K16" s="236" t="s">
         <v>34</v>
       </c>
       <c r="L16" s="42" t="s">
@@ -7006,13 +7365,13 @@
       <c r="AI17" s="20"/>
     </row>
     <row r="18" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A18" s="246" t="s">
-        <v>252</v>
+      <c r="A18" s="244" t="s">
+        <v>248</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="235">
+        <v>156</v>
+      </c>
+      <c r="C18" s="233">
         <v>4</v>
       </c>
       <c r="D18" s="26" t="s">
@@ -7097,13 +7456,13 @@
       <c r="BO18" s="28"/>
     </row>
     <row r="19" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A19" s="249" t="s">
-        <v>263</v>
+      <c r="A19" s="247" t="s">
+        <v>259</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="236" t="str">
+        <v>83</v>
+      </c>
+      <c r="C19" s="234" t="str">
         <f>DEC2BIN(C18,3)</f>
         <v>100</v>
       </c>
@@ -7301,11 +7660,11 @@
       </c>
     </row>
     <row r="20" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A20" s="247"/>
-      <c r="B20" s="237" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="241">
+      <c r="A20" s="245"/>
+      <c r="B20" s="235" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="239">
         <v>8</v>
       </c>
       <c r="D20" s="45" t="s">
@@ -7329,7 +7688,7 @@
       <c r="J20" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="K20" s="238" t="s">
+      <c r="K20" s="236" t="s">
         <v>34</v>
       </c>
       <c r="L20" s="42" t="s">
@@ -7453,34 +7812,34 @@
         <v>25</v>
       </c>
       <c r="AZ20" s="187" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BA20" s="188" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BB20" s="188" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BC20" s="188" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BD20" s="188" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BE20" s="188" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BF20" s="188" t="s">
-        <v>254</v>
-      </c>
-      <c r="BG20" s="240" t="s">
-        <v>254</v>
+        <v>250</v>
+      </c>
+      <c r="BG20" s="238" t="s">
+        <v>250</v>
       </c>
       <c r="BH20" s="187" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BI20" s="188" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BJ20" s="185" t="s">
         <v>46</v>
@@ -7536,13 +7895,13 @@
       <c r="AI21" s="20"/>
     </row>
     <row r="22" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A22" s="246" t="s">
-        <v>252</v>
+      <c r="A22" s="244" t="s">
+        <v>248</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" s="235">
+        <v>156</v>
+      </c>
+      <c r="C22" s="233">
         <v>5</v>
       </c>
       <c r="D22" s="26" t="s">
@@ -7627,13 +7986,13 @@
       <c r="BO22" s="28"/>
     </row>
     <row r="23" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A23" s="249" t="s">
-        <v>264</v>
+      <c r="A23" s="247" t="s">
+        <v>260</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="236" t="str">
+        <v>83</v>
+      </c>
+      <c r="C23" s="234" t="str">
         <f>DEC2BIN(C22,3)</f>
         <v>101</v>
       </c>
@@ -7757,7 +8116,7 @@
       <c r="AQ23" s="24">
         <v>39</v>
       </c>
-      <c r="AR23" s="263">
+      <c r="AR23" s="261">
         <v>40</v>
       </c>
       <c r="AS23" s="18">
@@ -7781,7 +8140,7 @@
       <c r="AY23" s="209">
         <v>47</v>
       </c>
-      <c r="AZ23" s="263">
+      <c r="AZ23" s="261">
         <v>48</v>
       </c>
       <c r="BA23" s="18">
@@ -7805,7 +8164,7 @@
       <c r="BG23" s="209">
         <v>55</v>
       </c>
-      <c r="BH23" s="263">
+      <c r="BH23" s="261">
         <v>56</v>
       </c>
       <c r="BI23" s="18">
@@ -7831,11 +8190,11 @@
       </c>
     </row>
     <row r="24" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A24" s="247"/>
-      <c r="B24" s="237" t="s">
-        <v>253</v>
-      </c>
-      <c r="C24" s="241">
+      <c r="A24" s="245"/>
+      <c r="B24" s="235" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="239">
         <v>8</v>
       </c>
       <c r="D24" s="45" t="s">
@@ -7859,7 +8218,7 @@
       <c r="J24" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="K24" s="238" t="s">
+      <c r="K24" s="236" t="s">
         <v>34</v>
       </c>
       <c r="L24" s="42" t="s">
@@ -7935,94 +8294,94 @@
         <v>24</v>
       </c>
       <c r="AJ24" s="187" t="s">
+        <v>250</v>
+      </c>
+      <c r="AK24" s="188" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL24" s="188" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM24" s="188" t="s">
+        <v>250</v>
+      </c>
+      <c r="AN24" s="188" t="s">
+        <v>250</v>
+      </c>
+      <c r="AO24" s="188" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP24" s="188" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ24" s="238" t="s">
+        <v>250</v>
+      </c>
+      <c r="AR24" s="187" t="s">
+        <v>250</v>
+      </c>
+      <c r="AS24" s="188" t="s">
+        <v>250</v>
+      </c>
+      <c r="AT24" s="188" t="s">
         <v>254</v>
       </c>
-      <c r="AK24" s="188" t="s">
+      <c r="AU24" s="188" t="s">
         <v>254</v>
       </c>
-      <c r="AL24" s="188" t="s">
+      <c r="AV24" s="188" t="s">
         <v>254</v>
       </c>
-      <c r="AM24" s="188" t="s">
+      <c r="AW24" s="188" t="s">
         <v>254</v>
       </c>
-      <c r="AN24" s="188" t="s">
+      <c r="AX24" s="188" t="s">
         <v>254</v>
       </c>
-      <c r="AO24" s="188" t="s">
+      <c r="AY24" s="188" t="s">
         <v>254</v>
       </c>
-      <c r="AP24" s="188" t="s">
+      <c r="AZ24" s="187" t="s">
         <v>254</v>
       </c>
-      <c r="AQ24" s="240" t="s">
+      <c r="BA24" s="188" t="s">
         <v>254</v>
       </c>
-      <c r="AR24" s="187" t="s">
+      <c r="BB24" s="188" t="s">
         <v>254</v>
       </c>
-      <c r="AS24" s="188" t="s">
+      <c r="BC24" s="188" t="s">
         <v>254</v>
       </c>
-      <c r="AT24" s="188" t="s">
-        <v>258</v>
-      </c>
-      <c r="AU24" s="188" t="s">
-        <v>258</v>
-      </c>
-      <c r="AV24" s="188" t="s">
-        <v>258</v>
-      </c>
-      <c r="AW24" s="188" t="s">
-        <v>258</v>
-      </c>
-      <c r="AX24" s="188" t="s">
-        <v>258</v>
-      </c>
-      <c r="AY24" s="188" t="s">
-        <v>258</v>
-      </c>
-      <c r="AZ24" s="187" t="s">
-        <v>258</v>
-      </c>
-      <c r="BA24" s="188" t="s">
-        <v>258</v>
-      </c>
-      <c r="BB24" s="188" t="s">
-        <v>258</v>
-      </c>
-      <c r="BC24" s="188" t="s">
-        <v>258</v>
-      </c>
       <c r="BD24" s="188" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="BE24" s="188" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="BF24" s="188" t="s">
-        <v>259</v>
-      </c>
-      <c r="BG24" s="240" t="s">
-        <v>259</v>
+        <v>255</v>
+      </c>
+      <c r="BG24" s="238" t="s">
+        <v>255</v>
       </c>
       <c r="BH24" s="188" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="BI24" s="188" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="BJ24" s="188" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="BK24" s="188" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="BL24" s="188" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="BM24" s="188" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="BN24" s="185" t="s">
         <v>46</v>
@@ -8032,13 +8391,13 @@
       </c>
     </row>
     <row r="26" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A26" s="246" t="s">
-        <v>252</v>
+      <c r="A26" s="244" t="s">
+        <v>248</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="235">
+        <v>156</v>
+      </c>
+      <c r="C26" s="233">
         <v>6</v>
       </c>
       <c r="D26" s="26" t="s">
@@ -8123,13 +8482,13 @@
       <c r="BO26" s="28"/>
     </row>
     <row r="27" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A27" s="249" t="s">
-        <v>265</v>
+      <c r="A27" s="247" t="s">
+        <v>261</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="236" t="str">
+        <v>83</v>
+      </c>
+      <c r="C27" s="234" t="str">
         <f>DEC2BIN(C26,3)</f>
         <v>110</v>
       </c>
@@ -8327,11 +8686,11 @@
       </c>
     </row>
     <row r="28" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A28" s="247"/>
-      <c r="B28" s="237" t="s">
-        <v>253</v>
-      </c>
-      <c r="C28" s="241">
+      <c r="A28" s="245"/>
+      <c r="B28" s="235" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" s="239">
         <v>8</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -8479,52 +8838,52 @@
         <v>26</v>
       </c>
       <c r="AZ28" s="39" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BA28" s="40" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BB28" s="40" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BC28" s="40" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BD28" s="40" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BE28" s="40" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BF28" s="40" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BG28" s="41" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BH28" s="39" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BI28" s="40" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BJ28" s="40" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BK28" s="40" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BL28" s="40" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BM28" s="40" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BN28" s="40" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BO28" s="41" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:67" x14ac:dyDescent="0.2">
@@ -8562,13 +8921,13 @@
       <c r="AI29" s="20"/>
     </row>
     <row r="30" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A30" s="246" t="s">
-        <v>252</v>
+      <c r="A30" s="244" t="s">
+        <v>248</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" s="235">
+        <v>156</v>
+      </c>
+      <c r="C30" s="233">
         <v>7</v>
       </c>
       <c r="D30" s="26" t="s">
@@ -8653,13 +9012,13 @@
       <c r="BO30" s="28"/>
     </row>
     <row r="31" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A31" s="249" t="s">
+      <c r="A31" s="247" t="s">
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="236" t="str">
+        <v>82</v>
+      </c>
+      <c r="C31" s="234" t="str">
         <f>DEC2BIN(C30,3)</f>
         <v>111</v>
       </c>
@@ -8857,11 +9216,11 @@
       </c>
     </row>
     <row r="32" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A32" s="247"/>
-      <c r="B32" s="237" t="s">
-        <v>253</v>
-      </c>
-      <c r="C32" s="241">
+      <c r="A32" s="245"/>
+      <c r="B32" s="235" t="s">
+        <v>249</v>
+      </c>
+      <c r="C32" s="239">
         <v>0</v>
       </c>
       <c r="D32" s="184" t="s">
@@ -9133,10 +9492,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36880ADF-04C9-4A12-8EFC-224812D037A0}">
-  <dimension ref="A3:K87"/>
+  <dimension ref="A3:K93"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9151,38 +9510,38 @@
   <sheetData>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="60"/>
       <c r="D3" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="63" t="s">
-        <v>84</v>
-      </c>
       <c r="G3" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I3" s="64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K3" s="63"/>
     </row>
     <row r="4" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="75">
@@ -9200,18 +9559,18 @@
         <v>23</v>
       </c>
       <c r="H4" s="86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I4" s="65">
         <v>8</v>
       </c>
-      <c r="K4" s="258" t="s">
-        <v>278</v>
+      <c r="K4" s="256" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="61">
         <v>2</v>
@@ -9234,16 +9593,16 @@
         <v>44</v>
       </c>
       <c r="H5" s="86" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" s="65">
         <v>8</v>
       </c>
-      <c r="K5" s="258"/>
+      <c r="K5" s="256"/>
     </row>
     <row r="6" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="62">
         <v>0</v>
@@ -9264,12 +9623,12 @@
         <v>14</v>
       </c>
       <c r="H6" s="86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I6" s="65">
         <v>8</v>
       </c>
-      <c r="K6" s="258"/>
+      <c r="K6" s="256"/>
     </row>
     <row r="7" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="50"/>
@@ -9286,15 +9645,15 @@
         <v>3</v>
       </c>
       <c r="G7" s="75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I7" s="72">
         <v>0</v>
       </c>
-      <c r="K7" s="258"/>
+      <c r="K7" s="256"/>
     </row>
     <row r="8" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="50"/>
@@ -9304,7 +9663,7 @@
       <c r="F8" s="65"/>
       <c r="H8" s="87"/>
       <c r="I8" s="65"/>
-      <c r="K8" s="258"/>
+      <c r="K8" s="256"/>
     </row>
     <row r="9" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D9" s="66"/>
@@ -9316,38 +9675,38 @@
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="60"/>
       <c r="D10" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="63" t="s">
-        <v>84</v>
-      </c>
       <c r="G10" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I10" s="64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K10" s="63"/>
     </row>
     <row r="11" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="73">
@@ -9361,21 +9720,21 @@
         <v>0</v>
       </c>
       <c r="G11" s="73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H11" s="86" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="258" t="s">
-        <v>279</v>
+      <c r="K11" s="256" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="61">
         <v>1</v>
@@ -9397,16 +9756,16 @@
         <v>14</v>
       </c>
       <c r="H12" s="86" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I12" s="65">
         <v>8</v>
       </c>
-      <c r="K12" s="258"/>
+      <c r="K12" s="256"/>
     </row>
     <row r="13" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="62">
         <v>2</v>
@@ -9417,7 +9776,7 @@
       <c r="F13" s="68"/>
       <c r="H13" s="87"/>
       <c r="I13" s="65"/>
-      <c r="K13" s="258"/>
+      <c r="K13" s="256"/>
     </row>
     <row r="14" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D14" s="65"/>
@@ -9437,33 +9796,33 @@
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="60"/>
       <c r="D16" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="63" t="s">
-        <v>84</v>
-      </c>
       <c r="G16" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" s="64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I16" s="63"/>
       <c r="K16" s="63"/>
     </row>
     <row r="17" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="83" t="s">
         <v>23</v>
@@ -9481,17 +9840,17 @@
         <v>0</v>
       </c>
       <c r="G17" s="179" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H17" s="85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I17" s="65"/>
-      <c r="K17" s="258"/>
+      <c r="K17" s="256"/>
     </row>
     <row r="18" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="61">
         <v>2</v>
@@ -9514,14 +9873,14 @@
         <v>27</v>
       </c>
       <c r="H18" s="85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I18" s="65"/>
-      <c r="K18" s="258"/>
+      <c r="K18" s="256"/>
     </row>
     <row r="19" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="62">
         <v>3</v>
@@ -9542,10 +9901,10 @@
         <v>28</v>
       </c>
       <c r="H19" s="85" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I19" s="65"/>
-      <c r="K19" s="258"/>
+      <c r="K19" s="256"/>
     </row>
     <row r="20" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="50"/>
@@ -9562,50 +9921,50 @@
         <v>3</v>
       </c>
       <c r="G20" s="82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="85" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I20" s="65"/>
-      <c r="K20" s="258"/>
+      <c r="K20" s="256"/>
     </row>
     <row r="23" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23" s="60"/>
       <c r="D23" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="63" t="s">
-        <v>84</v>
-      </c>
       <c r="G23" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H23" s="64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I23" s="64" t="s">
-        <v>252</v>
-      </c>
-      <c r="K23" s="259" t="s">
-        <v>268</v>
+        <v>248</v>
+      </c>
+      <c r="K23" s="257" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="52"/>
       <c r="D24" s="79">
@@ -9620,20 +9979,20 @@
         <v>00</v>
       </c>
       <c r="G24" s="81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="89" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I24" s="65"/>
-      <c r="K24" s="260"/>
+      <c r="K24" s="258"/>
     </row>
     <row r="25" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="180">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C25" s="52" t="s">
         <v>13</v>
@@ -9650,19 +10009,19 @@
         <v>01</v>
       </c>
       <c r="G25" s="77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H25" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" s="250" t="s">
-        <v>260</v>
-      </c>
-      <c r="K25" s="260"/>
+        <v>84</v>
+      </c>
+      <c r="I25" s="248" t="s">
+        <v>256</v>
+      </c>
+      <c r="K25" s="258"/>
     </row>
     <row r="26" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="62">
         <v>5</v>
@@ -9680,13 +10039,13 @@
         <v>02</v>
       </c>
       <c r="G26" s="77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H26" s="86"/>
-      <c r="I26" s="250" t="s">
-        <v>260</v>
-      </c>
-      <c r="K26" s="260"/>
+      <c r="I26" s="248" t="s">
+        <v>256</v>
+      </c>
+      <c r="K26" s="258"/>
     </row>
     <row r="27" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="50"/>
@@ -9703,13 +10062,13 @@
         <v>03</v>
       </c>
       <c r="G27" s="77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H27" s="86"/>
-      <c r="I27" s="250" t="s">
-        <v>260</v>
-      </c>
-      <c r="K27" s="260"/>
+      <c r="I27" s="248" t="s">
+        <v>256</v>
+      </c>
+      <c r="K27" s="258"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D28" s="77">
@@ -9724,13 +10083,13 @@
         <v>04</v>
       </c>
       <c r="G28" s="77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H28" s="88"/>
-      <c r="I28" s="250" t="s">
-        <v>260</v>
-      </c>
-      <c r="K28" s="261"/>
+      <c r="I28" s="248" t="s">
+        <v>256</v>
+      </c>
+      <c r="K28" s="259"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D29" s="77">
@@ -9745,13 +10104,13 @@
         <v>05</v>
       </c>
       <c r="G29" s="77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H29" s="88"/>
-      <c r="I29" s="250" t="s">
-        <v>260</v>
-      </c>
-      <c r="K29" s="261"/>
+      <c r="I29" s="248" t="s">
+        <v>256</v>
+      </c>
+      <c r="K29" s="259"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D30" s="77">
@@ -9766,13 +10125,13 @@
         <v>06</v>
       </c>
       <c r="G30" s="77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H30" s="88"/>
-      <c r="I30" s="250" t="s">
-        <v>260</v>
-      </c>
-      <c r="K30" s="261"/>
+      <c r="I30" s="248" t="s">
+        <v>256</v>
+      </c>
+      <c r="K30" s="259"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D31" s="77">
@@ -9787,13 +10146,13 @@
         <v>07</v>
       </c>
       <c r="G31" s="77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H31" s="88"/>
-      <c r="I31" s="250" t="s">
-        <v>260</v>
-      </c>
-      <c r="K31" s="261"/>
+      <c r="I31" s="248" t="s">
+        <v>256</v>
+      </c>
+      <c r="K31" s="259"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="77">
@@ -9808,14 +10167,14 @@
         <v>08</v>
       </c>
       <c r="G32" s="77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H32" s="88"/>
-      <c r="I32" s="251" t="s">
-        <v>266</v>
-      </c>
-      <c r="K32" s="261" t="s">
-        <v>267</v>
+      <c r="I32" s="249" t="s">
+        <v>262</v>
+      </c>
+      <c r="K32" s="259" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.25">
@@ -9831,13 +10190,13 @@
         <v>09</v>
       </c>
       <c r="G33" s="77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H33" s="88"/>
-      <c r="I33" s="251" t="s">
-        <v>266</v>
-      </c>
-      <c r="K33" s="261"/>
+      <c r="I33" s="249" t="s">
+        <v>262</v>
+      </c>
+      <c r="K33" s="259"/>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34" s="77">
@@ -9852,13 +10211,13 @@
         <v>0A</v>
       </c>
       <c r="G34" s="77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H34" s="88"/>
-      <c r="I34" s="251" t="s">
-        <v>266</v>
-      </c>
-      <c r="K34" s="261"/>
+      <c r="I34" s="249" t="s">
+        <v>262</v>
+      </c>
+      <c r="K34" s="259"/>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D35" s="77">
@@ -9873,13 +10232,13 @@
         <v>0B</v>
       </c>
       <c r="G35" s="77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H35" s="88"/>
-      <c r="I35" s="251" t="s">
-        <v>266</v>
-      </c>
-      <c r="K35" s="261"/>
+      <c r="I35" s="249" t="s">
+        <v>262</v>
+      </c>
+      <c r="K35" s="259"/>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D36" s="77">
@@ -9894,13 +10253,13 @@
         <v>0C</v>
       </c>
       <c r="G36" s="77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H36" s="88"/>
-      <c r="I36" s="251" t="s">
-        <v>266</v>
-      </c>
-      <c r="K36" s="261"/>
+      <c r="I36" s="249" t="s">
+        <v>262</v>
+      </c>
+      <c r="K36" s="259"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="77">
@@ -9915,13 +10274,13 @@
         <v>0D</v>
       </c>
       <c r="G37" s="77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H37" s="88"/>
-      <c r="I37" s="251" t="s">
-        <v>266</v>
-      </c>
-      <c r="K37" s="261"/>
+      <c r="I37" s="249" t="s">
+        <v>262</v>
+      </c>
+      <c r="K37" s="259"/>
     </row>
     <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="77">
@@ -9936,13 +10295,13 @@
         <v>0E</v>
       </c>
       <c r="G38" s="77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H38" s="85"/>
-      <c r="I38" s="251" t="s">
-        <v>266</v>
-      </c>
-      <c r="K38" s="261"/>
+      <c r="I38" s="249" t="s">
+        <v>262</v>
+      </c>
+      <c r="K38" s="259"/>
     </row>
     <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="77">
@@ -9957,13 +10316,13 @@
         <v>0F</v>
       </c>
       <c r="G39" s="77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H39" s="89"/>
-      <c r="I39" s="251" t="s">
-        <v>266</v>
-      </c>
-      <c r="K39" s="261"/>
+      <c r="I39" s="249" t="s">
+        <v>262</v>
+      </c>
+      <c r="K39" s="259"/>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D40" s="77">
@@ -9978,12 +10337,12 @@
         <v>10</v>
       </c>
       <c r="G40" s="77" t="s">
-        <v>182</v>
-      </c>
-      <c r="I40" s="252" t="s">
-        <v>261</v>
-      </c>
-      <c r="K40" s="261"/>
+        <v>179</v>
+      </c>
+      <c r="I40" s="250" t="s">
+        <v>257</v>
+      </c>
+      <c r="K40" s="259"/>
     </row>
     <row r="41" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D41" s="77">
@@ -9998,12 +10357,12 @@
         <v>11</v>
       </c>
       <c r="G41" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="I41" s="252" t="s">
-        <v>261</v>
-      </c>
-      <c r="K41" s="261"/>
+        <v>180</v>
+      </c>
+      <c r="I41" s="250" t="s">
+        <v>257</v>
+      </c>
+      <c r="K41" s="259"/>
     </row>
     <row r="42" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D42" s="77">
@@ -10018,12 +10377,12 @@
         <v>12</v>
       </c>
       <c r="G42" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="I42" s="252" t="s">
-        <v>261</v>
-      </c>
-      <c r="K42" s="261"/>
+        <v>181</v>
+      </c>
+      <c r="I42" s="250" t="s">
+        <v>257</v>
+      </c>
+      <c r="K42" s="259"/>
     </row>
     <row r="43" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D43" s="77">
@@ -10038,12 +10397,12 @@
         <v>13</v>
       </c>
       <c r="G43" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="I43" s="252" t="s">
-        <v>261</v>
-      </c>
-      <c r="K43" s="261"/>
+        <v>182</v>
+      </c>
+      <c r="I43" s="250" t="s">
+        <v>257</v>
+      </c>
+      <c r="K43" s="259"/>
     </row>
     <row r="44" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D44" s="77">
@@ -10058,12 +10417,12 @@
         <v>14</v>
       </c>
       <c r="G44" s="77" t="s">
-        <v>186</v>
-      </c>
-      <c r="I44" s="252" t="s">
-        <v>261</v>
-      </c>
-      <c r="K44" s="261"/>
+        <v>183</v>
+      </c>
+      <c r="I44" s="250" t="s">
+        <v>257</v>
+      </c>
+      <c r="K44" s="259"/>
     </row>
     <row r="45" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D45" s="77">
@@ -10078,12 +10437,12 @@
         <v>15</v>
       </c>
       <c r="G45" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="I45" s="252" t="s">
-        <v>261</v>
-      </c>
-      <c r="K45" s="261"/>
+        <v>184</v>
+      </c>
+      <c r="I45" s="250" t="s">
+        <v>257</v>
+      </c>
+      <c r="K45" s="259"/>
     </row>
     <row r="46" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D46" s="77">
@@ -10098,12 +10457,12 @@
         <v>16</v>
       </c>
       <c r="G46" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="I46" s="252" t="s">
-        <v>261</v>
-      </c>
-      <c r="K46" s="261"/>
+        <v>185</v>
+      </c>
+      <c r="I46" s="250" t="s">
+        <v>257</v>
+      </c>
+      <c r="K46" s="259"/>
     </row>
     <row r="47" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D47" s="77">
@@ -10118,12 +10477,12 @@
         <v>17</v>
       </c>
       <c r="G47" s="77" t="s">
-        <v>189</v>
-      </c>
-      <c r="I47" s="252" t="s">
-        <v>261</v>
-      </c>
-      <c r="K47" s="261"/>
+        <v>186</v>
+      </c>
+      <c r="I47" s="250" t="s">
+        <v>257</v>
+      </c>
+      <c r="K47" s="259"/>
     </row>
     <row r="48" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D48" s="77">
@@ -10138,13 +10497,13 @@
         <v>18</v>
       </c>
       <c r="G48" s="77" t="s">
-        <v>190</v>
-      </c>
-      <c r="I48" s="251" t="s">
-        <v>262</v>
-      </c>
-      <c r="K48" s="261" t="s">
-        <v>269</v>
+        <v>187</v>
+      </c>
+      <c r="I48" s="249" t="s">
+        <v>258</v>
+      </c>
+      <c r="K48" s="259" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="4:11" x14ac:dyDescent="0.25">
@@ -10160,12 +10519,12 @@
         <v>19</v>
       </c>
       <c r="G49" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="I49" s="251" t="s">
-        <v>262</v>
-      </c>
-      <c r="K49" s="261"/>
+        <v>188</v>
+      </c>
+      <c r="I49" s="249" t="s">
+        <v>258</v>
+      </c>
+      <c r="K49" s="259"/>
     </row>
     <row r="50" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D50" s="77">
@@ -10180,12 +10539,12 @@
         <v>1A</v>
       </c>
       <c r="G50" s="77" t="s">
-        <v>192</v>
-      </c>
-      <c r="I50" s="251" t="s">
-        <v>262</v>
-      </c>
-      <c r="K50" s="261"/>
+        <v>189</v>
+      </c>
+      <c r="I50" s="249" t="s">
+        <v>258</v>
+      </c>
+      <c r="K50" s="259"/>
     </row>
     <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" s="77">
@@ -10200,12 +10559,12 @@
         <v>1B</v>
       </c>
       <c r="G51" s="77" t="s">
-        <v>193</v>
-      </c>
-      <c r="I51" s="251" t="s">
-        <v>262</v>
-      </c>
-      <c r="K51" s="261"/>
+        <v>190</v>
+      </c>
+      <c r="I51" s="249" t="s">
+        <v>258</v>
+      </c>
+      <c r="K51" s="259"/>
     </row>
     <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" s="77">
@@ -10220,12 +10579,12 @@
         <v>1C</v>
       </c>
       <c r="G52" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="I52" s="251" t="s">
-        <v>262</v>
-      </c>
-      <c r="K52" s="261"/>
+        <v>191</v>
+      </c>
+      <c r="I52" s="249" t="s">
+        <v>258</v>
+      </c>
+      <c r="K52" s="259"/>
     </row>
     <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" s="77">
@@ -10240,12 +10599,12 @@
         <v>1D</v>
       </c>
       <c r="G53" s="77" t="s">
-        <v>195</v>
-      </c>
-      <c r="I53" s="251" t="s">
-        <v>262</v>
-      </c>
-      <c r="K53" s="261"/>
+        <v>192</v>
+      </c>
+      <c r="I53" s="249" t="s">
+        <v>258</v>
+      </c>
+      <c r="K53" s="259"/>
     </row>
     <row r="54" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D54" s="77">
@@ -10260,12 +10619,12 @@
         <v>1E</v>
       </c>
       <c r="G54" s="77" t="s">
-        <v>196</v>
-      </c>
-      <c r="I54" s="251" t="s">
-        <v>262</v>
-      </c>
-      <c r="K54" s="261"/>
+        <v>193</v>
+      </c>
+      <c r="I54" s="249" t="s">
+        <v>258</v>
+      </c>
+      <c r="K54" s="259"/>
     </row>
     <row r="55" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D55" s="77">
@@ -10280,12 +10639,12 @@
         <v>1F</v>
       </c>
       <c r="G55" s="77" t="s">
-        <v>197</v>
-      </c>
-      <c r="I55" s="251" t="s">
-        <v>262</v>
-      </c>
-      <c r="K55" s="261"/>
+        <v>194</v>
+      </c>
+      <c r="I55" s="249" t="s">
+        <v>258</v>
+      </c>
+      <c r="K55" s="259"/>
     </row>
     <row r="56" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D56" s="77">
@@ -10300,12 +10659,12 @@
         <v>20</v>
       </c>
       <c r="G56" s="77" t="s">
-        <v>198</v>
-      </c>
-      <c r="I56" s="251" t="s">
-        <v>263</v>
-      </c>
-      <c r="K56" s="261"/>
+        <v>195</v>
+      </c>
+      <c r="I56" s="249" t="s">
+        <v>259</v>
+      </c>
+      <c r="K56" s="259"/>
     </row>
     <row r="57" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D57" s="77">
@@ -10320,12 +10679,12 @@
         <v>21</v>
       </c>
       <c r="G57" s="77" t="s">
-        <v>199</v>
-      </c>
-      <c r="I57" s="251" t="s">
-        <v>263</v>
-      </c>
-      <c r="K57" s="261"/>
+        <v>196</v>
+      </c>
+      <c r="I57" s="249" t="s">
+        <v>259</v>
+      </c>
+      <c r="K57" s="259"/>
     </row>
     <row r="58" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D58" s="77">
@@ -10340,12 +10699,12 @@
         <v>22</v>
       </c>
       <c r="G58" s="77" t="s">
-        <v>200</v>
-      </c>
-      <c r="I58" s="251" t="s">
-        <v>263</v>
-      </c>
-      <c r="K58" s="261"/>
+        <v>197</v>
+      </c>
+      <c r="I58" s="249" t="s">
+        <v>259</v>
+      </c>
+      <c r="K58" s="259"/>
     </row>
     <row r="59" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D59" s="77">
@@ -10360,12 +10719,12 @@
         <v>23</v>
       </c>
       <c r="G59" s="77" t="s">
-        <v>201</v>
-      </c>
-      <c r="I59" s="251" t="s">
-        <v>263</v>
-      </c>
-      <c r="K59" s="261"/>
+        <v>198</v>
+      </c>
+      <c r="I59" s="249" t="s">
+        <v>259</v>
+      </c>
+      <c r="K59" s="259"/>
     </row>
     <row r="60" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D60" s="77">
@@ -10380,12 +10739,12 @@
         <v>24</v>
       </c>
       <c r="G60" s="77" t="s">
-        <v>202</v>
-      </c>
-      <c r="I60" s="251" t="s">
-        <v>263</v>
-      </c>
-      <c r="K60" s="261"/>
+        <v>199</v>
+      </c>
+      <c r="I60" s="249" t="s">
+        <v>259</v>
+      </c>
+      <c r="K60" s="259"/>
     </row>
     <row r="61" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D61" s="77">
@@ -10400,12 +10759,12 @@
         <v>25</v>
       </c>
       <c r="G61" s="77" t="s">
-        <v>203</v>
-      </c>
-      <c r="I61" s="251" t="s">
-        <v>263</v>
-      </c>
-      <c r="K61" s="261"/>
+        <v>200</v>
+      </c>
+      <c r="I61" s="249" t="s">
+        <v>259</v>
+      </c>
+      <c r="K61" s="259"/>
     </row>
     <row r="62" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D62" s="77">
@@ -10420,12 +10779,12 @@
         <v>26</v>
       </c>
       <c r="G62" s="77" t="s">
-        <v>204</v>
-      </c>
-      <c r="I62" s="251" t="s">
-        <v>263</v>
-      </c>
-      <c r="K62" s="261"/>
+        <v>201</v>
+      </c>
+      <c r="I62" s="249" t="s">
+        <v>259</v>
+      </c>
+      <c r="K62" s="259"/>
     </row>
     <row r="63" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D63" s="77">
@@ -10440,12 +10799,12 @@
         <v>27</v>
       </c>
       <c r="G63" s="77" t="s">
-        <v>205</v>
-      </c>
-      <c r="I63" s="251" t="s">
-        <v>263</v>
-      </c>
-      <c r="K63" s="261"/>
+        <v>202</v>
+      </c>
+      <c r="I63" s="249" t="s">
+        <v>259</v>
+      </c>
+      <c r="K63" s="259"/>
     </row>
     <row r="64" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D64" s="77">
@@ -10460,12 +10819,12 @@
         <v>28</v>
       </c>
       <c r="G64" s="77" t="s">
-        <v>206</v>
-      </c>
-      <c r="I64" s="251" t="s">
-        <v>264</v>
-      </c>
-      <c r="K64" s="261"/>
+        <v>203</v>
+      </c>
+      <c r="I64" s="249" t="s">
+        <v>260</v>
+      </c>
+      <c r="K64" s="259"/>
     </row>
     <row r="65" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D65" s="77">
@@ -10480,12 +10839,12 @@
         <v>29</v>
       </c>
       <c r="G65" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="I65" s="251" t="s">
-        <v>264</v>
-      </c>
-      <c r="K65" s="261"/>
+        <v>204</v>
+      </c>
+      <c r="I65" s="249" t="s">
+        <v>260</v>
+      </c>
+      <c r="K65" s="259"/>
     </row>
     <row r="66" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D66" s="77">
@@ -10500,12 +10859,12 @@
         <v>2A</v>
       </c>
       <c r="G66" s="77" t="s">
-        <v>208</v>
-      </c>
-      <c r="I66" s="251" t="s">
-        <v>264</v>
-      </c>
-      <c r="K66" s="261"/>
+        <v>205</v>
+      </c>
+      <c r="I66" s="249" t="s">
+        <v>260</v>
+      </c>
+      <c r="K66" s="259"/>
     </row>
     <row r="67" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D67" s="77">
@@ -10520,12 +10879,12 @@
         <v>2B</v>
       </c>
       <c r="G67" s="77" t="s">
-        <v>209</v>
-      </c>
-      <c r="I67" s="251" t="s">
-        <v>264</v>
-      </c>
-      <c r="K67" s="261"/>
+        <v>206</v>
+      </c>
+      <c r="I67" s="249" t="s">
+        <v>260</v>
+      </c>
+      <c r="K67" s="259"/>
     </row>
     <row r="68" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D68" s="77">
@@ -10540,12 +10899,12 @@
         <v>2C</v>
       </c>
       <c r="G68" s="77" t="s">
-        <v>210</v>
-      </c>
-      <c r="I68" s="251" t="s">
-        <v>264</v>
-      </c>
-      <c r="K68" s="261"/>
+        <v>207</v>
+      </c>
+      <c r="I68" s="249" t="s">
+        <v>260</v>
+      </c>
+      <c r="K68" s="259"/>
     </row>
     <row r="69" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D69" s="77">
@@ -10560,12 +10919,12 @@
         <v>2D</v>
       </c>
       <c r="G69" s="77" t="s">
-        <v>211</v>
-      </c>
-      <c r="I69" s="251" t="s">
-        <v>264</v>
-      </c>
-      <c r="K69" s="261"/>
+        <v>208</v>
+      </c>
+      <c r="I69" s="249" t="s">
+        <v>260</v>
+      </c>
+      <c r="K69" s="259"/>
     </row>
     <row r="70" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D70" s="77">
@@ -10580,12 +10939,12 @@
         <v>2E</v>
       </c>
       <c r="G70" s="77" t="s">
-        <v>212</v>
-      </c>
-      <c r="I70" s="251" t="s">
-        <v>264</v>
-      </c>
-      <c r="K70" s="261"/>
+        <v>209</v>
+      </c>
+      <c r="I70" s="249" t="s">
+        <v>260</v>
+      </c>
+      <c r="K70" s="259"/>
     </row>
     <row r="71" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D71" s="77">
@@ -10600,12 +10959,12 @@
         <v>2F</v>
       </c>
       <c r="G71" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="I71" s="251" t="s">
-        <v>264</v>
-      </c>
-      <c r="K71" s="261"/>
+        <v>210</v>
+      </c>
+      <c r="I71" s="249" t="s">
+        <v>260</v>
+      </c>
+      <c r="K71" s="259"/>
     </row>
     <row r="72" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D72" s="77">
@@ -10620,12 +10979,12 @@
         <v>30</v>
       </c>
       <c r="G72" s="77" t="s">
-        <v>214</v>
-      </c>
-      <c r="I72" s="251" t="s">
-        <v>265</v>
-      </c>
-      <c r="K72" s="261"/>
+        <v>211</v>
+      </c>
+      <c r="I72" s="249" t="s">
+        <v>261</v>
+      </c>
+      <c r="K72" s="259"/>
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D73" s="77">
@@ -10640,12 +10999,12 @@
         <v>31</v>
       </c>
       <c r="G73" s="77" t="s">
-        <v>215</v>
-      </c>
-      <c r="I73" s="251" t="s">
-        <v>265</v>
-      </c>
-      <c r="K73" s="261"/>
+        <v>212</v>
+      </c>
+      <c r="I73" s="249" t="s">
+        <v>261</v>
+      </c>
+      <c r="K73" s="259"/>
     </row>
     <row r="74" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D74" s="77">
@@ -10660,12 +11019,12 @@
         <v>32</v>
       </c>
       <c r="G74" s="77" t="s">
-        <v>216</v>
-      </c>
-      <c r="I74" s="251" t="s">
-        <v>265</v>
-      </c>
-      <c r="K74" s="261"/>
+        <v>213</v>
+      </c>
+      <c r="I74" s="249" t="s">
+        <v>261</v>
+      </c>
+      <c r="K74" s="259"/>
     </row>
     <row r="75" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D75" s="77">
@@ -10680,12 +11039,12 @@
         <v>33</v>
       </c>
       <c r="G75" s="77" t="s">
-        <v>217</v>
-      </c>
-      <c r="I75" s="251" t="s">
-        <v>265</v>
-      </c>
-      <c r="K75" s="261"/>
+        <v>214</v>
+      </c>
+      <c r="I75" s="249" t="s">
+        <v>261</v>
+      </c>
+      <c r="K75" s="259"/>
     </row>
     <row r="76" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D76" s="77">
@@ -10700,12 +11059,12 @@
         <v>34</v>
       </c>
       <c r="G76" s="77" t="s">
-        <v>218</v>
-      </c>
-      <c r="I76" s="251" t="s">
-        <v>265</v>
-      </c>
-      <c r="K76" s="261"/>
+        <v>215</v>
+      </c>
+      <c r="I76" s="249" t="s">
+        <v>261</v>
+      </c>
+      <c r="K76" s="259"/>
     </row>
     <row r="77" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D77" s="77">
@@ -10720,12 +11079,12 @@
         <v>35</v>
       </c>
       <c r="G77" s="77" t="s">
-        <v>219</v>
-      </c>
-      <c r="I77" s="251" t="s">
-        <v>265</v>
-      </c>
-      <c r="K77" s="261"/>
+        <v>216</v>
+      </c>
+      <c r="I77" s="249" t="s">
+        <v>261</v>
+      </c>
+      <c r="K77" s="259"/>
     </row>
     <row r="78" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D78" s="77">
@@ -10740,12 +11099,12 @@
         <v>36</v>
       </c>
       <c r="G78" s="77" t="s">
-        <v>220</v>
-      </c>
-      <c r="I78" s="251" t="s">
-        <v>265</v>
-      </c>
-      <c r="K78" s="261"/>
+        <v>217</v>
+      </c>
+      <c r="I78" s="249" t="s">
+        <v>261</v>
+      </c>
+      <c r="K78" s="259"/>
     </row>
     <row r="79" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D79" s="77">
@@ -10760,12 +11119,12 @@
         <v>37</v>
       </c>
       <c r="G79" s="77" t="s">
-        <v>221</v>
-      </c>
-      <c r="I79" s="251" t="s">
-        <v>265</v>
-      </c>
-      <c r="K79" s="261"/>
+        <v>218</v>
+      </c>
+      <c r="I79" s="249" t="s">
+        <v>261</v>
+      </c>
+      <c r="K79" s="259"/>
     </row>
     <row r="80" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D80" s="77">
@@ -10780,14 +11139,14 @@
         <v>38</v>
       </c>
       <c r="G80" s="77" t="s">
-        <v>222</v>
-      </c>
-      <c r="I80" s="251" t="s">
-        <v>46</v>
-      </c>
-      <c r="K80" s="261"/>
-    </row>
-    <row r="81" spans="4:11" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="I80" s="249" t="s">
+        <v>46</v>
+      </c>
+      <c r="K80" s="259"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D81" s="77">
         <v>57</v>
       </c>
@@ -10800,14 +11159,14 @@
         <v>39</v>
       </c>
       <c r="G81" s="77" t="s">
-        <v>223</v>
-      </c>
-      <c r="I81" s="251" t="s">
-        <v>46</v>
-      </c>
-      <c r="K81" s="261"/>
-    </row>
-    <row r="82" spans="4:11" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="I81" s="249" t="s">
+        <v>46</v>
+      </c>
+      <c r="K81" s="259"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D82" s="77">
         <v>58</v>
       </c>
@@ -10820,14 +11179,14 @@
         <v>3A</v>
       </c>
       <c r="G82" s="77" t="s">
-        <v>224</v>
-      </c>
-      <c r="I82" s="251" t="s">
-        <v>46</v>
-      </c>
-      <c r="K82" s="261"/>
-    </row>
-    <row r="83" spans="4:11" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="I82" s="249" t="s">
+        <v>46</v>
+      </c>
+      <c r="K82" s="259"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D83" s="77">
         <v>59</v>
       </c>
@@ -10840,14 +11199,14 @@
         <v>3B</v>
       </c>
       <c r="G83" s="77" t="s">
-        <v>225</v>
-      </c>
-      <c r="I83" s="251" t="s">
-        <v>46</v>
-      </c>
-      <c r="K83" s="261"/>
-    </row>
-    <row r="84" spans="4:11" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="I83" s="249" t="s">
+        <v>46</v>
+      </c>
+      <c r="K83" s="259"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D84" s="77">
         <v>60</v>
       </c>
@@ -10860,14 +11219,14 @@
         <v>3C</v>
       </c>
       <c r="G84" s="77" t="s">
-        <v>226</v>
-      </c>
-      <c r="I84" s="251" t="s">
-        <v>46</v>
-      </c>
-      <c r="K84" s="261"/>
-    </row>
-    <row r="85" spans="4:11" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="I84" s="249" t="s">
+        <v>46</v>
+      </c>
+      <c r="K84" s="259"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D85" s="77">
         <v>61</v>
       </c>
@@ -10880,14 +11239,14 @@
         <v>3D</v>
       </c>
       <c r="G85" s="77" t="s">
-        <v>227</v>
-      </c>
-      <c r="I85" s="251" t="s">
-        <v>46</v>
-      </c>
-      <c r="K85" s="261"/>
-    </row>
-    <row r="86" spans="4:11" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="I85" s="249" t="s">
+        <v>46</v>
+      </c>
+      <c r="K85" s="259"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D86" s="77">
         <v>62</v>
       </c>
@@ -10900,36 +11259,148 @@
         <v>3E</v>
       </c>
       <c r="G86" s="77" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H86" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="I86" s="251" t="s">
-        <v>46</v>
-      </c>
-      <c r="K86" s="261"/>
-    </row>
-    <row r="87" spans="4:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D87" s="255">
+        <v>85</v>
+      </c>
+      <c r="I86" s="249" t="s">
+        <v>46</v>
+      </c>
+      <c r="K86" s="259"/>
+    </row>
+    <row r="87" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D87" s="253">
         <v>63</v>
       </c>
-      <c r="E87" s="256" t="str">
+      <c r="E87" s="254" t="str">
         <f t="shared" si="4"/>
         <v>111111</v>
       </c>
-      <c r="F87" s="256" t="str">
+      <c r="F87" s="254" t="str">
         <f t="shared" si="5"/>
         <v>3F</v>
       </c>
-      <c r="G87" s="257" t="s">
-        <v>81</v>
-      </c>
-      <c r="H87" s="253" t="s">
-        <v>64</v>
-      </c>
-      <c r="I87" s="254"/>
-      <c r="K87" s="262"/>
+      <c r="G87" s="255" t="s">
+        <v>80</v>
+      </c>
+      <c r="H87" s="251" t="s">
+        <v>63</v>
+      </c>
+      <c r="I87" s="252"/>
+      <c r="K87" s="260"/>
+    </row>
+    <row r="89" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="C89" s="60"/>
+      <c r="D89" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="E89" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F89" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="G89" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="H89" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="I89" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="K89" s="63"/>
+    </row>
+    <row r="90" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B90" s="271" t="s">
+        <v>327</v>
+      </c>
+      <c r="C90" s="52"/>
+      <c r="D90" s="272">
+        <v>0</v>
+      </c>
+      <c r="E90" s="273" t="str">
+        <f t="shared" ref="E90:E91" si="6">DEC2BIN(D90,6)</f>
+        <v>000000</v>
+      </c>
+      <c r="F90" s="273" t="str">
+        <f>DEC2HEX(D90)</f>
+        <v>0</v>
+      </c>
+      <c r="G90" s="72"/>
+      <c r="H90" s="86"/>
+      <c r="I90" s="65"/>
+      <c r="K90" s="256"/>
+    </row>
+    <row r="91" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B91" s="61">
+        <v>8</v>
+      </c>
+      <c r="C91" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="272">
+        <v>1</v>
+      </c>
+      <c r="E91" s="273" t="str">
+        <f t="shared" si="6"/>
+        <v>000001</v>
+      </c>
+      <c r="F91" s="273" t="str">
+        <f t="shared" ref="F91" si="7">DEC2HEX(D91)</f>
+        <v>1</v>
+      </c>
+      <c r="G91" s="72"/>
+      <c r="H91" s="86"/>
+      <c r="I91" s="65"/>
+      <c r="K91" s="256"/>
+    </row>
+    <row r="92" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B92" s="62">
+        <v>11</v>
+      </c>
+      <c r="C92" s="53"/>
+      <c r="D92" s="272">
+        <v>2</v>
+      </c>
+      <c r="E92" s="273" t="str">
+        <f>DEC2BIN(D92,6)</f>
+        <v>000010</v>
+      </c>
+      <c r="F92" s="273" t="str">
+        <f>DEC2HEX(D92)</f>
+        <v>2</v>
+      </c>
+      <c r="H92" s="87"/>
+      <c r="I92" s="65"/>
+      <c r="K92" s="256"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D93" s="67" t="s">
+        <v>329</v>
+      </c>
+      <c r="E93" s="67" t="s">
+        <v>329</v>
+      </c>
+      <c r="F93" s="67" t="s">
+        <v>329</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -10943,7 +11414,7 @@
   <dimension ref="A1:AI23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10955,84 +11426,84 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B2" s="226" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="227" t="s">
-        <v>231</v>
-      </c>
-      <c r="D2" s="228"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
-      <c r="L2" s="229"/>
-      <c r="M2" s="229"/>
-      <c r="N2" s="229"/>
-      <c r="O2" s="229"/>
-      <c r="P2" s="228"/>
-      <c r="Q2" s="228"/>
-      <c r="R2" s="228"/>
-      <c r="S2" s="228"/>
-      <c r="T2" s="228"/>
-      <c r="U2" s="228"/>
-      <c r="V2" s="228"/>
-      <c r="W2" s="228"/>
-      <c r="X2" s="228"/>
-      <c r="Y2" s="228"/>
-      <c r="Z2" s="228"/>
-      <c r="AA2" s="228"/>
-      <c r="AB2" s="228"/>
-      <c r="AC2" s="228"/>
-      <c r="AD2" s="228"/>
-      <c r="AE2" s="228"/>
-      <c r="AF2" s="228"/>
-      <c r="AG2" s="228"/>
-      <c r="AH2" s="228"/>
-      <c r="AI2" s="230"/>
+      <c r="B2" s="224" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="225" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="226"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="227"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="227"/>
+      <c r="K2" s="227"/>
+      <c r="L2" s="227"/>
+      <c r="M2" s="227"/>
+      <c r="N2" s="227"/>
+      <c r="O2" s="227"/>
+      <c r="P2" s="226"/>
+      <c r="Q2" s="226"/>
+      <c r="R2" s="226"/>
+      <c r="S2" s="226"/>
+      <c r="T2" s="226"/>
+      <c r="U2" s="226"/>
+      <c r="V2" s="226"/>
+      <c r="W2" s="226"/>
+      <c r="X2" s="226"/>
+      <c r="Y2" s="226"/>
+      <c r="Z2" s="226"/>
+      <c r="AA2" s="226"/>
+      <c r="AB2" s="226"/>
+      <c r="AC2" s="226"/>
+      <c r="AD2" s="226"/>
+      <c r="AE2" s="226"/>
+      <c r="AF2" s="226"/>
+      <c r="AG2" s="226"/>
+      <c r="AH2" s="226"/>
+      <c r="AI2" s="228"/>
     </row>
     <row r="3" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="231" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="232">
+      <c r="B3" s="229" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="230">
         <v>5</v>
       </c>
-      <c r="D3" s="232"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="233"/>
-      <c r="H3" s="233"/>
-      <c r="I3" s="233"/>
-      <c r="J3" s="233"/>
-      <c r="K3" s="233"/>
-      <c r="L3" s="233"/>
-      <c r="M3" s="233"/>
-      <c r="N3" s="233"/>
-      <c r="O3" s="233"/>
-      <c r="P3" s="232"/>
-      <c r="Q3" s="232"/>
-      <c r="R3" s="232"/>
-      <c r="S3" s="232"/>
-      <c r="T3" s="232"/>
-      <c r="U3" s="232"/>
-      <c r="V3" s="232"/>
-      <c r="W3" s="232"/>
-      <c r="X3" s="232"/>
-      <c r="Y3" s="232"/>
-      <c r="Z3" s="232"/>
-      <c r="AA3" s="232"/>
-      <c r="AB3" s="232"/>
-      <c r="AC3" s="232"/>
-      <c r="AD3" s="232"/>
-      <c r="AE3" s="232"/>
-      <c r="AF3" s="232"/>
-      <c r="AG3" s="232"/>
-      <c r="AH3" s="232"/>
-      <c r="AI3" s="234"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="231"/>
+      <c r="L3" s="231"/>
+      <c r="M3" s="231"/>
+      <c r="N3" s="231"/>
+      <c r="O3" s="231"/>
+      <c r="P3" s="230"/>
+      <c r="Q3" s="230"/>
+      <c r="R3" s="230"/>
+      <c r="S3" s="230"/>
+      <c r="T3" s="230"/>
+      <c r="U3" s="230"/>
+      <c r="V3" s="230"/>
+      <c r="W3" s="230"/>
+      <c r="X3" s="230"/>
+      <c r="Y3" s="230"/>
+      <c r="Z3" s="230"/>
+      <c r="AA3" s="230"/>
+      <c r="AB3" s="230"/>
+      <c r="AC3" s="230"/>
+      <c r="AD3" s="230"/>
+      <c r="AE3" s="230"/>
+      <c r="AF3" s="230"/>
+      <c r="AG3" s="230"/>
+      <c r="AH3" s="230"/>
+      <c r="AI3" s="232"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D5" s="20" t="s">
@@ -11120,7 +11591,7 @@
       <c r="M7" s="164">
         <v>9</v>
       </c>
-      <c r="N7" s="225">
+      <c r="N7" s="223">
         <v>10</v>
       </c>
       <c r="O7" s="14">
@@ -11189,13 +11660,13 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D8" s="166" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="167" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" s="172" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G8" s="168" t="s">
         <v>23</v>
@@ -11204,46 +11675,46 @@
         <v>23</v>
       </c>
       <c r="I8" s="169" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J8" s="170" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K8" s="169" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L8" s="169" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M8" s="169" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N8" s="171" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O8" s="25" t="s">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="Q8" s="25" t="s">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="R8" s="25" t="s">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="S8" s="25" t="s">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="T8" s="25" t="s">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="U8" s="25" t="s">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="V8" s="25" t="s">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="W8" s="25" t="s">
         <v>45</v>
@@ -11290,10 +11761,10 @@
         <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D10" s="67">
         <v>0</v>
@@ -11388,10 +11859,10 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="91" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D11" s="67" t="s">
         <v>46</v>
@@ -11409,22 +11880,22 @@
         <v>46</v>
       </c>
       <c r="I11" s="67" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J11" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="67" t="s">
+      <c r="L11" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="67" t="s">
+      <c r="M11" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="M11" s="67" t="s">
+      <c r="N11" s="67" t="s">
         <v>69</v>
-      </c>
-      <c r="N11" s="67" t="s">
-        <v>70</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -11495,13 +11966,13 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D16" s="67">
         <v>0</v>
@@ -11539,10 +12010,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="91" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D17" s="67" t="s">
         <v>46</v>
@@ -11554,7 +12025,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H17" s="67" t="s">
         <v>27</v>
@@ -11583,13 +12054,13 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D19" s="67">
         <v>1</v>
@@ -11627,10 +12098,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="91" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D20" s="67">
         <v>1</v>
@@ -11642,7 +12113,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H20" s="67" t="s">
         <v>27</v>
@@ -11671,13 +12142,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D22" s="67">
         <v>1</v>
@@ -11715,10 +12186,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="91" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D23" s="67">
         <v>1</v>
@@ -11871,10 +12342,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C7" s="239" t="s">
-        <v>256</v>
+        <v>251</v>
+      </c>
+      <c r="C7" s="237" t="s">
+        <v>252</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -11885,7 +12356,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -11908,10 +12379,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="175" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" s="58">
         <v>2</v>
@@ -11922,10 +12393,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="176" t="s">
         <v>128</v>
-      </c>
-      <c r="C13" s="176" t="s">
-        <v>129</v>
       </c>
       <c r="E13" s="58">
         <v>1</v>
@@ -11936,7 +12407,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="177" t="s">
         <v>23</v>
@@ -11950,10 +12421,10 @@
     </row>
     <row r="15" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="178" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" s="174">
         <v>6</v>
@@ -12036,10 +12507,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E0CD16-B026-4170-93D5-94554639BD34}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12063,7 +12534,7 @@
     <col min="20" max="20" width="11.42578125" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
       <c r="E1" s="49"/>
@@ -12075,7 +12546,7 @@
       <c r="O1" s="49"/>
       <c r="T1" s="49"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
       <c r="E2" s="49"/>
@@ -12087,7 +12558,7 @@
       <c r="O2" s="49"/>
       <c r="T2" s="49"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C3" s="161" t="s">
         <v>8</v>
       </c>
@@ -12104,7 +12575,7 @@
       <c r="O3" s="49"/>
       <c r="T3" s="49"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C4" s="213">
         <v>0</v>
       </c>
@@ -12139,26 +12610,29 @@
         <v>10</v>
       </c>
       <c r="O4" s="93" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P4" s="94"/>
       <c r="Q4" s="94"/>
       <c r="R4" s="94"/>
       <c r="S4" s="94"/>
       <c r="T4" s="95"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" s="212" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C5" s="155" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="156" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" s="173" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F5" s="157" t="s">
         <v>23</v>
@@ -12167,162 +12641,170 @@
         <v>23</v>
       </c>
       <c r="H5" s="159" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I5" s="163" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J5" s="150" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M5" s="160" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O5" s="98" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P5" s="57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="57"/>
       <c r="R5" s="57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S5" s="57"/>
       <c r="T5" s="99" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="V5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7" s="212" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="96">
+        <v>0</v>
+      </c>
+      <c r="D7" s="97">
+        <v>0</v>
+      </c>
+      <c r="E7" s="58">
+        <v>0</v>
+      </c>
+      <c r="F7" s="96">
+        <v>0</v>
+      </c>
+      <c r="G7" s="97">
+        <v>0</v>
+      </c>
+      <c r="H7" s="96">
+        <v>1</v>
+      </c>
+      <c r="I7" s="49">
+        <v>1</v>
+      </c>
+      <c r="J7" s="49">
+        <v>0</v>
+      </c>
+      <c r="K7" s="49">
+        <v>0</v>
+      </c>
+      <c r="L7" s="49">
+        <v>0</v>
+      </c>
+      <c r="M7" s="97">
+        <v>0</v>
+      </c>
+      <c r="O7" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="R7" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="S7" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="T7" s="97" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="212" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="96">
-        <v>0</v>
-      </c>
-      <c r="D7" s="97">
-        <v>0</v>
-      </c>
-      <c r="E7" s="58">
-        <v>1</v>
-      </c>
-      <c r="F7" s="96">
-        <v>0</v>
-      </c>
-      <c r="G7" s="97">
-        <v>0</v>
-      </c>
-      <c r="H7" s="96">
-        <v>1</v>
-      </c>
-      <c r="I7" s="49">
-        <v>1</v>
-      </c>
-      <c r="J7" s="49">
-        <v>0</v>
-      </c>
-      <c r="K7" s="49">
-        <v>0</v>
-      </c>
-      <c r="L7" s="49">
-        <v>0</v>
-      </c>
-      <c r="M7" s="97">
-        <v>0</v>
-      </c>
-      <c r="O7" s="96" t="s">
+      <c r="C8" s="96">
+        <v>1</v>
+      </c>
+      <c r="D8" s="97">
+        <v>0</v>
+      </c>
+      <c r="E8" s="58">
+        <v>1</v>
+      </c>
+      <c r="F8" s="96">
+        <v>1</v>
+      </c>
+      <c r="G8" s="97">
+        <v>0</v>
+      </c>
+      <c r="H8" s="96">
+        <v>0</v>
+      </c>
+      <c r="I8" s="49">
+        <v>1</v>
+      </c>
+      <c r="J8" s="49">
+        <v>0</v>
+      </c>
+      <c r="K8" s="49">
+        <v>0</v>
+      </c>
+      <c r="L8" s="49">
+        <v>0</v>
+      </c>
+      <c r="M8" s="97">
+        <v>0</v>
+      </c>
+      <c r="O8" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="P7" s="49" t="s">
+      <c r="P8" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="Q7" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="R7" s="49" t="s">
+      <c r="Q8" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="R8" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="S7" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="T7" s="97" t="s">
+      <c r="S8" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="T8" s="97" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="212" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8" s="96">
-        <v>1</v>
-      </c>
-      <c r="D8" s="97">
-        <v>0</v>
-      </c>
-      <c r="E8" s="58">
-        <v>0</v>
-      </c>
-      <c r="F8" s="96">
-        <v>1</v>
-      </c>
-      <c r="G8" s="97">
-        <v>0</v>
-      </c>
-      <c r="H8" s="96">
-        <v>0</v>
-      </c>
-      <c r="I8" s="49">
-        <v>1</v>
-      </c>
-      <c r="J8" s="49">
-        <v>0</v>
-      </c>
-      <c r="K8" s="49">
-        <v>0</v>
-      </c>
-      <c r="L8" s="49">
-        <v>0</v>
-      </c>
-      <c r="M8" s="97">
-        <v>0</v>
-      </c>
-      <c r="O8" s="96" t="s">
-        <v>105</v>
-      </c>
-      <c r="P8" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q8" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="R8" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="S8" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="T8" s="97" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" s="212" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C9" s="96">
         <v>1</v>
@@ -12331,7 +12813,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="96">
         <v>1</v>
@@ -12358,30 +12840,30 @@
         <v>0</v>
       </c>
       <c r="O9" s="96" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P9" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q9" s="49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R9" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S9" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T9" s="97" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" s="212" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C10" s="96">
         <v>0</v>
@@ -12390,7 +12872,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="96">
         <v>1</v>
@@ -12417,30 +12899,30 @@
         <v>1</v>
       </c>
       <c r="O10" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q10" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="P10" s="49" t="s">
+      <c r="R10" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="Q10" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="R10" s="49" t="s">
-        <v>125</v>
-      </c>
       <c r="S10" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T10" s="97" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11" s="212" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C11" s="96">
         <v>0</v>
@@ -12449,7 +12931,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="96">
         <v>1</v>
@@ -12476,30 +12958,30 @@
         <v>1</v>
       </c>
       <c r="O11" s="96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P11" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q11" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="R11" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="Q11" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="R11" s="49" t="s">
-        <v>125</v>
-      </c>
       <c r="S11" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T11" s="97" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12" s="212" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C12" s="96">
         <v>1</v>
@@ -12508,7 +12990,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="96">
         <v>1</v>
@@ -12535,30 +13017,30 @@
         <v>1</v>
       </c>
       <c r="O12" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="P12" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q12" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="P12" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q12" s="49" t="s">
-        <v>118</v>
-      </c>
       <c r="R12" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S12" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T12" s="97" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13" s="212" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C13" s="96">
         <v>1</v>
@@ -12567,7 +13049,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="96">
         <v>1</v>
@@ -12594,30 +13076,30 @@
         <v>1</v>
       </c>
       <c r="O13" s="96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P13" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R13" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S13" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T13" s="97" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
       <c r="B14" s="212" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C14" s="96">
         <v>0</v>
@@ -12626,7 +13108,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="96">
         <v>1</v>
@@ -12653,30 +13135,30 @@
         <v>1</v>
       </c>
       <c r="O14" s="96" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P14" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q14" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="R14" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="Q14" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="R14" s="49" t="s">
-        <v>125</v>
-      </c>
       <c r="S14" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T14" s="97" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
       <c r="B15" s="212" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C15" s="96">
         <v>1</v>
@@ -12685,7 +13167,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="96">
         <v>1</v>
@@ -12712,30 +13194,30 @@
         <v>0</v>
       </c>
       <c r="O15" s="96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P15" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q15" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R15" s="49" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="S15" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T15" s="97" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
       <c r="B16" s="212" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C16" s="96">
         <v>0</v>
@@ -12744,7 +13226,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="96">
         <v>1</v>
@@ -12755,38 +13237,38 @@
       <c r="H16" s="96">
         <v>0</v>
       </c>
-      <c r="I16" s="264">
-        <v>1</v>
-      </c>
-      <c r="J16" s="264">
-        <v>0</v>
-      </c>
-      <c r="K16" s="264">
-        <v>0</v>
-      </c>
-      <c r="L16" s="264">
+      <c r="I16" s="262">
+        <v>1</v>
+      </c>
+      <c r="J16" s="262">
+        <v>0</v>
+      </c>
+      <c r="K16" s="262">
+        <v>0</v>
+      </c>
+      <c r="L16" s="262">
         <v>0</v>
       </c>
       <c r="M16" s="97">
         <v>0</v>
       </c>
       <c r="O16" s="96" t="s">
-        <v>105</v>
-      </c>
-      <c r="P16" s="264" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q16" s="264" t="s">
-        <v>116</v>
-      </c>
-      <c r="R16" s="264" t="s">
-        <v>240</v>
-      </c>
-      <c r="S16" s="264" t="s">
-        <v>121</v>
+        <v>104</v>
+      </c>
+      <c r="P16" s="262" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q16" s="262" t="s">
+        <v>115</v>
+      </c>
+      <c r="R16" s="262" t="s">
+        <v>237</v>
+      </c>
+      <c r="S16" s="262" t="s">
+        <v>120</v>
       </c>
       <c r="T16" s="97" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -12800,7 +13282,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="96">
         <v>1</v>
@@ -12811,16 +13293,16 @@
       <c r="H17" s="96">
         <v>0</v>
       </c>
-      <c r="I17" s="264">
-        <v>1</v>
-      </c>
-      <c r="J17" s="264">
-        <v>1</v>
-      </c>
-      <c r="K17" s="264">
-        <v>0</v>
-      </c>
-      <c r="L17" s="264">
+      <c r="I17" s="262">
+        <v>1</v>
+      </c>
+      <c r="J17" s="262">
+        <v>1</v>
+      </c>
+      <c r="K17" s="262">
+        <v>0</v>
+      </c>
+      <c r="L17" s="262">
         <v>0</v>
       </c>
       <c r="M17" s="97">
@@ -12854,10 +13336,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440C4F6B-A1C2-4D6C-BCC9-98B3358D661D}">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:V381"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12865,916 +13347,2789 @@
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="221" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="224" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" style="258" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
-    <col min="14" max="14" width="7" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="221" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="222" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="67" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="256" customWidth="1"/>
+    <col min="15" max="15" width="3.5703125" style="256" customWidth="1"/>
+    <col min="16" max="16" width="39.7109375" style="274" customWidth="1"/>
+    <col min="17" max="17" width="7" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="33" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E1" s="219" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>326</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="275" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="218" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="217" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="218" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="218">
+        <v>0</v>
+      </c>
+      <c r="E2" s="220"/>
+      <c r="F2" s="265"/>
+      <c r="G2" s="218">
+        <f>SUM(G3:G5)</f>
+        <v>35</v>
+      </c>
+      <c r="K2" s="263" t="s">
+        <v>278</v>
+      </c>
+      <c r="L2" s="263" t="s">
+        <v>302</v>
+      </c>
+      <c r="M2" s="263" t="s">
+        <v>301</v>
+      </c>
+      <c r="N2" s="263" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="263"/>
+      <c r="P2" s="276"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="221" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(D3,4) + _xlfn.BITLSHIFT(D$2,12),4)</f>
+        <v>0000</v>
+      </c>
+      <c r="F3" s="266" t="s">
+        <v>240</v>
+      </c>
+      <c r="G3" s="34">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="34">
+        <f>ROUNDUP(G3/4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="66">
+        <v>1</v>
+      </c>
+      <c r="L3" s="66">
+        <v>0</v>
+      </c>
+      <c r="M3" s="66">
+        <v>1</v>
+      </c>
+      <c r="N3" s="65">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>62</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="221" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(D4,4) + _xlfn.BITLSHIFT(D$2,12),4)</f>
+        <v>0010</v>
+      </c>
+      <c r="F4" s="266" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" s="34">
+        <v>2</v>
+      </c>
+      <c r="H4" s="34">
+        <f t="shared" ref="H4:H5" si="0">ROUNDUP(G4/4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>242</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="66">
+        <v>1</v>
+      </c>
+      <c r="L4" s="66">
+        <v>0</v>
+      </c>
+      <c r="M4" s="66">
+        <v>1</v>
+      </c>
+      <c r="N4" s="65">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>65535</v>
+      </c>
+      <c r="T4">
+        <v>100</v>
+      </c>
+      <c r="U4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="221" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(D5,4) + _xlfn.BITLSHIFT(D$2,12),4)</f>
+        <v>0020</v>
+      </c>
+      <c r="F5" s="266" t="s">
+        <v>303</v>
+      </c>
+      <c r="G5" s="34">
+        <v>32</v>
+      </c>
+      <c r="H5" s="34">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="66">
+        <v>1</v>
+      </c>
+      <c r="L5" s="66">
+        <v>0</v>
+      </c>
+      <c r="M5" s="66">
+        <v>1</v>
+      </c>
+      <c r="N5" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E6" s="221" t="str">
+        <f>DEC2HEX(HEX2DEC(E5)+1,4)</f>
+        <v>0021</v>
+      </c>
+      <c r="F6" s="266" t="s">
+        <v>304</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="65"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E7" s="221" t="str">
+        <f t="shared" ref="E7:E12" si="1">DEC2HEX(HEX2DEC(E6)+1,4)</f>
+        <v>0022</v>
+      </c>
+      <c r="F7" s="266" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="65"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E8" s="221" t="str">
+        <f t="shared" si="1"/>
+        <v>0023</v>
+      </c>
+      <c r="F8" s="266" t="s">
+        <v>306</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="65"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E9" s="221" t="str">
+        <f t="shared" si="1"/>
+        <v>0024</v>
+      </c>
+      <c r="F9" s="266" t="s">
+        <v>307</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="65"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E10" s="221" t="str">
+        <f>DEC2HEX(HEX2DEC(E9)+1,4)</f>
+        <v>0025</v>
+      </c>
+      <c r="F10" s="266" t="s">
+        <v>308</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="65"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E11" s="221" t="str">
+        <f t="shared" si="1"/>
+        <v>0026</v>
+      </c>
+      <c r="F11" s="266" t="s">
+        <v>309</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="65"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E12" s="221" t="str">
+        <f t="shared" si="1"/>
+        <v>0027</v>
+      </c>
+      <c r="F12" s="266" t="s">
+        <v>310</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="65"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F13" s="266"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="65"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F14" s="266"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="65"/>
+    </row>
+    <row r="15" spans="1:22" s="218" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="217" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="222" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="2" t="s">
+      <c r="C15" s="218" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" s="218">
+        <v>1</v>
+      </c>
+      <c r="E15" s="220"/>
+      <c r="F15" s="265"/>
+      <c r="G15" s="218">
+        <f>SUM(G16:G34)</f>
+        <v>59</v>
+      </c>
+      <c r="K15" s="263"/>
+      <c r="L15" s="263"/>
+      <c r="M15" s="263"/>
+      <c r="N15" s="263"/>
+      <c r="O15" s="263"/>
+      <c r="P15" s="276"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="221" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(D16,4) + _xlfn.BITLSHIFT(D$15,12),4)</f>
+        <v>1000</v>
+      </c>
+      <c r="F16" s="266" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="34">
+        <v>4</v>
+      </c>
+      <c r="H16" s="34">
+        <f>ROUNDUP(G16/4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>175</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="66">
+        <v>1</v>
+      </c>
+      <c r="L16" s="66">
+        <v>0</v>
+      </c>
+      <c r="M16" s="66">
+        <v>0</v>
+      </c>
+      <c r="N16" s="65">
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="221" t="str">
+        <f t="shared" ref="E17:E33" si="2">DEC2HEX(_xlfn.BITLSHIFT(D17,4) + _xlfn.BITLSHIFT(D$15,12),4)</f>
+        <v>1010</v>
+      </c>
+      <c r="F17" s="266" t="s">
+        <v>284</v>
+      </c>
+      <c r="G17" s="34">
+        <v>4</v>
+      </c>
+      <c r="H17" s="34">
+        <f t="shared" ref="H17:H32" si="3">ROUNDUP(G17/4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="66">
+        <v>1</v>
+      </c>
+      <c r="L17" s="66">
+        <v>0</v>
+      </c>
+      <c r="M17" s="66">
+        <v>0</v>
+      </c>
+      <c r="N17" s="65">
+        <v>1</v>
+      </c>
+      <c r="U17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D18">
         <v>2</v>
       </c>
-      <c r="I1" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="J1" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="M1" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="218" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="217" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="218" t="s">
-        <v>280</v>
-      </c>
-      <c r="D2" s="218">
-        <v>0</v>
-      </c>
-      <c r="E2" s="220"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="265" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="218">
-        <f>SUM(K3:K4)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="221" t="str">
-        <f>DEC2HEX(D3 + _xlfn.BITLSHIFT(D$2,8),4)</f>
-        <v>0000</v>
-      </c>
-      <c r="F3" s="224" t="s">
-        <v>243</v>
-      </c>
-      <c r="G3" s="258">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <f t="shared" ref="K3" si="0">I3*J3</f>
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>62</v>
-      </c>
-      <c r="Q3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="221" t="str">
-        <f t="shared" ref="E4" si="1">DEC2HEX(D4 + _xlfn.BITLSHIFT(D$2,8),4)</f>
-        <v>0001</v>
-      </c>
-      <c r="F4" s="224" t="s">
-        <v>244</v>
-      </c>
-      <c r="G4" s="258">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>245</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4" s="1">
-        <f>I4*J4</f>
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>65535</v>
-      </c>
-      <c r="Q4">
-        <v>100</v>
-      </c>
-      <c r="R4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="221" t="str">
-        <f t="shared" ref="E5:E12" si="2">DEC2HEX(D5 + _xlfn.BITLSHIFT(D$2,8),4)</f>
-        <v>0003</v>
-      </c>
-      <c r="F5" s="224" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="258">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5">
+      <c r="E18" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>1020</v>
+      </c>
+      <c r="F18" s="266" t="s">
+        <v>346</v>
+      </c>
+      <c r="G18" s="34">
         <v>4</v>
       </c>
-      <c r="K5" s="1">
-        <f>I5*J5</f>
-        <v>32</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" s="221" t="str">
-        <f t="shared" si="2"/>
-        <v>0004</v>
-      </c>
-      <c r="F6" s="224" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="258">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" s="221" t="str">
-        <f t="shared" si="2"/>
-        <v>0005</v>
-      </c>
-      <c r="F7" s="224" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="258">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8" s="221" t="str">
-        <f t="shared" si="2"/>
-        <v>0006</v>
-      </c>
-      <c r="F8" s="224" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="258">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9" s="221" t="str">
-        <f t="shared" si="2"/>
-        <v>0007</v>
-      </c>
-      <c r="F9" s="224" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="258">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10" s="221" t="str">
-        <f t="shared" si="2"/>
-        <v>0008</v>
-      </c>
-      <c r="F10" s="224" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="258">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11" s="221" t="str">
-        <f t="shared" si="2"/>
-        <v>0009</v>
-      </c>
-      <c r="F11" s="224" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="258">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12" s="221" t="str">
-        <f t="shared" si="2"/>
-        <v>000A</v>
-      </c>
-      <c r="F12" s="224" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="258">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="G13" s="258">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" s="218" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="217" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="218" t="s">
-        <v>282</v>
-      </c>
-      <c r="D14" s="218">
-        <v>1</v>
-      </c>
-      <c r="E14" s="220"/>
-      <c r="F14" s="223"/>
-      <c r="G14" s="265"/>
-      <c r="K14" s="218">
-        <f>SUM(K15:K21)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="221" t="str">
-        <f>DEC2HEX(D15 + _xlfn.BITLSHIFT(D$14,8),4)</f>
-        <v>0100</v>
-      </c>
-      <c r="F15" s="224" t="s">
-        <v>165</v>
-      </c>
-      <c r="G15" s="258">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>178</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>4</v>
-      </c>
-      <c r="K15" s="1">
-        <f>I15*J15</f>
-        <v>4</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="R15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <f>D15+ROUNDUP(K15/8,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E16" s="221" t="str">
-        <f>DEC2HEX(D16 + _xlfn.BITLSHIFT(D$14,8),4)</f>
-        <v>0101</v>
-      </c>
-      <c r="F16" s="224" t="s">
-        <v>290</v>
-      </c>
-      <c r="G16" s="258">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>178</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>4</v>
-      </c>
-      <c r="K16" s="1">
-        <f>I16*J16</f>
-        <v>4</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="R16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" s="221" t="str">
-        <f t="shared" ref="E17:E21" si="3">DEC2HEX(D17 + _xlfn.BITLSHIFT(D$14,8),4)</f>
-        <v>0102</v>
-      </c>
-      <c r="F17" s="224" t="s">
-        <v>289</v>
-      </c>
-      <c r="G17" s="266" t="s">
-        <v>306</v>
-      </c>
-      <c r="H17" t="s">
-        <v>178</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>4</v>
-      </c>
-      <c r="K17" s="1">
-        <f>I17*J17</f>
-        <v>4</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D18">
-        <f t="shared" ref="D18" si="4">D17+ROUNDUP(K17/8,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E18" s="221" t="str">
-        <f t="shared" si="3"/>
-        <v>0103</v>
-      </c>
-      <c r="F18" s="224" t="s">
-        <v>286</v>
-      </c>
-      <c r="G18" s="258">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>178</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>4</v>
-      </c>
-      <c r="K18" s="1">
-        <v>4</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H18" s="34">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="66">
+        <v>1</v>
+      </c>
+      <c r="L18" s="66">
+        <v>0</v>
+      </c>
+      <c r="M18" s="66">
+        <v>0</v>
+      </c>
+      <c r="N18" s="267" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>1030</v>
+      </c>
+      <c r="F19" s="266" t="s">
+        <v>283</v>
+      </c>
+      <c r="G19" s="34">
+        <v>4</v>
+      </c>
+      <c r="H19" s="34">
         <f t="shared" si="3"/>
-        <v>0103</v>
-      </c>
-      <c r="F19" s="224" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="66">
+        <v>1</v>
+      </c>
+      <c r="L19" s="66">
+        <v>0</v>
+      </c>
+      <c r="M19" s="66">
+        <v>0</v>
+      </c>
+      <c r="N19" s="267" t="s">
+        <v>295</v>
+      </c>
+      <c r="O19" s="264"/>
+    </row>
+    <row r="20" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>1040</v>
+      </c>
+      <c r="F20" s="266" t="s">
+        <v>282</v>
+      </c>
+      <c r="G20" s="34">
+        <v>4</v>
+      </c>
+      <c r="H20" s="34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>175</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="66">
+        <v>1</v>
+      </c>
+      <c r="L20" s="66">
+        <v>0</v>
+      </c>
+      <c r="M20" s="66">
+        <v>0</v>
+      </c>
+      <c r="N20" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>1050</v>
+      </c>
+      <c r="F21" s="266" t="s">
+        <v>335</v>
+      </c>
+      <c r="G21" s="34">
+        <v>4</v>
+      </c>
+      <c r="H21" s="34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="66">
+        <v>1</v>
+      </c>
+      <c r="L21" s="66">
+        <v>0</v>
+      </c>
+      <c r="M21" s="66">
+        <v>0</v>
+      </c>
+      <c r="N21" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>1060</v>
+      </c>
+      <c r="F22" s="266" t="s">
+        <v>336</v>
+      </c>
+      <c r="G22" s="34">
+        <v>4</v>
+      </c>
+      <c r="H22" s="34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="66">
+        <v>1</v>
+      </c>
+      <c r="L22" s="66">
+        <v>0</v>
+      </c>
+      <c r="M22" s="66">
+        <v>0</v>
+      </c>
+      <c r="N22" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>1070</v>
+      </c>
+      <c r="F23" s="266" t="s">
+        <v>337</v>
+      </c>
+      <c r="G23" s="34">
+        <v>4</v>
+      </c>
+      <c r="H23" s="34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="66">
+        <v>1</v>
+      </c>
+      <c r="L23" s="66">
+        <v>0</v>
+      </c>
+      <c r="M23" s="66">
+        <v>0</v>
+      </c>
+      <c r="N23" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>1080</v>
+      </c>
+      <c r="F24" s="266" t="s">
+        <v>338</v>
+      </c>
+      <c r="G24" s="34">
+        <v>4</v>
+      </c>
+      <c r="H24" s="34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>175</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="66">
+        <v>1</v>
+      </c>
+      <c r="L24" s="66">
+        <v>0</v>
+      </c>
+      <c r="M24" s="66">
+        <v>0</v>
+      </c>
+      <c r="N24" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>1090</v>
+      </c>
+      <c r="F25" s="266" t="s">
+        <v>339</v>
+      </c>
+      <c r="G25" s="34">
+        <v>4</v>
+      </c>
+      <c r="H25" s="34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="66">
+        <v>1</v>
+      </c>
+      <c r="L25" s="66">
+        <v>0</v>
+      </c>
+      <c r="M25" s="66">
+        <v>0</v>
+      </c>
+      <c r="N25" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>10A0</v>
+      </c>
+      <c r="F26" s="266" t="s">
+        <v>340</v>
+      </c>
+      <c r="G26" s="34">
+        <v>4</v>
+      </c>
+      <c r="H26" s="34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>175</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="66">
+        <v>1</v>
+      </c>
+      <c r="L26" s="66">
+        <v>0</v>
+      </c>
+      <c r="M26" s="66">
+        <v>0</v>
+      </c>
+      <c r="N26" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>10B0</v>
+      </c>
+      <c r="F27" s="266" t="s">
+        <v>341</v>
+      </c>
+      <c r="G27" s="34">
+        <v>4</v>
+      </c>
+      <c r="H27" s="34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>175</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="66">
+        <v>1</v>
+      </c>
+      <c r="L27" s="66">
+        <v>0</v>
+      </c>
+      <c r="M27" s="66">
+        <v>0</v>
+      </c>
+      <c r="N27" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>10C0</v>
+      </c>
+      <c r="F28" s="266" t="s">
+        <v>342</v>
+      </c>
+      <c r="G28" s="34">
+        <v>4</v>
+      </c>
+      <c r="H28" s="34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>175</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="66">
+        <v>1</v>
+      </c>
+      <c r="L28" s="66">
+        <v>0</v>
+      </c>
+      <c r="M28" s="66">
+        <v>0</v>
+      </c>
+      <c r="N28" s="65">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>100</v>
+      </c>
+      <c r="T28">
+        <v>35</v>
+      </c>
+      <c r="U28" t="s">
+        <v>246</v>
+      </c>
+      <c r="V28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>13</v>
+      </c>
+      <c r="E29" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>10D0</v>
+      </c>
+      <c r="F29" s="266" t="s">
+        <v>343</v>
+      </c>
+      <c r="G29" s="34">
+        <v>4</v>
+      </c>
+      <c r="H29" s="34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>175</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="66">
+        <v>1</v>
+      </c>
+      <c r="L29" s="66">
+        <v>0</v>
+      </c>
+      <c r="M29" s="66">
+        <v>0</v>
+      </c>
+      <c r="N29" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>14</v>
+      </c>
+      <c r="E30" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>10E0</v>
+      </c>
+      <c r="F30" s="266" t="s">
+        <v>333</v>
+      </c>
+      <c r="G30" s="34">
+        <v>1</v>
+      </c>
+      <c r="H30" s="34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>178</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="66">
+        <v>1</v>
+      </c>
+      <c r="L30" s="66">
+        <v>0</v>
+      </c>
+      <c r="M30" s="66">
+        <v>0</v>
+      </c>
+      <c r="N30" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>10F0</v>
+      </c>
+      <c r="F31" s="266" t="s">
+        <v>334</v>
+      </c>
+      <c r="G31" s="34">
+        <v>1</v>
+      </c>
+      <c r="H31" s="34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>178</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="66">
+        <v>1</v>
+      </c>
+      <c r="L31" s="66">
+        <v>0</v>
+      </c>
+      <c r="M31" s="66">
+        <v>0</v>
+      </c>
+      <c r="N31" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>16</v>
+      </c>
+      <c r="E32" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
+      <c r="F32" s="266" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="34">
+        <v>1</v>
+      </c>
+      <c r="H32" s="34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>178</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="66">
+        <v>1</v>
+      </c>
+      <c r="L32" s="66">
+        <v>0</v>
+      </c>
+      <c r="M32" s="66">
+        <v>0</v>
+      </c>
+      <c r="N32" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>17</v>
+      </c>
+      <c r="E33" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>1110</v>
+      </c>
+      <c r="F33" s="266"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="65"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F34" s="266"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="65"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F35" s="266"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="65"/>
+    </row>
+    <row r="36" spans="1:21" s="218" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="217" t="s">
+        <v>279</v>
+      </c>
+      <c r="C36" s="218" t="s">
+        <v>277</v>
+      </c>
+      <c r="D36" s="218">
+        <v>2</v>
+      </c>
+      <c r="E36" s="220"/>
+      <c r="F36" s="265"/>
+      <c r="G36" s="218">
+        <f>SUM(G37:G42)</f>
+        <v>8</v>
+      </c>
+      <c r="K36" s="263"/>
+      <c r="L36" s="263"/>
+      <c r="M36" s="263"/>
+      <c r="N36" s="263"/>
+      <c r="O36" s="263"/>
+      <c r="P36" s="276"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="221" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(D37,4) + _xlfn.BITLSHIFT(D$36,12),4)</f>
+        <v>2000</v>
+      </c>
+      <c r="F37" s="266" t="s">
+        <v>267</v>
+      </c>
+      <c r="G37" s="34">
+        <v>4</v>
+      </c>
+      <c r="H37" s="34">
+        <f>ROUNDUP(G37/4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>175</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="66">
+        <v>0</v>
+      </c>
+      <c r="L37" s="66">
+        <v>1</v>
+      </c>
+      <c r="M37" s="66">
+        <v>0</v>
+      </c>
+      <c r="N37" s="65">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s">
+        <v>280</v>
+      </c>
+      <c r="S37" t="s">
+        <v>281</v>
+      </c>
+      <c r="T37">
+        <v>10</v>
+      </c>
+      <c r="U37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="221" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(D38,4) + _xlfn.BITLSHIFT(D$36,12),4)</f>
+        <v>2010</v>
+      </c>
+      <c r="F38" s="266" t="s">
+        <v>344</v>
+      </c>
+      <c r="G38" s="34">
+        <v>4</v>
+      </c>
+      <c r="H38" s="34">
+        <f>ROUNDUP(G38/4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>175</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="65"/>
+      <c r="P38" s="274" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F39" s="266"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="65"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F40" s="266"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="65"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F41" s="266"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="65"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F42" s="266"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="65"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F43" s="266"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="65"/>
+    </row>
+    <row r="44" spans="1:21" s="218" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="217" t="s">
+        <v>279</v>
+      </c>
+      <c r="B44" s="218" t="s">
+        <v>266</v>
+      </c>
+      <c r="C44" s="218" t="s">
+        <v>277</v>
+      </c>
+      <c r="D44" s="218">
+        <v>3</v>
+      </c>
+      <c r="E44" s="220"/>
+      <c r="F44" s="265"/>
+      <c r="G44" s="218">
+        <f>SUM(G45:G59)</f>
+        <v>30</v>
+      </c>
+      <c r="K44" s="263"/>
+      <c r="L44" s="263"/>
+      <c r="M44" s="263"/>
+      <c r="N44" s="263"/>
+      <c r="O44" s="263"/>
+      <c r="P44" s="276"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" s="221" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(D45,4) + _xlfn.BITLSHIFT(D$44,12),4)</f>
+        <v>3000</v>
+      </c>
+      <c r="F45" s="266" t="s">
+        <v>286</v>
+      </c>
+      <c r="G45" s="34">
+        <v>1</v>
+      </c>
+      <c r="H45" s="34">
+        <f>ROUNDUP(G45/4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>178</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="66">
+        <v>0</v>
+      </c>
+      <c r="L45" s="66">
+        <v>1</v>
+      </c>
+      <c r="M45" s="66">
+        <v>0</v>
+      </c>
+      <c r="N45" s="65">
+        <v>1</v>
+      </c>
+      <c r="R45" t="s">
+        <v>280</v>
+      </c>
+      <c r="S45" t="s">
+        <v>311</v>
+      </c>
+      <c r="T45" t="s">
+        <v>312</v>
+      </c>
+      <c r="U45" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="221" t="str">
+        <f t="shared" ref="E46:E59" si="4">DEC2HEX(_xlfn.BITLSHIFT(D46,4) + _xlfn.BITLSHIFT(D$44,12),4)</f>
+        <v>3010</v>
+      </c>
+      <c r="F46" s="266" t="s">
         <v>287</v>
       </c>
-      <c r="G19" s="258">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G46" s="34">
+        <v>1</v>
+      </c>
+      <c r="H46" s="34">
+        <f t="shared" ref="H46:H59" si="5">ROUNDUP(G46/4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
         <v>178</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
+      <c r="K46" s="66">
+        <v>0</v>
+      </c>
+      <c r="L46" s="66">
+        <v>1</v>
+      </c>
+      <c r="M46" s="66">
+        <v>0</v>
+      </c>
+      <c r="N46" s="65">
+        <v>1</v>
+      </c>
+      <c r="R46" t="s">
+        <v>314</v>
+      </c>
+      <c r="S46" t="s">
+        <v>315</v>
+      </c>
+      <c r="T46" t="s">
+        <v>317</v>
+      </c>
+      <c r="U46" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" s="221" t="str">
+        <f t="shared" si="4"/>
+        <v>3020</v>
+      </c>
+      <c r="F47" s="266" t="s">
+        <v>296</v>
+      </c>
+      <c r="G47" s="34">
         <v>4</v>
       </c>
-      <c r="K19" s="1">
-        <f t="shared" ref="K19:K20" si="5">I19*J19</f>
+      <c r="H47" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>175</v>
+      </c>
+      <c r="K47" s="66">
+        <v>0</v>
+      </c>
+      <c r="L47" s="66">
+        <v>1</v>
+      </c>
+      <c r="M47" s="66">
+        <v>0</v>
+      </c>
+      <c r="N47" s="65">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48" s="221" t="str">
+        <f t="shared" si="4"/>
+        <v>3030</v>
+      </c>
+      <c r="F48" s="266" t="s">
+        <v>285</v>
+      </c>
+      <c r="G48" s="34">
+        <v>1</v>
+      </c>
+      <c r="H48" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>178</v>
+      </c>
+      <c r="K48" s="66">
+        <v>0</v>
+      </c>
+      <c r="L48" s="66">
+        <v>1</v>
+      </c>
+      <c r="M48" s="66">
+        <v>0</v>
+      </c>
+      <c r="N48" s="65">
+        <v>1</v>
+      </c>
+      <c r="R48" s="67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D49">
         <v>4</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D20">
-        <f t="shared" ref="D20" si="6">D19+ROUNDUP(K19/8,0)</f>
+      <c r="E49" s="221" t="str">
+        <f t="shared" si="4"/>
+        <v>3040</v>
+      </c>
+      <c r="F49" s="266" t="s">
+        <v>289</v>
+      </c>
+      <c r="G49" s="34">
+        <v>1</v>
+      </c>
+      <c r="H49" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>178</v>
+      </c>
+      <c r="K49" s="66">
+        <v>0</v>
+      </c>
+      <c r="L49" s="66">
+        <v>1</v>
+      </c>
+      <c r="M49" s="66">
+        <v>0</v>
+      </c>
+      <c r="N49" s="65">
+        <v>1</v>
+      </c>
+      <c r="R49" s="67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50" s="221" t="str">
+        <f t="shared" si="4"/>
+        <v>3050</v>
+      </c>
+      <c r="F50" s="266" t="s">
+        <v>297</v>
+      </c>
+      <c r="G50" s="34">
         <v>4</v>
       </c>
-      <c r="E20" s="221" t="str">
-        <f t="shared" si="3"/>
-        <v>0104</v>
-      </c>
-      <c r="F20" s="224" t="s">
+      <c r="H50" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>175</v>
+      </c>
+      <c r="K50" s="66">
+        <v>0</v>
+      </c>
+      <c r="L50" s="66">
+        <v>1</v>
+      </c>
+      <c r="M50" s="66">
+        <v>0</v>
+      </c>
+      <c r="N50" s="65">
+        <v>1</v>
+      </c>
+      <c r="R50" s="67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51" s="221" t="str">
+        <f t="shared" si="4"/>
+        <v>3060</v>
+      </c>
+      <c r="F51" s="266" t="s">
+        <v>290</v>
+      </c>
+      <c r="G51" s="34">
+        <v>1</v>
+      </c>
+      <c r="H51" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>178</v>
+      </c>
+      <c r="K51" s="66">
+        <v>0</v>
+      </c>
+      <c r="L51" s="66">
+        <v>1</v>
+      </c>
+      <c r="M51" s="66">
+        <v>0</v>
+      </c>
+      <c r="N51" s="65">
+        <v>1</v>
+      </c>
+      <c r="R51" s="67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>7</v>
+      </c>
+      <c r="E52" s="221" t="str">
+        <f t="shared" si="4"/>
+        <v>3070</v>
+      </c>
+      <c r="F52" s="266" t="s">
         <v>288</v>
       </c>
-      <c r="G20" s="258">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="G52" s="34">
+        <v>1</v>
+      </c>
+      <c r="H52" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
         <v>178</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
+      <c r="K52" s="66">
+        <v>0</v>
+      </c>
+      <c r="L52" s="66">
+        <v>1</v>
+      </c>
+      <c r="M52" s="66">
+        <v>0</v>
+      </c>
+      <c r="N52" s="65">
+        <v>1</v>
+      </c>
+      <c r="R52" s="67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>8</v>
+      </c>
+      <c r="E53" s="221" t="str">
+        <f t="shared" si="4"/>
+        <v>3080</v>
+      </c>
+      <c r="F53" s="266" t="s">
+        <v>298</v>
+      </c>
+      <c r="G53" s="34">
         <v>4</v>
       </c>
-      <c r="K20" s="1">
+      <c r="H53" s="34">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>175</v>
+      </c>
+      <c r="K53" s="66">
+        <v>0</v>
+      </c>
+      <c r="L53" s="66">
+        <v>1</v>
+      </c>
+      <c r="M53" s="66">
+        <v>0</v>
+      </c>
+      <c r="N53" s="65">
+        <v>1</v>
+      </c>
+      <c r="R53" s="67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>9</v>
+      </c>
+      <c r="E54" s="221" t="str">
+        <f t="shared" si="4"/>
+        <v>3090</v>
+      </c>
+      <c r="F54" s="266" t="s">
+        <v>291</v>
+      </c>
+      <c r="G54" s="34">
+        <v>1</v>
+      </c>
+      <c r="H54" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>178</v>
+      </c>
+      <c r="K54" s="66">
+        <v>0</v>
+      </c>
+      <c r="L54" s="66">
+        <v>1</v>
+      </c>
+      <c r="M54" s="66">
+        <v>0</v>
+      </c>
+      <c r="N54" s="65">
+        <v>1</v>
+      </c>
+      <c r="R54" s="67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55" s="221" t="str">
+        <f t="shared" si="4"/>
+        <v>30A0</v>
+      </c>
+      <c r="F55" s="266" t="s">
+        <v>292</v>
+      </c>
+      <c r="G55" s="34">
+        <v>1</v>
+      </c>
+      <c r="H55" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>178</v>
+      </c>
+      <c r="K55" s="66">
+        <v>0</v>
+      </c>
+      <c r="L55" s="66">
+        <v>1</v>
+      </c>
+      <c r="M55" s="66">
+        <v>0</v>
+      </c>
+      <c r="N55" s="65">
+        <v>1</v>
+      </c>
+      <c r="R55" s="67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>11</v>
+      </c>
+      <c r="E56" s="221" t="str">
+        <f t="shared" si="4"/>
+        <v>30B0</v>
+      </c>
+      <c r="F56" s="266" t="s">
+        <v>299</v>
+      </c>
+      <c r="G56" s="34">
         <v>4</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D21">
+      <c r="H56" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>175</v>
+      </c>
+      <c r="K56" s="66">
+        <v>0</v>
+      </c>
+      <c r="L56" s="66">
+        <v>1</v>
+      </c>
+      <c r="M56" s="66">
+        <v>0</v>
+      </c>
+      <c r="N56" s="65">
+        <v>1</v>
+      </c>
+      <c r="R56" s="67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>12</v>
+      </c>
+      <c r="E57" s="221" t="str">
+        <f t="shared" si="4"/>
+        <v>30C0</v>
+      </c>
+      <c r="F57" s="266" t="s">
+        <v>293</v>
+      </c>
+      <c r="G57" s="34">
+        <v>1</v>
+      </c>
+      <c r="H57" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>178</v>
+      </c>
+      <c r="K57" s="66">
+        <v>0</v>
+      </c>
+      <c r="L57" s="66">
+        <v>1</v>
+      </c>
+      <c r="M57" s="66">
+        <v>0</v>
+      </c>
+      <c r="N57" s="65">
+        <v>1</v>
+      </c>
+      <c r="R57" s="67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>13</v>
+      </c>
+      <c r="E58" s="221" t="str">
+        <f t="shared" si="4"/>
+        <v>30D0</v>
+      </c>
+      <c r="F58" s="266" t="s">
+        <v>294</v>
+      </c>
+      <c r="G58" s="34">
+        <v>1</v>
+      </c>
+      <c r="H58" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>178</v>
+      </c>
+      <c r="K58" s="66">
+        <v>0</v>
+      </c>
+      <c r="L58" s="66">
+        <v>1</v>
+      </c>
+      <c r="M58" s="66">
+        <v>0</v>
+      </c>
+      <c r="N58" s="65">
+        <v>1</v>
+      </c>
+      <c r="R58" s="67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>14</v>
+      </c>
+      <c r="E59" s="221" t="str">
+        <f t="shared" si="4"/>
+        <v>30E0</v>
+      </c>
+      <c r="F59" s="266" t="s">
+        <v>300</v>
+      </c>
+      <c r="G59" s="34">
         <v>4</v>
       </c>
-      <c r="E21" s="221" t="str">
-        <f t="shared" si="3"/>
-        <v>0104</v>
-      </c>
-      <c r="F21" s="224" t="s">
-        <v>180</v>
-      </c>
-      <c r="G21" s="258">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>181</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1">
-        <f>I21*J21</f>
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>100</v>
-      </c>
-      <c r="Q21">
-        <v>35</v>
-      </c>
-      <c r="R21" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D22">
-        <f t="shared" ref="D22" si="7">D21+ROUNDUP(K21/8,0)</f>
-        <v>5</v>
-      </c>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" s="218" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="217" t="s">
-        <v>283</v>
-      </c>
-      <c r="B24" s="218" t="s">
-        <v>307</v>
-      </c>
-      <c r="C24" s="218" t="s">
-        <v>281</v>
-      </c>
-      <c r="D24" s="218">
-        <v>2</v>
-      </c>
-      <c r="E24" s="220"/>
-      <c r="F24" s="223"/>
-      <c r="G24" s="265"/>
-      <c r="K24" s="218">
-        <f>SUM(K25:K26)</f>
+      <c r="H59" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>175</v>
+      </c>
+      <c r="K59" s="66">
+        <v>0</v>
+      </c>
+      <c r="L59" s="66">
+        <v>1</v>
+      </c>
+      <c r="M59" s="66">
+        <v>0</v>
+      </c>
+      <c r="N59" s="65">
+        <v>1</v>
+      </c>
+      <c r="R59" s="67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F60" s="266"/>
+    </row>
+    <row r="61" spans="1:18" s="218" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="218" t="s">
+        <v>279</v>
+      </c>
+      <c r="B61" s="218" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" s="218" t="s">
+        <v>277</v>
+      </c>
+      <c r="D61" s="218">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" s="221" t="str">
-        <f>DEC2HEX(D25 + _xlfn.BITLSHIFT(D$24,8),4)</f>
-        <v>0200</v>
-      </c>
-      <c r="F25" s="224" t="s">
-        <v>271</v>
-      </c>
-      <c r="G25" s="258">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>178</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>4</v>
-      </c>
-      <c r="K25" s="1">
-        <f>I25*J25</f>
-        <v>4</v>
-      </c>
-      <c r="O25" t="s">
-        <v>284</v>
-      </c>
-      <c r="P25" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q25">
-        <v>10</v>
-      </c>
-      <c r="R25" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="221" t="str">
-        <f t="shared" ref="E26:E40" si="8">DEC2HEX(D26 + _xlfn.BITLSHIFT(D$24,8),4)</f>
-        <v>0201</v>
-      </c>
-      <c r="F26" s="224" t="s">
-        <v>292</v>
-      </c>
-      <c r="G26" s="258">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1">
-        <f>I26*J26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" s="221" t="str">
-        <f t="shared" si="8"/>
-        <v>0202</v>
-      </c>
-      <c r="F27" s="224" t="s">
-        <v>293</v>
-      </c>
-      <c r="G27" s="258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28" s="221" t="str">
-        <f t="shared" si="8"/>
-        <v>0203</v>
-      </c>
-      <c r="F28" s="224" t="s">
-        <v>294</v>
-      </c>
-      <c r="G28" s="258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29" s="221" t="str">
-        <f t="shared" si="8"/>
-        <v>0204</v>
-      </c>
-      <c r="F29" s="224" t="s">
-        <v>291</v>
-      </c>
-      <c r="G29" s="258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D30">
-        <v>5</v>
-      </c>
-      <c r="E30" s="221" t="str">
-        <f t="shared" si="8"/>
-        <v>0205</v>
-      </c>
-      <c r="F30" s="224" t="s">
-        <v>296</v>
-      </c>
-      <c r="G30" s="258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D31">
-        <v>6</v>
-      </c>
-      <c r="E31" s="221" t="str">
-        <f t="shared" si="8"/>
-        <v>0206</v>
-      </c>
-      <c r="F31" s="224" t="s">
-        <v>297</v>
-      </c>
-      <c r="G31" s="258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D32">
-        <v>7</v>
-      </c>
-      <c r="E32" s="221" t="str">
-        <f t="shared" si="8"/>
-        <v>0207</v>
-      </c>
-      <c r="F32" s="224" t="s">
-        <v>298</v>
-      </c>
-      <c r="G32" s="258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D33">
-        <v>8</v>
-      </c>
-      <c r="E33" s="221" t="str">
-        <f t="shared" si="8"/>
-        <v>0208</v>
-      </c>
-      <c r="F33" s="224" t="s">
-        <v>295</v>
-      </c>
-      <c r="G33" s="258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D34">
-        <v>9</v>
-      </c>
-      <c r="E34" s="221" t="str">
-        <f t="shared" si="8"/>
-        <v>0209</v>
-      </c>
-      <c r="F34" s="224" t="s">
-        <v>299</v>
-      </c>
-      <c r="G34" s="258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D35">
-        <v>10</v>
-      </c>
-      <c r="E35" s="221" t="str">
-        <f t="shared" si="8"/>
-        <v>020A</v>
-      </c>
-      <c r="F35" s="224" t="s">
-        <v>300</v>
-      </c>
-      <c r="G35" s="258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D36">
-        <v>11</v>
-      </c>
-      <c r="E36" s="221" t="str">
-        <f t="shared" si="8"/>
-        <v>020B</v>
-      </c>
-      <c r="F36" s="224" t="s">
-        <v>301</v>
-      </c>
-      <c r="G36" s="258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D37">
-        <v>12</v>
-      </c>
-      <c r="E37" s="221" t="str">
-        <f t="shared" si="8"/>
-        <v>020C</v>
-      </c>
-      <c r="F37" s="224" t="s">
-        <v>302</v>
-      </c>
-      <c r="G37" s="258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D38">
-        <v>13</v>
-      </c>
-      <c r="E38" s="221" t="str">
-        <f t="shared" si="8"/>
-        <v>020D</v>
-      </c>
-      <c r="F38" s="224" t="s">
-        <v>303</v>
-      </c>
-      <c r="G38" s="258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D39">
-        <v>14</v>
-      </c>
-      <c r="E39" s="221" t="str">
-        <f t="shared" si="8"/>
-        <v>020E</v>
-      </c>
-      <c r="F39" s="224" t="s">
-        <v>304</v>
-      </c>
-      <c r="G39" s="258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D40">
-        <v>15</v>
-      </c>
-      <c r="E40" s="221" t="str">
-        <f t="shared" si="8"/>
-        <v>020F</v>
-      </c>
-      <c r="F40" s="224" t="s">
-        <v>305</v>
-      </c>
-      <c r="G40" s="258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="218" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="218" t="s">
-        <v>283</v>
-      </c>
-      <c r="B41" s="218" t="s">
-        <v>270</v>
-      </c>
-      <c r="C41" s="218" t="s">
-        <v>281</v>
-      </c>
-      <c r="D41" s="218">
-        <v>3</v>
-      </c>
-      <c r="E41" s="220"/>
-      <c r="F41" s="223"/>
-      <c r="G41" s="265"/>
-      <c r="K41" s="218">
-        <f>SUM(K42:K43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42" s="221" t="str">
-        <f>DEC2HEX(D42 + _xlfn.BITLSHIFT(D$41,8),4)</f>
-        <v>0300</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" s="221" t="str">
-        <f>DEC2HEX(D43 + _xlfn.BITLSHIFT(D$41,8),4)</f>
-        <v>0301</v>
-      </c>
+      <c r="E61" s="220"/>
+      <c r="F61" s="265"/>
+      <c r="G61" s="218">
+        <f>SUM(G62:G63)</f>
+        <v>0</v>
+      </c>
+      <c r="K61" s="263"/>
+      <c r="L61" s="263"/>
+      <c r="M61" s="263"/>
+      <c r="N61" s="263"/>
+      <c r="O61" s="263"/>
+      <c r="P61" s="276"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" s="221" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(D62,4) + _xlfn.BITLSHIFT(D$61,12),4)</f>
+        <v>4000</v>
+      </c>
+      <c r="F62" s="266"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" s="221" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(D63,4) + _xlfn.BITLSHIFT(D$61,12),4)</f>
+        <v>4010</v>
+      </c>
+      <c r="F63" s="266"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F64" s="266"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="266"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="266"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="266"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="266"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="266"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="266"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="266"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="266"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="266"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="266"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="266"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="266"/>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="266"/>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="266"/>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="266"/>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="266"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="266"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="266"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="266"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="266"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="266"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="266"/>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="266"/>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="266"/>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="266"/>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="266"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="266"/>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="266"/>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="266"/>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="266"/>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="266"/>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="266"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="266"/>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="266"/>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="266"/>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="266"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="266"/>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="266"/>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="266"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="266"/>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="266"/>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="266"/>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="266"/>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="266"/>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F109" s="266"/>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F110" s="266"/>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F111" s="266"/>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F112" s="266"/>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F113" s="266"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F114" s="266"/>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F115" s="266"/>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F116" s="266"/>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F117" s="266"/>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="266"/>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F119" s="266"/>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F120" s="266"/>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F121" s="266"/>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F122" s="266"/>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F123" s="266"/>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F124" s="266"/>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F125" s="266"/>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F126" s="266"/>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F127" s="266"/>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F128" s="266"/>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F129" s="266"/>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F130" s="266"/>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F131" s="266"/>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F132" s="266"/>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F133" s="266"/>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F134" s="266"/>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F135" s="266"/>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F136" s="266"/>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F137" s="266"/>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F138" s="266"/>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F139" s="266"/>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F140" s="266"/>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F141" s="266"/>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F142" s="266"/>
+    </row>
+    <row r="143" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F143" s="266"/>
+    </row>
+    <row r="144" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F144" s="266"/>
+    </row>
+    <row r="145" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F145" s="266"/>
+    </row>
+    <row r="146" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F146" s="266"/>
+    </row>
+    <row r="147" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F147" s="266"/>
+    </row>
+    <row r="148" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F148" s="266"/>
+    </row>
+    <row r="149" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F149" s="266"/>
+    </row>
+    <row r="150" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F150" s="266"/>
+    </row>
+    <row r="151" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F151" s="266"/>
+    </row>
+    <row r="152" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F152" s="266"/>
+    </row>
+    <row r="153" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F153" s="266"/>
+    </row>
+    <row r="154" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F154" s="266"/>
+    </row>
+    <row r="155" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F155" s="266"/>
+    </row>
+    <row r="156" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F156" s="266"/>
+    </row>
+    <row r="157" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F157" s="266"/>
+    </row>
+    <row r="158" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F158" s="266"/>
+    </row>
+    <row r="159" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F159" s="266"/>
+    </row>
+    <row r="160" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F160" s="266"/>
+    </row>
+    <row r="161" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F161" s="266"/>
+    </row>
+    <row r="162" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F162" s="266"/>
+    </row>
+    <row r="163" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F163" s="266"/>
+    </row>
+    <row r="164" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F164" s="266"/>
+    </row>
+    <row r="165" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F165" s="266"/>
+    </row>
+    <row r="166" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F166" s="266"/>
+    </row>
+    <row r="167" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F167" s="266"/>
+    </row>
+    <row r="168" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F168" s="266"/>
+    </row>
+    <row r="169" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F169" s="266"/>
+    </row>
+    <row r="170" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F170" s="266"/>
+    </row>
+    <row r="171" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F171" s="266"/>
+    </row>
+    <row r="172" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F172" s="266"/>
+    </row>
+    <row r="173" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F173" s="266"/>
+    </row>
+    <row r="174" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F174" s="266"/>
+    </row>
+    <row r="175" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F175" s="266"/>
+    </row>
+    <row r="176" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F176" s="266"/>
+    </row>
+    <row r="177" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F177" s="266"/>
+    </row>
+    <row r="178" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F178" s="266"/>
+    </row>
+    <row r="179" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F179" s="266"/>
+    </row>
+    <row r="180" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F180" s="266"/>
+    </row>
+    <row r="181" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F181" s="266"/>
+    </row>
+    <row r="182" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F182" s="266"/>
+    </row>
+    <row r="183" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F183" s="266"/>
+    </row>
+    <row r="184" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F184" s="266"/>
+    </row>
+    <row r="185" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F185" s="266"/>
+    </row>
+    <row r="186" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F186" s="266"/>
+    </row>
+    <row r="187" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F187" s="266"/>
+    </row>
+    <row r="188" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F188" s="266"/>
+    </row>
+    <row r="189" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F189" s="266"/>
+    </row>
+    <row r="190" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F190" s="266"/>
+    </row>
+    <row r="191" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F191" s="266"/>
+    </row>
+    <row r="192" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F192" s="266"/>
+    </row>
+    <row r="193" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F193" s="266"/>
+    </row>
+    <row r="194" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F194" s="266"/>
+    </row>
+    <row r="195" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F195" s="266"/>
+    </row>
+    <row r="196" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F196" s="266"/>
+    </row>
+    <row r="197" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F197" s="266"/>
+    </row>
+    <row r="198" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F198" s="266"/>
+    </row>
+    <row r="199" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F199" s="266"/>
+    </row>
+    <row r="200" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F200" s="266"/>
+    </row>
+    <row r="201" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F201" s="266"/>
+    </row>
+    <row r="202" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F202" s="266"/>
+    </row>
+    <row r="203" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F203" s="266"/>
+    </row>
+    <row r="204" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F204" s="266"/>
+    </row>
+    <row r="205" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F205" s="266"/>
+    </row>
+    <row r="206" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F206" s="266"/>
+    </row>
+    <row r="207" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F207" s="266"/>
+    </row>
+    <row r="208" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F208" s="266"/>
+    </row>
+    <row r="209" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F209" s="266"/>
+    </row>
+    <row r="210" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F210" s="266"/>
+    </row>
+    <row r="211" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F211" s="266"/>
+    </row>
+    <row r="212" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F212" s="266"/>
+    </row>
+    <row r="213" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F213" s="266"/>
+    </row>
+    <row r="214" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F214" s="266"/>
+    </row>
+    <row r="215" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F215" s="266"/>
+    </row>
+    <row r="216" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F216" s="266"/>
+    </row>
+    <row r="217" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F217" s="266"/>
+    </row>
+    <row r="218" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F218" s="266"/>
+    </row>
+    <row r="219" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F219" s="266"/>
+    </row>
+    <row r="220" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F220" s="266"/>
+    </row>
+    <row r="221" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F221" s="266"/>
+    </row>
+    <row r="222" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F222" s="266"/>
+    </row>
+    <row r="223" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F223" s="266"/>
+    </row>
+    <row r="224" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F224" s="266"/>
+    </row>
+    <row r="225" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F225" s="266"/>
+    </row>
+    <row r="226" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F226" s="266"/>
+    </row>
+    <row r="227" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F227" s="266"/>
+    </row>
+    <row r="228" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F228" s="266"/>
+    </row>
+    <row r="229" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F229" s="266"/>
+    </row>
+    <row r="230" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F230" s="266"/>
+    </row>
+    <row r="231" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F231" s="266"/>
+    </row>
+    <row r="232" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F232" s="266"/>
+    </row>
+    <row r="233" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F233" s="266"/>
+    </row>
+    <row r="234" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F234" s="266"/>
+    </row>
+    <row r="235" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F235" s="266"/>
+    </row>
+    <row r="236" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F236" s="266"/>
+    </row>
+    <row r="237" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F237" s="266"/>
+    </row>
+    <row r="238" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F238" s="266"/>
+    </row>
+    <row r="239" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F239" s="266"/>
+    </row>
+    <row r="240" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F240" s="266"/>
+    </row>
+    <row r="241" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F241" s="266"/>
+    </row>
+    <row r="242" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F242" s="266"/>
+    </row>
+    <row r="243" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F243" s="266"/>
+    </row>
+    <row r="244" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F244" s="266"/>
+    </row>
+    <row r="245" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F245" s="266"/>
+    </row>
+    <row r="246" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F246" s="266"/>
+    </row>
+    <row r="247" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F247" s="266"/>
+    </row>
+    <row r="248" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F248" s="266"/>
+    </row>
+    <row r="249" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F249" s="266"/>
+    </row>
+    <row r="250" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F250" s="266"/>
+    </row>
+    <row r="251" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F251" s="266"/>
+    </row>
+    <row r="252" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F252" s="266"/>
+    </row>
+    <row r="253" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F253" s="266"/>
+    </row>
+    <row r="254" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F254" s="266"/>
+    </row>
+    <row r="255" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F255" s="266"/>
+    </row>
+    <row r="256" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F256" s="266"/>
+    </row>
+    <row r="257" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F257" s="266"/>
+    </row>
+    <row r="258" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F258" s="266"/>
+    </row>
+    <row r="259" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F259" s="266"/>
+    </row>
+    <row r="260" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F260" s="266"/>
+    </row>
+    <row r="261" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F261" s="266"/>
+    </row>
+    <row r="262" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F262" s="266"/>
+    </row>
+    <row r="263" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F263" s="266"/>
+    </row>
+    <row r="264" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F264" s="266"/>
+    </row>
+    <row r="265" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F265" s="266"/>
+    </row>
+    <row r="266" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F266" s="266"/>
+    </row>
+    <row r="267" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F267" s="266"/>
+    </row>
+    <row r="268" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F268" s="266"/>
+    </row>
+    <row r="269" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F269" s="266"/>
+    </row>
+    <row r="270" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F270" s="266"/>
+    </row>
+    <row r="271" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F271" s="266"/>
+    </row>
+    <row r="272" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F272" s="266"/>
+    </row>
+    <row r="273" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F273" s="266"/>
+    </row>
+    <row r="274" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F274" s="266"/>
+    </row>
+    <row r="275" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F275" s="266"/>
+    </row>
+    <row r="276" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F276" s="266"/>
+    </row>
+    <row r="277" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F277" s="266"/>
+    </row>
+    <row r="278" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F278" s="266"/>
+    </row>
+    <row r="279" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F279" s="266"/>
+    </row>
+    <row r="280" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F280" s="266"/>
+    </row>
+    <row r="281" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F281" s="266"/>
+    </row>
+    <row r="282" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F282" s="266"/>
+    </row>
+    <row r="283" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F283" s="266"/>
+    </row>
+    <row r="284" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F284" s="266"/>
+    </row>
+    <row r="285" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F285" s="266"/>
+    </row>
+    <row r="286" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F286" s="266"/>
+    </row>
+    <row r="287" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F287" s="266"/>
+    </row>
+    <row r="288" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F288" s="266"/>
+    </row>
+    <row r="289" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F289" s="266"/>
+    </row>
+    <row r="290" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F290" s="266"/>
+    </row>
+    <row r="291" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F291" s="266"/>
+    </row>
+    <row r="292" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F292" s="266"/>
+    </row>
+    <row r="293" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F293" s="266"/>
+    </row>
+    <row r="294" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F294" s="266"/>
+    </row>
+    <row r="295" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F295" s="266"/>
+    </row>
+    <row r="296" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F296" s="266"/>
+    </row>
+    <row r="297" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F297" s="266"/>
+    </row>
+    <row r="298" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F298" s="266"/>
+    </row>
+    <row r="299" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F299" s="266"/>
+    </row>
+    <row r="300" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F300" s="266"/>
+    </row>
+    <row r="301" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F301" s="266"/>
+    </row>
+    <row r="302" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F302" s="266"/>
+    </row>
+    <row r="303" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F303" s="266"/>
+    </row>
+    <row r="304" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F304" s="266"/>
+    </row>
+    <row r="305" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F305" s="266"/>
+    </row>
+    <row r="306" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F306" s="266"/>
+    </row>
+    <row r="307" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F307" s="266"/>
+    </row>
+    <row r="308" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F308" s="266"/>
+    </row>
+    <row r="309" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F309" s="266"/>
+    </row>
+    <row r="310" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F310" s="266"/>
+    </row>
+    <row r="311" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F311" s="266"/>
+    </row>
+    <row r="312" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F312" s="266"/>
+    </row>
+    <row r="313" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F313" s="266"/>
+    </row>
+    <row r="314" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F314" s="266"/>
+    </row>
+    <row r="315" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F315" s="266"/>
+    </row>
+    <row r="316" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F316" s="266"/>
+    </row>
+    <row r="317" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F317" s="266"/>
+    </row>
+    <row r="318" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F318" s="266"/>
+    </row>
+    <row r="319" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F319" s="266"/>
+    </row>
+    <row r="320" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F320" s="266"/>
+    </row>
+    <row r="321" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F321" s="266"/>
+    </row>
+    <row r="322" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F322" s="266"/>
+    </row>
+    <row r="323" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F323" s="266"/>
+    </row>
+    <row r="324" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F324" s="266"/>
+    </row>
+    <row r="325" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F325" s="266"/>
+    </row>
+    <row r="326" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F326" s="266"/>
+    </row>
+    <row r="327" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F327" s="266"/>
+    </row>
+    <row r="328" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F328" s="266"/>
+    </row>
+    <row r="329" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F329" s="266"/>
+    </row>
+    <row r="330" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F330" s="266"/>
+    </row>
+    <row r="331" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F331" s="266"/>
+    </row>
+    <row r="332" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F332" s="266"/>
+    </row>
+    <row r="333" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F333" s="266"/>
+    </row>
+    <row r="334" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F334" s="266"/>
+    </row>
+    <row r="335" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F335" s="266"/>
+    </row>
+    <row r="336" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F336" s="266"/>
+    </row>
+    <row r="337" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F337" s="266"/>
+    </row>
+    <row r="338" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F338" s="266"/>
+    </row>
+    <row r="339" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F339" s="266"/>
+    </row>
+    <row r="340" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F340" s="266"/>
+    </row>
+    <row r="341" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F341" s="266"/>
+    </row>
+    <row r="342" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F342" s="266"/>
+    </row>
+    <row r="343" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F343" s="266"/>
+    </row>
+    <row r="344" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F344" s="266"/>
+    </row>
+    <row r="345" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F345" s="266"/>
+    </row>
+    <row r="346" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F346" s="266"/>
+    </row>
+    <row r="347" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F347" s="266"/>
+    </row>
+    <row r="348" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F348" s="266"/>
+    </row>
+    <row r="349" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F349" s="266"/>
+    </row>
+    <row r="350" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F350" s="266"/>
+    </row>
+    <row r="351" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F351" s="266"/>
+    </row>
+    <row r="352" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F352" s="266"/>
+    </row>
+    <row r="353" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F353" s="266"/>
+    </row>
+    <row r="354" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F354" s="266"/>
+    </row>
+    <row r="355" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F355" s="266"/>
+    </row>
+    <row r="356" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F356" s="266"/>
+    </row>
+    <row r="357" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F357" s="266"/>
+    </row>
+    <row r="358" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F358" s="266"/>
+    </row>
+    <row r="359" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F359" s="266"/>
+    </row>
+    <row r="360" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F360" s="266"/>
+    </row>
+    <row r="361" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F361" s="266"/>
+    </row>
+    <row r="362" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F362" s="266"/>
+    </row>
+    <row r="363" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F363" s="266"/>
+    </row>
+    <row r="364" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F364" s="266"/>
+    </row>
+    <row r="365" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F365" s="266"/>
+    </row>
+    <row r="366" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F366" s="266"/>
+    </row>
+    <row r="367" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F367" s="266"/>
+    </row>
+    <row r="368" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F368" s="266"/>
+    </row>
+    <row r="369" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F369" s="266"/>
+    </row>
+    <row r="370" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F370" s="266"/>
+    </row>
+    <row r="371" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F371" s="266"/>
+    </row>
+    <row r="372" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F372" s="266"/>
+    </row>
+    <row r="373" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F373" s="266"/>
+    </row>
+    <row r="374" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F374" s="266"/>
+    </row>
+    <row r="375" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F375" s="266"/>
+    </row>
+    <row r="376" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F376" s="266"/>
+    </row>
+    <row r="377" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F377" s="266"/>
+    </row>
+    <row r="378" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F378" s="266"/>
+    </row>
+    <row r="379" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F379" s="266"/>
+    </row>
+    <row r="380" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F380" s="266"/>
+    </row>
+    <row r="381" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F381" s="266"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13802,12 +16157,12 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="108" t="s">
         <v>43</v>
@@ -13815,25 +16170,25 @@
       <c r="C2" s="100"/>
       <c r="D2" s="106"/>
       <c r="E2" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="101" t="s">
+      <c r="G2" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="101" t="s">
+      <c r="H2" s="102" t="s">
         <v>93</v>
-      </c>
-      <c r="H2" s="102" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="96"/>
       <c r="C3" s="108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="106"/>
       <c r="E3" s="112">
@@ -13853,7 +16208,7 @@
       <c r="B4" s="98"/>
       <c r="C4" s="109"/>
       <c r="D4" s="107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="105" t="str">
         <f>DEC2BIN(E3,2)</f>
@@ -13970,7 +16325,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="110">
         <v>4</v>
@@ -13994,7 +16349,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="114" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="110">
         <v>5</v>
@@ -14042,7 +16397,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="115" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="109">
         <v>7</v>
@@ -14066,12 +16421,12 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="108" t="s">
         <v>43</v>
@@ -14079,25 +16434,25 @@
       <c r="C16" s="100"/>
       <c r="D16" s="106"/>
       <c r="E16" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="101" t="s">
+      <c r="G16" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="101" t="s">
+      <c r="H16" s="102" t="s">
         <v>93</v>
-      </c>
-      <c r="H16" s="102" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="96"/>
       <c r="C17" s="108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="106"/>
       <c r="E17" s="112">
@@ -14117,7 +16472,7 @@
       <c r="B18" s="98"/>
       <c r="C18" s="109"/>
       <c r="D18" s="107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E18" s="105" t="str">
         <f>DEC2BIN(E17,1)</f>
@@ -14234,7 +16589,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="110">
         <v>4</v>
@@ -14258,7 +16613,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="114" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" s="110">
         <v>5</v>
@@ -14306,7 +16661,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="115" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="109">
         <v>7</v>
@@ -14330,12 +16685,12 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="108" t="s">
         <v>43</v>
@@ -14343,21 +16698,21 @@
       <c r="C29" s="100"/>
       <c r="D29" s="106"/>
       <c r="E29" s="108" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="102" t="s">
         <v>101</v>
-      </c>
-      <c r="F29" s="102" t="s">
-        <v>102</v>
       </c>
       <c r="G29" s="128"/>
       <c r="H29" s="128"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B30" s="96"/>
       <c r="C30" s="108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="106"/>
       <c r="E30" s="116">
@@ -14373,7 +16728,7 @@
       <c r="B31" s="98"/>
       <c r="C31" s="109"/>
       <c r="D31" s="107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E31" s="129" t="str">
         <f>DEC2BIN(E30,1)</f>
@@ -14468,7 +16823,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" s="135" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" s="142">
         <v>4</v>
@@ -14488,7 +16843,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="135" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="142">
         <v>5</v>
@@ -14528,7 +16883,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" s="115" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="109">
         <v>7</v>
@@ -14548,7 +16903,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42" s="108" t="s">
         <v>43</v>
@@ -14556,19 +16911,19 @@
       <c r="C42" s="100"/>
       <c r="D42" s="106"/>
       <c r="E42" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F42" s="102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B43" s="96"/>
       <c r="C43" s="108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" s="106"/>
       <c r="E43" s="116">
@@ -14582,7 +16937,7 @@
       <c r="B44" s="98"/>
       <c r="C44" s="109"/>
       <c r="D44" s="107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E44" s="129" t="str">
         <f>DEC2BIN(E43,1)</f>
@@ -14605,16 +16960,16 @@
         <v>00</v>
       </c>
       <c r="E45" s="135" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="126">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>106</v>
+      </c>
+      <c r="J45" t="s">
         <v>107</v>
-      </c>
-      <c r="F45" s="126">
-        <v>1</v>
-      </c>
-      <c r="I45" t="s">
-        <v>107</v>
-      </c>
-      <c r="J45" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -14635,15 +16990,15 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" s="135" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47" s="142">
         <v>2</v>
@@ -14659,10 +17014,10 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -14683,10 +17038,10 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
+        <v>111</v>
+      </c>
+      <c r="J48" t="s">
         <v>112</v>
-      </c>
-      <c r="J48" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -14698,7 +17053,7 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="125" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C50" s="72" t="s">
         <v>14</v>

--- a/docs/arch.xlsx
+++ b/docs/arch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\ProjetsRecherche\Embedded\CAN\dev\caniot\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5C78FA-48A2-4AE6-83D9-8DBFE0848B0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633C9153-8273-4607-A810-FF08B9C724FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{3F2F15D1-277A-4EC5-A845-66E8BFF58C30}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{3F2F15D1-277A-4EC5-A845-66E8BFF58C30}"/>
   </bookViews>
   <sheets>
     <sheet name="frames-data-bits" sheetId="2" r:id="rId1"/>
@@ -13338,8 +13338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440C4F6B-A1C2-4D6C-BCC9-98B3358D661D}">
   <dimension ref="A1:V381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/arch.xlsx
+++ b/docs/arch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\ProjetsRecherche\Embedded\CAN\dev\caniot\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633C9153-8273-4607-A810-FF08B9C724FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECBD3BE-C8AE-4BAE-A4E2-E4384B3FB08A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{3F2F15D1-277A-4EC5-A845-66E8BFF58C30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3F2F15D1-277A-4EC5-A845-66E8BFF58C30}"/>
   </bookViews>
   <sheets>
     <sheet name="frames-data-bits" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="352">
   <si>
     <t>temperature</t>
   </si>
@@ -831,15 +831,9 @@
     <t>CR</t>
   </si>
   <si>
-    <t>GarageDoorController</t>
-  </si>
-  <si>
     <t>Device used</t>
   </si>
   <si>
-    <t>OutdoorSensor1</t>
-  </si>
-  <si>
     <t>SCHEDULE</t>
   </si>
   <si>
@@ -1081,13 +1075,34 @@
   </si>
   <si>
     <t>calculated_abstime</t>
+  </si>
+  <si>
+    <t>events.total</t>
+  </si>
+  <si>
+    <t>last_event_error</t>
+  </si>
+  <si>
+    <t>GarageDoorControllerDev</t>
+  </si>
+  <si>
+    <t>GarageDoorControllerProd</t>
+  </si>
+  <si>
+    <t>GarageDoorControllerProdPCB</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>TempSensDev</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1190,6 +1205,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1602,7 +1626,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2300,6 +2324,11 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2800,7 +2829,7 @@
   <dimension ref="B1:AH59"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13:U13"/>
+      <selection activeCell="W53" sqref="W53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3145,28 +3174,28 @@
         <v>81</v>
       </c>
       <c r="N13" s="167" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O13" s="167" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P13" s="167" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Q13" s="167" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="R13" s="167" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="S13" s="167" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="T13" s="167" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="U13" s="167" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="V13" s="25" t="s">
         <v>45</v>
@@ -3958,7 +3987,7 @@
         <v>153</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -4524,7 +4553,7 @@
         <v>152</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
@@ -4537,7 +4566,7 @@
       <c r="L40" s="48"/>
       <c r="M40" s="48"/>
       <c r="T40" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="2:34" x14ac:dyDescent="0.2">
@@ -4567,7 +4596,7 @@
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F42" s="19" t="s">
         <v>144</v>
@@ -5090,7 +5119,7 @@
     </row>
     <row r="52" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>15</v>
@@ -5215,16 +5244,16 @@
     </row>
     <row r="55" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C55" s="268" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D55" s="268" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E55" s="268" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F55" s="268" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G55" s="269" t="s">
         <v>252</v>
@@ -5251,24 +5280,24 @@
         <v>252</v>
       </c>
       <c r="O55" s="270" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P55" s="270" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Q55" s="270" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="R55" s="270" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C57" s="268" t="s">
+        <v>317</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="58" spans="2:34" x14ac:dyDescent="0.2">
@@ -5276,15 +5305,15 @@
         <v>252</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C59" s="270" t="s">
+        <v>318</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -5299,8 +5328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D135A44-A127-4252-B653-8392D6AD3A28}">
   <dimension ref="A2:BO45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6655,23 +6684,23 @@
       <c r="S12" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="T12" s="187" t="s">
-        <v>250</v>
-      </c>
-      <c r="U12" s="188" t="s">
-        <v>250</v>
-      </c>
-      <c r="V12" s="188" t="s">
-        <v>250</v>
-      </c>
-      <c r="W12" s="188" t="s">
-        <v>250</v>
-      </c>
-      <c r="X12" s="188" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y12" s="188" t="s">
-        <v>250</v>
+      <c r="T12" s="184" t="s">
+        <v>46</v>
+      </c>
+      <c r="U12" s="185" t="s">
+        <v>46</v>
+      </c>
+      <c r="V12" s="185" t="s">
+        <v>46</v>
+      </c>
+      <c r="W12" s="185" t="s">
+        <v>46</v>
+      </c>
+      <c r="X12" s="185" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y12" s="185" t="s">
+        <v>46</v>
       </c>
       <c r="Z12" s="188" t="s">
         <v>250</v>
@@ -6685,23 +6714,23 @@
       <c r="AC12" s="188" t="s">
         <v>250</v>
       </c>
-      <c r="AD12" s="185" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE12" s="185" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF12" s="185" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG12" s="185" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH12" s="185" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI12" s="186" t="s">
-        <v>46</v>
+      <c r="AD12" s="188" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE12" s="188" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF12" s="188" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG12" s="188" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH12" s="188" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI12" s="238" t="s">
+        <v>250</v>
       </c>
       <c r="AJ12" s="184" t="s">
         <v>46</v>
@@ -9492,10 +9521,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36880ADF-04C9-4A12-8EFC-224812D037A0}">
-  <dimension ref="A3:K93"/>
+  <dimension ref="A3:M93"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9505,7 +9534,9 @@
     <col min="6" max="6" width="5.140625" style="67" customWidth="1"/>
     <col min="8" max="8" width="18" style="90" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="66"/>
-    <col min="11" max="11" width="21.140625" style="67" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" style="67" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -9565,7 +9596,7 @@
         <v>8</v>
       </c>
       <c r="K4" s="256" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -9729,7 +9760,7 @@
         <v>45</v>
       </c>
       <c r="K11" s="256" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -9820,7 +9851,7 @@
       <c r="I16" s="63"/>
       <c r="K16" s="63"/>
     </row>
-    <row r="17" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
         <v>54</v>
       </c>
@@ -9848,7 +9879,7 @@
       <c r="I17" s="65"/>
       <c r="K17" s="256"/>
     </row>
-    <row r="18" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
         <v>56</v>
       </c>
@@ -9878,7 +9909,7 @@
       <c r="I18" s="65"/>
       <c r="K18" s="256"/>
     </row>
-    <row r="19" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55" t="s">
         <v>59</v>
       </c>
@@ -9906,7 +9937,7 @@
       <c r="I19" s="65"/>
       <c r="K19" s="256"/>
     </row>
-    <row r="20" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="50"/>
       <c r="C20" s="50"/>
       <c r="D20" s="82">
@@ -9929,7 +9960,7 @@
       <c r="I20" s="65"/>
       <c r="K20" s="256"/>
     </row>
-    <row r="23" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>55</v>
       </c>
@@ -9956,10 +9987,16 @@
         <v>248</v>
       </c>
       <c r="K23" s="257" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="L23" s="278" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="279" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
         <v>54</v>
       </c>
@@ -9986,8 +10023,14 @@
       </c>
       <c r="I24" s="65"/>
       <c r="K24" s="258"/>
-    </row>
-    <row r="25" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="35">
+        <v>0</v>
+      </c>
+      <c r="M24" s="280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
         <v>56</v>
       </c>
@@ -10018,8 +10061,14 @@
         <v>256</v>
       </c>
       <c r="K25" s="258"/>
-    </row>
-    <row r="26" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="35">
+        <v>0</v>
+      </c>
+      <c r="M25" s="280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55" t="s">
         <v>59</v>
       </c>
@@ -10046,8 +10095,14 @@
         <v>256</v>
       </c>
       <c r="K26" s="258"/>
-    </row>
-    <row r="27" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="35">
+        <v>0</v>
+      </c>
+      <c r="M26" s="280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="50"/>
       <c r="C27" s="50"/>
       <c r="D27" s="77">
@@ -10069,8 +10124,14 @@
         <v>256</v>
       </c>
       <c r="K27" s="258"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="35">
+        <v>0</v>
+      </c>
+      <c r="M27" s="280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D28" s="77">
         <v>4</v>
       </c>
@@ -10090,8 +10151,14 @@
         <v>256</v>
       </c>
       <c r="K28" s="259"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="35">
+        <v>0</v>
+      </c>
+      <c r="M28" s="280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D29" s="77">
         <v>5</v>
       </c>
@@ -10111,8 +10178,14 @@
         <v>256</v>
       </c>
       <c r="K29" s="259"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="35">
+        <v>0</v>
+      </c>
+      <c r="M29" s="280">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D30" s="77">
         <v>6</v>
       </c>
@@ -10132,8 +10205,14 @@
         <v>256</v>
       </c>
       <c r="K30" s="259"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="35">
+        <v>0</v>
+      </c>
+      <c r="M30" s="280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D31" s="77">
         <v>7</v>
       </c>
@@ -10153,8 +10232,14 @@
         <v>256</v>
       </c>
       <c r="K31" s="259"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="35">
+        <v>0</v>
+      </c>
+      <c r="M31" s="280">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D32" s="77">
         <v>8</v>
       </c>
@@ -10173,11 +10258,15 @@
       <c r="I32" s="249" t="s">
         <v>262</v>
       </c>
-      <c r="K32" s="259" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="259"/>
+      <c r="L32" s="277">
+        <v>1</v>
+      </c>
+      <c r="M32" s="280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D33" s="77">
         <v>9</v>
       </c>
@@ -10197,8 +10286,14 @@
         <v>262</v>
       </c>
       <c r="K33" s="259"/>
-    </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="277">
+        <v>1</v>
+      </c>
+      <c r="M33" s="280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D34" s="77">
         <v>10</v>
       </c>
@@ -10218,8 +10313,14 @@
         <v>262</v>
       </c>
       <c r="K34" s="259"/>
-    </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="277">
+        <v>1</v>
+      </c>
+      <c r="M34" s="280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D35" s="77">
         <v>11</v>
       </c>
@@ -10239,8 +10340,14 @@
         <v>262</v>
       </c>
       <c r="K35" s="259"/>
-    </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="277">
+        <v>1</v>
+      </c>
+      <c r="M35" s="280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D36" s="77">
         <v>12</v>
       </c>
@@ -10260,8 +10367,14 @@
         <v>262</v>
       </c>
       <c r="K36" s="259"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="277">
+        <v>1</v>
+      </c>
+      <c r="M36" s="280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D37" s="77">
         <v>13</v>
       </c>
@@ -10281,8 +10394,14 @@
         <v>262</v>
       </c>
       <c r="K37" s="259"/>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="277">
+        <v>1</v>
+      </c>
+      <c r="M37" s="280">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D38" s="77">
         <v>14</v>
       </c>
@@ -10302,8 +10421,14 @@
         <v>262</v>
       </c>
       <c r="K38" s="259"/>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="277">
+        <v>1</v>
+      </c>
+      <c r="M38" s="280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D39" s="77">
         <v>15</v>
       </c>
@@ -10323,8 +10448,14 @@
         <v>262</v>
       </c>
       <c r="K39" s="259"/>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="277">
+        <v>1</v>
+      </c>
+      <c r="M39" s="280">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D40" s="77">
         <v>16</v>
       </c>
@@ -10343,8 +10474,14 @@
         <v>257</v>
       </c>
       <c r="K40" s="259"/>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="277">
+        <v>2</v>
+      </c>
+      <c r="M40" s="280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D41" s="77">
         <v>17</v>
       </c>
@@ -10363,8 +10500,14 @@
         <v>257</v>
       </c>
       <c r="K41" s="259"/>
-    </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="277">
+        <v>2</v>
+      </c>
+      <c r="M41" s="280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D42" s="77">
         <v>18</v>
       </c>
@@ -10383,8 +10526,14 @@
         <v>257</v>
       </c>
       <c r="K42" s="259"/>
-    </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="277">
+        <v>2</v>
+      </c>
+      <c r="M42" s="280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D43" s="77">
         <v>19</v>
       </c>
@@ -10403,8 +10552,14 @@
         <v>257</v>
       </c>
       <c r="K43" s="259"/>
-    </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="277">
+        <v>2</v>
+      </c>
+      <c r="M43" s="280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" s="77">
         <v>20</v>
       </c>
@@ -10423,8 +10578,14 @@
         <v>257</v>
       </c>
       <c r="K44" s="259"/>
-    </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="277">
+        <v>2</v>
+      </c>
+      <c r="M44" s="280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D45" s="77">
         <v>21</v>
       </c>
@@ -10443,8 +10604,14 @@
         <v>257</v>
       </c>
       <c r="K45" s="259"/>
-    </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="277">
+        <v>2</v>
+      </c>
+      <c r="M45" s="280">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D46" s="77">
         <v>22</v>
       </c>
@@ -10463,8 +10630,14 @@
         <v>257</v>
       </c>
       <c r="K46" s="259"/>
-    </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="277">
+        <v>2</v>
+      </c>
+      <c r="M46" s="280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D47" s="77">
         <v>23</v>
       </c>
@@ -10483,8 +10656,14 @@
         <v>257</v>
       </c>
       <c r="K47" s="259"/>
-    </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="277">
+        <v>2</v>
+      </c>
+      <c r="M47" s="280">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D48" s="77">
         <v>24</v>
       </c>
@@ -10503,10 +10682,16 @@
         <v>258</v>
       </c>
       <c r="K48" s="259" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="L48" s="277">
+        <v>3</v>
+      </c>
+      <c r="M48" s="280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D49" s="77">
         <v>25</v>
       </c>
@@ -10524,9 +10709,17 @@
       <c r="I49" s="249" t="s">
         <v>258</v>
       </c>
-      <c r="K49" s="259"/>
-    </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="259" t="s">
+        <v>348</v>
+      </c>
+      <c r="L49" s="277">
+        <v>3</v>
+      </c>
+      <c r="M49" s="280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D50" s="77">
         <v>26</v>
       </c>
@@ -10544,9 +10737,17 @@
       <c r="I50" s="249" t="s">
         <v>258</v>
       </c>
-      <c r="K50" s="259"/>
-    </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="259" t="s">
+        <v>351</v>
+      </c>
+      <c r="L50" s="277">
+        <v>3</v>
+      </c>
+      <c r="M50" s="280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D51" s="77">
         <v>27</v>
       </c>
@@ -10565,8 +10766,14 @@
         <v>258</v>
       </c>
       <c r="K51" s="259"/>
-    </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="277">
+        <v>3</v>
+      </c>
+      <c r="M51" s="280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D52" s="77">
         <v>28</v>
       </c>
@@ -10585,8 +10792,14 @@
         <v>258</v>
       </c>
       <c r="K52" s="259"/>
-    </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="277">
+        <v>3</v>
+      </c>
+      <c r="M52" s="280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D53" s="77">
         <v>29</v>
       </c>
@@ -10605,8 +10818,14 @@
         <v>258</v>
       </c>
       <c r="K53" s="259"/>
-    </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="277">
+        <v>3</v>
+      </c>
+      <c r="M53" s="280">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D54" s="77">
         <v>30</v>
       </c>
@@ -10625,8 +10844,14 @@
         <v>258</v>
       </c>
       <c r="K54" s="259"/>
-    </row>
-    <row r="55" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="277">
+        <v>3</v>
+      </c>
+      <c r="M54" s="280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D55" s="77">
         <v>31</v>
       </c>
@@ -10645,8 +10870,14 @@
         <v>258</v>
       </c>
       <c r="K55" s="259"/>
-    </row>
-    <row r="56" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L55" s="277">
+        <v>3</v>
+      </c>
+      <c r="M55" s="280">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D56" s="77">
         <v>32</v>
       </c>
@@ -10665,8 +10896,14 @@
         <v>259</v>
       </c>
       <c r="K56" s="259"/>
-    </row>
-    <row r="57" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L56" s="277">
+        <v>4</v>
+      </c>
+      <c r="M56" s="280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D57" s="77">
         <v>33</v>
       </c>
@@ -10685,8 +10922,14 @@
         <v>259</v>
       </c>
       <c r="K57" s="259"/>
-    </row>
-    <row r="58" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L57" s="277">
+        <v>4</v>
+      </c>
+      <c r="M57" s="280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D58" s="77">
         <v>34</v>
       </c>
@@ -10705,8 +10948,14 @@
         <v>259</v>
       </c>
       <c r="K58" s="259"/>
-    </row>
-    <row r="59" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L58" s="277">
+        <v>4</v>
+      </c>
+      <c r="M58" s="280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D59" s="77">
         <v>35</v>
       </c>
@@ -10725,8 +10974,14 @@
         <v>259</v>
       </c>
       <c r="K59" s="259"/>
-    </row>
-    <row r="60" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L59" s="277">
+        <v>4</v>
+      </c>
+      <c r="M59" s="280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D60" s="77">
         <v>36</v>
       </c>
@@ -10745,8 +11000,14 @@
         <v>259</v>
       </c>
       <c r="K60" s="259"/>
-    </row>
-    <row r="61" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L60" s="277">
+        <v>4</v>
+      </c>
+      <c r="M60" s="280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D61" s="77">
         <v>37</v>
       </c>
@@ -10765,8 +11026,14 @@
         <v>259</v>
       </c>
       <c r="K61" s="259"/>
-    </row>
-    <row r="62" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L61" s="277">
+        <v>4</v>
+      </c>
+      <c r="M61" s="280">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D62" s="77">
         <v>38</v>
       </c>
@@ -10785,8 +11052,14 @@
         <v>259</v>
       </c>
       <c r="K62" s="259"/>
-    </row>
-    <row r="63" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="277">
+        <v>4</v>
+      </c>
+      <c r="M62" s="280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D63" s="77">
         <v>39</v>
       </c>
@@ -10805,8 +11078,14 @@
         <v>259</v>
       </c>
       <c r="K63" s="259"/>
-    </row>
-    <row r="64" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="277">
+        <v>4</v>
+      </c>
+      <c r="M63" s="280">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D64" s="77">
         <v>40</v>
       </c>
@@ -10824,9 +11103,17 @@
       <c r="I64" s="249" t="s">
         <v>260</v>
       </c>
-      <c r="K64" s="259"/>
-    </row>
-    <row r="65" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="258" t="s">
+        <v>349</v>
+      </c>
+      <c r="L64" s="277">
+        <v>5</v>
+      </c>
+      <c r="M64" s="280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D65" s="77">
         <v>41</v>
       </c>
@@ -10845,8 +11132,14 @@
         <v>260</v>
       </c>
       <c r="K65" s="259"/>
-    </row>
-    <row r="66" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L65" s="277">
+        <v>5</v>
+      </c>
+      <c r="M65" s="280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D66" s="77">
         <v>42</v>
       </c>
@@ -10865,8 +11158,14 @@
         <v>260</v>
       </c>
       <c r="K66" s="259"/>
-    </row>
-    <row r="67" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="277">
+        <v>5</v>
+      </c>
+      <c r="M66" s="280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D67" s="77">
         <v>43</v>
       </c>
@@ -10885,8 +11184,14 @@
         <v>260</v>
       </c>
       <c r="K67" s="259"/>
-    </row>
-    <row r="68" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="277">
+        <v>5</v>
+      </c>
+      <c r="M67" s="280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D68" s="77">
         <v>44</v>
       </c>
@@ -10905,8 +11210,14 @@
         <v>260</v>
       </c>
       <c r="K68" s="259"/>
-    </row>
-    <row r="69" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="277">
+        <v>5</v>
+      </c>
+      <c r="M68" s="280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D69" s="77">
         <v>45</v>
       </c>
@@ -10925,8 +11236,14 @@
         <v>260</v>
       </c>
       <c r="K69" s="259"/>
-    </row>
-    <row r="70" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L69" s="277">
+        <v>5</v>
+      </c>
+      <c r="M69" s="280">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D70" s="77">
         <v>46</v>
       </c>
@@ -10945,8 +11262,14 @@
         <v>260</v>
       </c>
       <c r="K70" s="259"/>
-    </row>
-    <row r="71" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L70" s="277">
+        <v>5</v>
+      </c>
+      <c r="M70" s="280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D71" s="77">
         <v>47</v>
       </c>
@@ -10965,8 +11288,14 @@
         <v>260</v>
       </c>
       <c r="K71" s="259"/>
-    </row>
-    <row r="72" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L71" s="277">
+        <v>5</v>
+      </c>
+      <c r="M71" s="280">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D72" s="77">
         <v>48</v>
       </c>
@@ -10985,8 +11314,14 @@
         <v>261</v>
       </c>
       <c r="K72" s="259"/>
-    </row>
-    <row r="73" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L72" s="277">
+        <v>6</v>
+      </c>
+      <c r="M72" s="280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D73" s="77">
         <v>49</v>
       </c>
@@ -11005,8 +11340,14 @@
         <v>261</v>
       </c>
       <c r="K73" s="259"/>
-    </row>
-    <row r="74" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L73" s="277">
+        <v>6</v>
+      </c>
+      <c r="M73" s="280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D74" s="77">
         <v>50</v>
       </c>
@@ -11025,8 +11366,14 @@
         <v>261</v>
       </c>
       <c r="K74" s="259"/>
-    </row>
-    <row r="75" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L74" s="277">
+        <v>6</v>
+      </c>
+      <c r="M74" s="280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D75" s="77">
         <v>51</v>
       </c>
@@ -11045,8 +11392,14 @@
         <v>261</v>
       </c>
       <c r="K75" s="259"/>
-    </row>
-    <row r="76" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L75" s="277">
+        <v>6</v>
+      </c>
+      <c r="M75" s="280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D76" s="77">
         <v>52</v>
       </c>
@@ -11065,8 +11418,14 @@
         <v>261</v>
       </c>
       <c r="K76" s="259"/>
-    </row>
-    <row r="77" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L76" s="277">
+        <v>6</v>
+      </c>
+      <c r="M76" s="280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D77" s="77">
         <v>53</v>
       </c>
@@ -11085,8 +11444,14 @@
         <v>261</v>
       </c>
       <c r="K77" s="259"/>
-    </row>
-    <row r="78" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L77" s="277">
+        <v>6</v>
+      </c>
+      <c r="M77" s="280">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D78" s="77">
         <v>54</v>
       </c>
@@ -11105,8 +11470,14 @@
         <v>261</v>
       </c>
       <c r="K78" s="259"/>
-    </row>
-    <row r="79" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L78" s="277">
+        <v>6</v>
+      </c>
+      <c r="M78" s="280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D79" s="77">
         <v>55</v>
       </c>
@@ -11125,8 +11496,14 @@
         <v>261</v>
       </c>
       <c r="K79" s="259"/>
-    </row>
-    <row r="80" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L79" s="277">
+        <v>6</v>
+      </c>
+      <c r="M79" s="280">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D80" s="77">
         <v>56</v>
       </c>
@@ -11145,8 +11522,14 @@
         <v>46</v>
       </c>
       <c r="K80" s="259"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80" s="277">
+        <v>7</v>
+      </c>
+      <c r="M80" s="280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D81" s="77">
         <v>57</v>
       </c>
@@ -11165,8 +11548,14 @@
         <v>46</v>
       </c>
       <c r="K81" s="259"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81" s="277">
+        <v>7</v>
+      </c>
+      <c r="M81" s="280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D82" s="77">
         <v>58</v>
       </c>
@@ -11185,8 +11574,14 @@
         <v>46</v>
       </c>
       <c r="K82" s="259"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82" s="277">
+        <v>7</v>
+      </c>
+      <c r="M82" s="280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D83" s="77">
         <v>59</v>
       </c>
@@ -11205,8 +11600,14 @@
         <v>46</v>
       </c>
       <c r="K83" s="259"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" s="277">
+        <v>7</v>
+      </c>
+      <c r="M83" s="280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D84" s="77">
         <v>60</v>
       </c>
@@ -11225,8 +11626,14 @@
         <v>46</v>
       </c>
       <c r="K84" s="259"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84" s="277">
+        <v>7</v>
+      </c>
+      <c r="M84" s="280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D85" s="77">
         <v>61</v>
       </c>
@@ -11245,8 +11652,14 @@
         <v>46</v>
       </c>
       <c r="K85" s="259"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85" s="277">
+        <v>7</v>
+      </c>
+      <c r="M85" s="280">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D86" s="77">
         <v>62</v>
       </c>
@@ -11268,8 +11681,14 @@
         <v>46</v>
       </c>
       <c r="K86" s="259"/>
-    </row>
-    <row r="87" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L86" s="277">
+        <v>7</v>
+      </c>
+      <c r="M86" s="280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D87" s="253">
         <v>63</v>
       </c>
@@ -11289,13 +11708,19 @@
       </c>
       <c r="I87" s="252"/>
       <c r="K87" s="260"/>
-    </row>
-    <row r="89" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L87" s="56">
+        <v>7</v>
+      </c>
+      <c r="M87" s="281">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="33" t="s">
         <v>55</v>
       </c>
       <c r="B89" s="59" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C89" s="60"/>
       <c r="D89" s="63" t="s">
@@ -11318,12 +11743,12 @@
       </c>
       <c r="K89" s="63"/>
     </row>
-    <row r="90" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="54" t="s">
         <v>54</v>
       </c>
       <c r="B90" s="271" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C90" s="52"/>
       <c r="D90" s="272">
@@ -11342,7 +11767,7 @@
       <c r="I90" s="65"/>
       <c r="K90" s="256"/>
     </row>
-    <row r="91" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="54" t="s">
         <v>56</v>
       </c>
@@ -11368,7 +11793,7 @@
       <c r="I91" s="65"/>
       <c r="K91" s="256"/>
     </row>
-    <row r="92" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="55" t="s">
         <v>59</v>
       </c>
@@ -11391,15 +11816,15 @@
       <c r="I92" s="65"/>
       <c r="K92" s="256"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D93" s="67" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E93" s="67" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F93" s="67" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -11693,28 +12118,28 @@
         <v>81</v>
       </c>
       <c r="O8" s="25" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Q8" s="25" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="R8" s="25" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="S8" s="25" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="T8" s="25" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="U8" s="25" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="V8" s="25" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="W8" s="25" t="s">
         <v>45</v>
@@ -12618,7 +13043,7 @@
       <c r="S4" s="94"/>
       <c r="T4" s="95"/>
       <c r="V4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -12673,12 +13098,12 @@
         <v>126</v>
       </c>
       <c r="V5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="V6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -13217,7 +13642,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="212" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C16" s="96">
         <v>0</v>
@@ -13256,7 +13681,7 @@
         <v>104</v>
       </c>
       <c r="P16" s="262" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q16" s="262" t="s">
         <v>115</v>
@@ -13336,10 +13761,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440C4F6B-A1C2-4D6C-BCC9-98B3358D661D}">
-  <dimension ref="A1:V381"/>
+  <dimension ref="A1:V383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13376,7 +13801,7 @@
         <v>157</v>
       </c>
       <c r="G1" s="63" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>161</v>
@@ -13406,7 +13831,7 @@
         <v>173</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="218" customFormat="1" x14ac:dyDescent="0.25">
@@ -13414,7 +13839,7 @@
         <v>160</v>
       </c>
       <c r="C2" s="218" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D2" s="218">
         <v>0</v>
@@ -13426,13 +13851,13 @@
         <v>35</v>
       </c>
       <c r="K2" s="263" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L2" s="263" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M2" s="263" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N2" s="263" t="s">
         <v>88</v>
@@ -13541,7 +13966,7 @@
         <v>0020</v>
       </c>
       <c r="F5" s="266" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G5" s="34">
         <v>32</v>
@@ -13573,7 +13998,7 @@
         <v>0021</v>
       </c>
       <c r="F6" s="266" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
@@ -13589,7 +14014,7 @@
         <v>0022</v>
       </c>
       <c r="F7" s="266" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
@@ -13605,7 +14030,7 @@
         <v>0023</v>
       </c>
       <c r="F8" s="266" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
@@ -13621,7 +14046,7 @@
         <v>0024</v>
       </c>
       <c r="F9" s="266" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
@@ -13637,7 +14062,7 @@
         <v>0025</v>
       </c>
       <c r="F10" s="266" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
@@ -13653,7 +14078,7 @@
         <v>0026</v>
       </c>
       <c r="F11" s="266" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
@@ -13669,7 +14094,7 @@
         <v>0027</v>
       </c>
       <c r="F12" s="266" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
@@ -13704,7 +14129,7 @@
         <v>159</v>
       </c>
       <c r="C15" s="218" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D15" s="218">
         <v>1</v>
@@ -13712,8 +14137,8 @@
       <c r="E15" s="220"/>
       <c r="F15" s="265"/>
       <c r="G15" s="218">
-        <f>SUM(G16:G34)</f>
-        <v>59</v>
+        <f>SUM(G16:G36)</f>
+        <v>65</v>
       </c>
       <c r="K15" s="263"/>
       <c r="L15" s="263"/>
@@ -13765,17 +14190,17 @@
         <v>1</v>
       </c>
       <c r="E17" s="221" t="str">
-        <f t="shared" ref="E17:E33" si="2">DEC2HEX(_xlfn.BITLSHIFT(D17,4) + _xlfn.BITLSHIFT(D$15,12),4)</f>
+        <f t="shared" ref="E17:E35" si="2">DEC2HEX(_xlfn.BITLSHIFT(D17,4) + _xlfn.BITLSHIFT(D$15,12),4)</f>
         <v>1010</v>
       </c>
       <c r="F17" s="266" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G17" s="34">
         <v>4</v>
       </c>
       <c r="H17" s="34">
-        <f t="shared" ref="H17:H32" si="3">ROUNDUP(G17/4,0)</f>
+        <f t="shared" ref="H17:H34" si="3">ROUNDUP(G17/4,0)</f>
         <v>1</v>
       </c>
       <c r="I17" t="s">
@@ -13807,7 +14232,7 @@
         <v>1020</v>
       </c>
       <c r="F18" s="266" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G18" s="34">
         <v>4</v>
@@ -13829,7 +14254,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="267" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="4:22" x14ac:dyDescent="0.25">
@@ -13841,7 +14266,7 @@
         <v>1030</v>
       </c>
       <c r="F19" s="266" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G19" s="34">
         <v>4</v>
@@ -13864,7 +14289,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="267" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O19" s="264"/>
     </row>
@@ -13877,7 +14302,7 @@
         <v>1040</v>
       </c>
       <c r="F20" s="266" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G20" s="34">
         <v>4</v>
@@ -13912,7 +14337,7 @@
         <v>1050</v>
       </c>
       <c r="F21" s="266" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G21" s="34">
         <v>4</v>
@@ -13947,7 +14372,7 @@
         <v>1060</v>
       </c>
       <c r="F22" s="266" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G22" s="34">
         <v>4</v>
@@ -13982,7 +14407,7 @@
         <v>1070</v>
       </c>
       <c r="F23" s="266" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G23" s="34">
         <v>4</v>
@@ -14017,7 +14442,7 @@
         <v>1080</v>
       </c>
       <c r="F24" s="266" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G24" s="34">
         <v>4</v>
@@ -14052,7 +14477,7 @@
         <v>1090</v>
       </c>
       <c r="F25" s="266" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G25" s="34">
         <v>4</v>
@@ -14087,7 +14512,7 @@
         <v>10A0</v>
       </c>
       <c r="F26" s="266" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G26" s="34">
         <v>4</v>
@@ -14122,7 +14547,7 @@
         <v>10B0</v>
       </c>
       <c r="F27" s="266" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G27" s="34">
         <v>4</v>
@@ -14157,7 +14582,7 @@
         <v>10C0</v>
       </c>
       <c r="F28" s="266" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G28" s="34">
         <v>4</v>
@@ -14195,7 +14620,7 @@
         <v>246</v>
       </c>
       <c r="V28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="4:22" x14ac:dyDescent="0.25">
@@ -14207,7 +14632,7 @@
         <v>10D0</v>
       </c>
       <c r="F29" s="266" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G29" s="34">
         <v>4</v>
@@ -14242,17 +14667,17 @@
         <v>10E0</v>
       </c>
       <c r="F30" s="266" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="G30" s="34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H30" s="34">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="66">
@@ -14277,7 +14702,7 @@
         <v>10F0</v>
       </c>
       <c r="F31" s="266" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G31" s="34">
         <v>1</v>
@@ -14312,7 +14737,7 @@
         <v>1100</v>
       </c>
       <c r="F32" s="266" t="s">
-        <v>177</v>
+        <v>332</v>
       </c>
       <c r="G32" s="34">
         <v>1</v>
@@ -14346,154 +14771,204 @@
         <f t="shared" si="2"/>
         <v>1110</v>
       </c>
-      <c r="F33" s="266"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
+      <c r="F33" s="266" t="s">
+        <v>346</v>
+      </c>
+      <c r="G33" s="34">
+        <v>2</v>
+      </c>
+      <c r="H33" s="34">
+        <f t="shared" ref="H33" si="4">ROUNDUP(G33/4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>178</v>
+      </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="65"/>
+      <c r="K33" s="66">
+        <v>1</v>
+      </c>
+      <c r="L33" s="66">
+        <v>0</v>
+      </c>
+      <c r="M33" s="66">
+        <v>0</v>
+      </c>
+      <c r="N33" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F34" s="266"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="D34">
+        <v>18</v>
+      </c>
+      <c r="E34" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>1120</v>
+      </c>
+      <c r="F34" s="266" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="34">
+        <v>1</v>
+      </c>
+      <c r="H34" s="34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>178</v>
+      </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="65"/>
+      <c r="K34" s="66">
+        <v>1</v>
+      </c>
+      <c r="L34" s="66">
+        <v>0</v>
+      </c>
+      <c r="M34" s="66">
+        <v>0</v>
+      </c>
+      <c r="N34" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>19</v>
+      </c>
+      <c r="E35" s="221" t="str">
+        <f t="shared" si="2"/>
+        <v>1130</v>
+      </c>
       <c r="F35" s="266"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
       <c r="J35" s="1"/>
       <c r="K35" s="66"/>
       <c r="L35" s="66"/>
       <c r="M35" s="66"/>
       <c r="N35" s="65"/>
     </row>
-    <row r="36" spans="1:21" s="218" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="217" t="s">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F36" s="266"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="65"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F37" s="266"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="65"/>
+    </row>
+    <row r="38" spans="1:21" s="218" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="217" t="s">
+        <v>277</v>
+      </c>
+      <c r="C38" s="218" t="s">
+        <v>275</v>
+      </c>
+      <c r="D38" s="218">
+        <v>2</v>
+      </c>
+      <c r="E38" s="220"/>
+      <c r="F38" s="265"/>
+      <c r="G38" s="218">
+        <f>SUM(G39:G44)</f>
+        <v>8</v>
+      </c>
+      <c r="K38" s="263"/>
+      <c r="L38" s="263"/>
+      <c r="M38" s="263"/>
+      <c r="N38" s="263"/>
+      <c r="O38" s="263"/>
+      <c r="P38" s="276"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" s="221" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(D39,4) + _xlfn.BITLSHIFT(D$38,12),4)</f>
+        <v>2000</v>
+      </c>
+      <c r="F39" s="266" t="s">
+        <v>265</v>
+      </c>
+      <c r="G39" s="34">
+        <v>4</v>
+      </c>
+      <c r="H39" s="34">
+        <f>ROUNDUP(G39/4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>175</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="66">
+        <v>0</v>
+      </c>
+      <c r="L39" s="66">
+        <v>1</v>
+      </c>
+      <c r="M39" s="66">
+        <v>0</v>
+      </c>
+      <c r="N39" s="65">
+        <v>1</v>
+      </c>
+      <c r="R39" t="s">
+        <v>278</v>
+      </c>
+      <c r="S39" t="s">
         <v>279</v>
       </c>
-      <c r="C36" s="218" t="s">
-        <v>277</v>
-      </c>
-      <c r="D36" s="218">
-        <v>2</v>
-      </c>
-      <c r="E36" s="220"/>
-      <c r="F36" s="265"/>
-      <c r="G36" s="218">
-        <f>SUM(G37:G42)</f>
-        <v>8</v>
-      </c>
-      <c r="K36" s="263"/>
-      <c r="L36" s="263"/>
-      <c r="M36" s="263"/>
-      <c r="N36" s="263"/>
-      <c r="O36" s="263"/>
-      <c r="P36" s="276"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" s="221" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(D37,4) + _xlfn.BITLSHIFT(D$36,12),4)</f>
-        <v>2000</v>
-      </c>
-      <c r="F37" s="266" t="s">
-        <v>267</v>
-      </c>
-      <c r="G37" s="34">
+      <c r="T39">
+        <v>10</v>
+      </c>
+      <c r="U39" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="221" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(D40,4) + _xlfn.BITLSHIFT(D$38,12),4)</f>
+        <v>2010</v>
+      </c>
+      <c r="F40" s="266" t="s">
+        <v>342</v>
+      </c>
+      <c r="G40" s="34">
         <v>4</v>
       </c>
-      <c r="H37" s="34">
-        <f>ROUNDUP(G37/4,0)</f>
-        <v>1</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="H40" s="34">
+        <f>ROUNDUP(G40/4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
         <v>175</v>
       </c>
-      <c r="J37" s="1"/>
-      <c r="K37" s="66">
-        <v>0</v>
-      </c>
-      <c r="L37" s="66">
-        <v>1</v>
-      </c>
-      <c r="M37" s="66">
-        <v>0</v>
-      </c>
-      <c r="N37" s="65">
-        <v>1</v>
-      </c>
-      <c r="R37" t="s">
-        <v>280</v>
-      </c>
-      <c r="S37" t="s">
-        <v>281</v>
-      </c>
-      <c r="T37">
-        <v>10</v>
-      </c>
-      <c r="U37" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" s="221" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(D38,4) + _xlfn.BITLSHIFT(D$36,12),4)</f>
-        <v>2010</v>
-      </c>
-      <c r="F38" s="266" t="s">
-        <v>344</v>
-      </c>
-      <c r="G38" s="34">
-        <v>4</v>
-      </c>
-      <c r="H38" s="34">
-        <f>ROUNDUP(G38/4,0)</f>
-        <v>1</v>
-      </c>
-      <c r="I38" t="s">
-        <v>175</v>
-      </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="65"/>
-      <c r="P38" s="274" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F39" s="266"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="66"/>
-      <c r="N39" s="65"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F40" s="266"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="66"/>
       <c r="L40" s="66"/>
       <c r="M40" s="66"/>
       <c r="N40" s="65"/>
+      <c r="P40" s="274" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F41" s="266"/>
@@ -14525,146 +15000,74 @@
       <c r="M43" s="66"/>
       <c r="N43" s="65"/>
     </row>
-    <row r="44" spans="1:21" s="218" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="217" t="s">
-        <v>279</v>
-      </c>
-      <c r="B44" s="218" t="s">
-        <v>266</v>
-      </c>
-      <c r="C44" s="218" t="s">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F44" s="266"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="65"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F45" s="266"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="65"/>
+    </row>
+    <row r="46" spans="1:21" s="218" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="217" t="s">
         <v>277</v>
       </c>
-      <c r="D44" s="218">
+      <c r="B46" s="218" t="s">
+        <v>264</v>
+      </c>
+      <c r="C46" s="218" t="s">
+        <v>275</v>
+      </c>
+      <c r="D46" s="218">
         <v>3</v>
       </c>
-      <c r="E44" s="220"/>
-      <c r="F44" s="265"/>
-      <c r="G44" s="218">
-        <f>SUM(G45:G59)</f>
+      <c r="E46" s="220"/>
+      <c r="F46" s="265"/>
+      <c r="G46" s="218">
+        <f>SUM(G47:G61)</f>
         <v>30</v>
       </c>
-      <c r="K44" s="263"/>
-      <c r="L44" s="263"/>
-      <c r="M44" s="263"/>
-      <c r="N44" s="263"/>
-      <c r="O44" s="263"/>
-      <c r="P44" s="276"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45" s="221" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(D45,4) + _xlfn.BITLSHIFT(D$44,12),4)</f>
-        <v>3000</v>
-      </c>
-      <c r="F45" s="266" t="s">
-        <v>286</v>
-      </c>
-      <c r="G45" s="34">
-        <v>1</v>
-      </c>
-      <c r="H45" s="34">
-        <f>ROUNDUP(G45/4,0)</f>
-        <v>1</v>
-      </c>
-      <c r="I45" t="s">
-        <v>178</v>
-      </c>
-      <c r="J45" s="1"/>
-      <c r="K45" s="66">
-        <v>0</v>
-      </c>
-      <c r="L45" s="66">
-        <v>1</v>
-      </c>
-      <c r="M45" s="66">
-        <v>0</v>
-      </c>
-      <c r="N45" s="65">
-        <v>1</v>
-      </c>
-      <c r="R45" t="s">
-        <v>280</v>
-      </c>
-      <c r="S45" t="s">
-        <v>311</v>
-      </c>
-      <c r="T45" t="s">
-        <v>312</v>
-      </c>
-      <c r="U45" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" s="221" t="str">
-        <f t="shared" ref="E46:E59" si="4">DEC2HEX(_xlfn.BITLSHIFT(D46,4) + _xlfn.BITLSHIFT(D$44,12),4)</f>
-        <v>3010</v>
-      </c>
-      <c r="F46" s="266" t="s">
-        <v>287</v>
-      </c>
-      <c r="G46" s="34">
-        <v>1</v>
-      </c>
-      <c r="H46" s="34">
-        <f t="shared" ref="H46:H59" si="5">ROUNDUP(G46/4,0)</f>
-        <v>1</v>
-      </c>
-      <c r="I46" t="s">
-        <v>178</v>
-      </c>
-      <c r="K46" s="66">
-        <v>0</v>
-      </c>
-      <c r="L46" s="66">
-        <v>1</v>
-      </c>
-      <c r="M46" s="66">
-        <v>0</v>
-      </c>
-      <c r="N46" s="65">
-        <v>1</v>
-      </c>
-      <c r="R46" t="s">
-        <v>314</v>
-      </c>
-      <c r="S46" t="s">
-        <v>315</v>
-      </c>
-      <c r="T46" t="s">
-        <v>317</v>
-      </c>
-      <c r="U46" t="s">
-        <v>316</v>
-      </c>
+      <c r="K46" s="263"/>
+      <c r="L46" s="263"/>
+      <c r="M46" s="263"/>
+      <c r="N46" s="263"/>
+      <c r="O46" s="263"/>
+      <c r="P46" s="276"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E47" s="221" t="str">
-        <f t="shared" si="4"/>
-        <v>3020</v>
+        <f>DEC2HEX(_xlfn.BITLSHIFT(D47,4) + _xlfn.BITLSHIFT(D$46,12),4)</f>
+        <v>3000</v>
       </c>
       <c r="F47" s="266" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="G47" s="34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H47" s="34">
-        <f t="shared" si="5"/>
+        <f>ROUNDUP(G47/4,0)</f>
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>175</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="J47" s="1"/>
       <c r="K47" s="66">
         <v>0</v>
       </c>
@@ -14677,20 +15080,26 @@
       <c r="N47" s="65">
         <v>1</v>
       </c>
-      <c r="R47">
-        <v>0</v>
+      <c r="R47" t="s">
+        <v>278</v>
       </c>
       <c r="S47" t="s">
-        <v>281</v>
+        <v>309</v>
+      </c>
+      <c r="T47" t="s">
+        <v>310</v>
+      </c>
+      <c r="U47" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48" s="221" t="str">
-        <f t="shared" si="4"/>
-        <v>3030</v>
+        <f t="shared" ref="E48:E61" si="5">DEC2HEX(_xlfn.BITLSHIFT(D48,4) + _xlfn.BITLSHIFT(D$46,12),4)</f>
+        <v>3010</v>
       </c>
       <c r="F48" s="266" t="s">
         <v>285</v>
@@ -14699,7 +15108,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H48:H61" si="6">ROUNDUP(G48/4,0)</f>
         <v>1</v>
       </c>
       <c r="I48" t="s">
@@ -14717,67 +15126,79 @@
       <c r="N48" s="65">
         <v>1</v>
       </c>
-      <c r="R48" s="67" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R48" t="s">
+        <v>312</v>
+      </c>
+      <c r="S48" t="s">
+        <v>313</v>
+      </c>
+      <c r="T48" t="s">
+        <v>315</v>
+      </c>
+      <c r="U48" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" s="221" t="str">
+        <f t="shared" si="5"/>
+        <v>3020</v>
+      </c>
+      <c r="F49" s="266" t="s">
+        <v>294</v>
+      </c>
+      <c r="G49" s="34">
         <v>4</v>
       </c>
-      <c r="E49" s="221" t="str">
-        <f t="shared" si="4"/>
-        <v>3040</v>
-      </c>
-      <c r="F49" s="266" t="s">
-        <v>289</v>
-      </c>
-      <c r="G49" s="34">
-        <v>1</v>
-      </c>
       <c r="H49" s="34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>175</v>
+      </c>
+      <c r="K49" s="66">
+        <v>0</v>
+      </c>
+      <c r="L49" s="66">
+        <v>1</v>
+      </c>
+      <c r="M49" s="66">
+        <v>0</v>
+      </c>
+      <c r="N49" s="65">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" s="221" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I49" t="s">
+        <v>3030</v>
+      </c>
+      <c r="F50" s="266" t="s">
+        <v>283</v>
+      </c>
+      <c r="G50" s="34">
+        <v>1</v>
+      </c>
+      <c r="H50" s="34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
         <v>178</v>
-      </c>
-      <c r="K49" s="66">
-        <v>0</v>
-      </c>
-      <c r="L49" s="66">
-        <v>1</v>
-      </c>
-      <c r="M49" s="66">
-        <v>0</v>
-      </c>
-      <c r="N49" s="65">
-        <v>1</v>
-      </c>
-      <c r="R49" s="67" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D50">
-        <v>5</v>
-      </c>
-      <c r="E50" s="221" t="str">
-        <f t="shared" si="4"/>
-        <v>3050</v>
-      </c>
-      <c r="F50" s="266" t="s">
-        <v>297</v>
-      </c>
-      <c r="G50" s="34">
-        <v>4</v>
-      </c>
-      <c r="H50" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I50" t="s">
-        <v>175</v>
       </c>
       <c r="K50" s="66">
         <v>0</v>
@@ -14795,22 +15216,22 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E51" s="221" t="str">
-        <f t="shared" si="4"/>
-        <v>3060</v>
+        <f t="shared" si="5"/>
+        <v>3040</v>
       </c>
       <c r="F51" s="266" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G51" s="34">
         <v>1</v>
       </c>
       <c r="H51" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I51" t="s">
@@ -14832,26 +15253,26 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D52">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E52" s="221" t="str">
-        <f t="shared" si="4"/>
-        <v>3070</v>
+        <f t="shared" si="5"/>
+        <v>3050</v>
       </c>
       <c r="F52" s="266" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="G52" s="34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H52" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K52" s="66">
         <v>0</v>
@@ -14869,26 +15290,26 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D53">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E53" s="221" t="str">
-        <f t="shared" si="4"/>
-        <v>3080</v>
+        <f t="shared" si="5"/>
+        <v>3060</v>
       </c>
       <c r="F53" s="266" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G53" s="34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H53" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K53" s="66">
         <v>0</v>
@@ -14906,22 +15327,22 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D54">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E54" s="221" t="str">
-        <f t="shared" si="4"/>
-        <v>3090</v>
+        <f t="shared" si="5"/>
+        <v>3070</v>
       </c>
       <c r="F54" s="266" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G54" s="34">
         <v>1</v>
       </c>
       <c r="H54" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I54" t="s">
@@ -14943,26 +15364,26 @@
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D55">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E55" s="221" t="str">
-        <f t="shared" si="4"/>
-        <v>30A0</v>
+        <f t="shared" si="5"/>
+        <v>3080</v>
       </c>
       <c r="F55" s="266" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G55" s="34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H55" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K55" s="66">
         <v>0</v>
@@ -14980,26 +15401,26 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D56">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E56" s="221" t="str">
-        <f t="shared" si="4"/>
-        <v>30B0</v>
+        <f t="shared" si="5"/>
+        <v>3090</v>
       </c>
       <c r="F56" s="266" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G56" s="34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H56" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K56" s="66">
         <v>0</v>
@@ -15017,22 +15438,22 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D57">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E57" s="221" t="str">
-        <f t="shared" si="4"/>
-        <v>30C0</v>
+        <f t="shared" si="5"/>
+        <v>30A0</v>
       </c>
       <c r="F57" s="266" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G57" s="34">
         <v>1</v>
       </c>
       <c r="H57" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I57" t="s">
@@ -15054,26 +15475,26 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D58">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E58" s="221" t="str">
-        <f t="shared" si="4"/>
-        <v>30D0</v>
+        <f t="shared" si="5"/>
+        <v>30B0</v>
       </c>
       <c r="F58" s="266" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G58" s="34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H58" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K58" s="66">
         <v>0</v>
@@ -15091,26 +15512,26 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D59">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E59" s="221" t="str">
-        <f t="shared" si="4"/>
-        <v>30E0</v>
+        <f t="shared" si="5"/>
+        <v>30C0</v>
       </c>
       <c r="F59" s="266" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G59" s="34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H59" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K59" s="66">
         <v>0</v>
@@ -15128,104 +15549,172 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F60" s="266"/>
-    </row>
-    <row r="61" spans="1:18" s="218" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="218" t="s">
-        <v>279</v>
-      </c>
-      <c r="B61" s="218" t="s">
-        <v>266</v>
-      </c>
-      <c r="C61" s="218" t="s">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>13</v>
+      </c>
+      <c r="E60" s="221" t="str">
+        <f t="shared" si="5"/>
+        <v>30D0</v>
+      </c>
+      <c r="F60" s="266" t="s">
+        <v>292</v>
+      </c>
+      <c r="G60" s="34">
+        <v>1</v>
+      </c>
+      <c r="H60" s="34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>178</v>
+      </c>
+      <c r="K60" s="66">
+        <v>0</v>
+      </c>
+      <c r="L60" s="66">
+        <v>1</v>
+      </c>
+      <c r="M60" s="66">
+        <v>0</v>
+      </c>
+      <c r="N60" s="65">
+        <v>1</v>
+      </c>
+      <c r="R60" s="67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>14</v>
+      </c>
+      <c r="E61" s="221" t="str">
+        <f t="shared" si="5"/>
+        <v>30E0</v>
+      </c>
+      <c r="F61" s="266" t="s">
+        <v>298</v>
+      </c>
+      <c r="G61" s="34">
+        <v>4</v>
+      </c>
+      <c r="H61" s="34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>175</v>
+      </c>
+      <c r="K61" s="66">
+        <v>0</v>
+      </c>
+      <c r="L61" s="66">
+        <v>1</v>
+      </c>
+      <c r="M61" s="66">
+        <v>0</v>
+      </c>
+      <c r="N61" s="65">
+        <v>1</v>
+      </c>
+      <c r="R61" s="67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F62" s="266"/>
+    </row>
+    <row r="63" spans="1:19" s="218" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="218" t="s">
         <v>277</v>
       </c>
-      <c r="D61" s="218">
+      <c r="B63" s="218" t="s">
+        <v>264</v>
+      </c>
+      <c r="C63" s="218" t="s">
+        <v>275</v>
+      </c>
+      <c r="D63" s="218">
         <v>4</v>
       </c>
-      <c r="E61" s="220"/>
-      <c r="F61" s="265"/>
-      <c r="G61" s="218">
-        <f>SUM(G62:G63)</f>
-        <v>0</v>
-      </c>
-      <c r="K61" s="263"/>
-      <c r="L61" s="263"/>
-      <c r="M61" s="263"/>
-      <c r="N61" s="263"/>
-      <c r="O61" s="263"/>
-      <c r="P61" s="276"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62" s="221" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(D62,4) + _xlfn.BITLSHIFT(D$61,12),4)</f>
+      <c r="E63" s="220"/>
+      <c r="F63" s="265"/>
+      <c r="G63" s="218">
+        <f>SUM(G64:G65)</f>
+        <v>0</v>
+      </c>
+      <c r="K63" s="263"/>
+      <c r="L63" s="263"/>
+      <c r="M63" s="263"/>
+      <c r="N63" s="263"/>
+      <c r="O63" s="263"/>
+      <c r="P63" s="276"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" s="221" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(D64,4) + _xlfn.BITLSHIFT(D$63,12),4)</f>
         <v>4000</v>
       </c>
-      <c r="F62" s="266"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" s="221" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(D63,4) + _xlfn.BITLSHIFT(D$61,12),4)</f>
+      <c r="F64" s="266"/>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" s="221" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(D65,4) + _xlfn.BITLSHIFT(D$63,12),4)</f>
         <v>4010</v>
       </c>
-      <c r="F63" s="266"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F64" s="266"/>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65" s="266"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F66" s="266"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F67" s="266"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F68" s="266"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F69" s="266"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F70" s="266"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F71" s="266"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F72" s="266"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F73" s="266"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F74" s="266"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F75" s="266"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F76" s="266"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F77" s="266"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F78" s="266"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F79" s="266"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F80" s="266"/>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.25">
@@ -16130,6 +16619,12 @@
     </row>
     <row r="381" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F381" s="266"/>
+    </row>
+    <row r="382" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F382" s="266"/>
+    </row>
+    <row r="383" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F383" s="266"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/arch.xlsx
+++ b/docs/arch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\ProjetsRecherche\Embedded\CAN\dev\caniot\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECBD3BE-C8AE-4BAE-A4E2-E4384B3FB08A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B183EF-72C7-4FA4-997E-802B0ABDF21D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3F2F15D1-277A-4EC5-A845-66E8BFF58C30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{3F2F15D1-277A-4EC5-A845-66E8BFF58C30}"/>
   </bookViews>
   <sheets>
     <sheet name="frames-data-bits" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="355">
   <si>
     <t>temperature</t>
   </si>
@@ -1068,12 +1068,6 @@
     <t>sent.telemetry</t>
   </si>
   <si>
-    <t>telemetry request random period</t>
-  </si>
-  <si>
-    <t>random period between 0 and value when requesting telemetry in broadcast</t>
-  </si>
-  <si>
     <t>calculated_abstime</t>
   </si>
   <si>
@@ -1096,6 +1090,21 @@
   </si>
   <si>
     <t>TempSensDev</t>
+  </si>
+  <si>
+    <t>telemetry_min</t>
+  </si>
+  <si>
+    <t>random period between 0 and value when requesting telemetry when broadcast</t>
+  </si>
+  <si>
+    <t>telemetry_rdm_delay</t>
+  </si>
+  <si>
+    <t>lfsr32</t>
+  </si>
+  <si>
+    <t>lfsr31</t>
   </si>
 </sst>
 </file>
@@ -9523,8 +9532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36880ADF-04C9-4A12-8EFC-224812D037A0}">
   <dimension ref="A3:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P58" sqref="P58"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9993,7 +10002,7 @@
         <v>2</v>
       </c>
       <c r="M23" s="279" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -10682,7 +10691,7 @@
         <v>258</v>
       </c>
       <c r="K48" s="259" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L48" s="277">
         <v>3</v>
@@ -10710,7 +10719,7 @@
         <v>258</v>
       </c>
       <c r="K49" s="259" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L49" s="277">
         <v>3</v>
@@ -10738,7 +10747,7 @@
         <v>258</v>
       </c>
       <c r="K50" s="259" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L50" s="277">
         <v>3</v>
@@ -11104,7 +11113,7 @@
         <v>260</v>
       </c>
       <c r="K64" s="258" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L64" s="277">
         <v>5</v>
@@ -13763,8 +13772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440C4F6B-A1C2-4D6C-BCC9-98B3358D661D}">
   <dimension ref="A1:V383"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13773,7 +13782,7 @@
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="221" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" style="222" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" style="222" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" customWidth="1"/>
@@ -14232,7 +14241,7 @@
         <v>1020</v>
       </c>
       <c r="F18" s="266" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G18" s="34">
         <v>4</v>
@@ -14667,7 +14676,7 @@
         <v>10E0</v>
       </c>
       <c r="F30" s="266" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G30" s="34">
         <v>4</v>
@@ -14772,7 +14781,7 @@
         <v>1110</v>
       </c>
       <c r="F33" s="266" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G33" s="34">
         <v>2</v>
@@ -14884,7 +14893,7 @@
       <c r="F38" s="265"/>
       <c r="G38" s="218">
         <f>SUM(G39:G44)</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="K38" s="263"/>
       <c r="L38" s="263"/>
@@ -14949,7 +14958,7 @@
         <v>2010</v>
       </c>
       <c r="F40" s="266" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="G40" s="34">
         <v>4</v>
@@ -14962,43 +14971,135 @@
         <v>175</v>
       </c>
       <c r="J40" s="1"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="65"/>
+      <c r="K40" s="66">
+        <v>0</v>
+      </c>
+      <c r="L40" s="66">
+        <v>1</v>
+      </c>
+      <c r="M40" s="66">
+        <v>0</v>
+      </c>
+      <c r="N40" s="65">
+        <v>1</v>
+      </c>
       <c r="P40" s="274" t="s">
-        <v>343</v>
+        <v>351</v>
+      </c>
+      <c r="R40" t="s">
+        <v>278</v>
+      </c>
+      <c r="S40" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F41" s="266"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" s="221" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(D41,4) + _xlfn.BITLSHIFT(D$38,12),4)</f>
+        <v>2020</v>
+      </c>
+      <c r="F41" s="266" t="s">
+        <v>350</v>
+      </c>
+      <c r="G41" s="34">
+        <v>4</v>
+      </c>
+      <c r="H41" s="34">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>175</v>
+      </c>
       <c r="J41" s="1"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="65"/>
+      <c r="K41" s="66">
+        <v>0</v>
+      </c>
+      <c r="L41" s="66">
+        <v>1</v>
+      </c>
+      <c r="M41" s="66">
+        <v>0</v>
+      </c>
+      <c r="N41" s="65">
+        <v>1</v>
+      </c>
+      <c r="R41" t="s">
+        <v>278</v>
+      </c>
+      <c r="S41" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F42" s="266"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" s="221" t="str">
+        <f t="shared" ref="E42:E43" si="5">DEC2HEX(_xlfn.BITLSHIFT(D42,4) + _xlfn.BITLSHIFT(D$38,12),4)</f>
+        <v>2030</v>
+      </c>
+      <c r="F42" s="266" t="s">
+        <v>353</v>
+      </c>
+      <c r="G42" s="34">
+        <v>4</v>
+      </c>
+      <c r="H42" s="34">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>175</v>
+      </c>
       <c r="J42" s="1"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="65"/>
+      <c r="K42" s="66">
+        <v>0</v>
+      </c>
+      <c r="L42" s="66">
+        <v>1</v>
+      </c>
+      <c r="M42" s="66">
+        <v>0</v>
+      </c>
+      <c r="N42" s="65">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F43" s="266"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43" s="221" t="str">
+        <f t="shared" si="5"/>
+        <v>2040</v>
+      </c>
+      <c r="F43" s="266" t="s">
+        <v>354</v>
+      </c>
+      <c r="G43" s="34">
+        <v>4</v>
+      </c>
+      <c r="H43" s="34">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>175</v>
+      </c>
       <c r="J43" s="1"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="66"/>
-      <c r="M43" s="66"/>
-      <c r="N43" s="65"/>
+      <c r="K43" s="66">
+        <v>0</v>
+      </c>
+      <c r="L43" s="66">
+        <v>1</v>
+      </c>
+      <c r="M43" s="66">
+        <v>0</v>
+      </c>
+      <c r="N43" s="65">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F44" s="266"/>
@@ -15098,7 +15199,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="221" t="str">
-        <f t="shared" ref="E48:E61" si="5">DEC2HEX(_xlfn.BITLSHIFT(D48,4) + _xlfn.BITLSHIFT(D$46,12),4)</f>
+        <f t="shared" ref="E48:E61" si="6">DEC2HEX(_xlfn.BITLSHIFT(D48,4) + _xlfn.BITLSHIFT(D$46,12),4)</f>
         <v>3010</v>
       </c>
       <c r="F48" s="266" t="s">
@@ -15108,7 +15209,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="34">
-        <f t="shared" ref="H48:H61" si="6">ROUNDUP(G48/4,0)</f>
+        <f t="shared" ref="H48:H61" si="7">ROUNDUP(G48/4,0)</f>
         <v>1</v>
       </c>
       <c r="I48" t="s">
@@ -15144,7 +15245,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="221" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3020</v>
       </c>
       <c r="F49" s="266" t="s">
@@ -15154,7 +15255,7 @@
         <v>4</v>
       </c>
       <c r="H49" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I49" t="s">
@@ -15184,7 +15285,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="221" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3030</v>
       </c>
       <c r="F50" s="266" t="s">
@@ -15194,7 +15295,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I50" t="s">
@@ -15221,7 +15322,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="221" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3040</v>
       </c>
       <c r="F51" s="266" t="s">
@@ -15231,7 +15332,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I51" t="s">
@@ -15258,7 +15359,7 @@
         <v>5</v>
       </c>
       <c r="E52" s="221" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3050</v>
       </c>
       <c r="F52" s="266" t="s">
@@ -15268,7 +15369,7 @@
         <v>4</v>
       </c>
       <c r="H52" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I52" t="s">
@@ -15295,7 +15396,7 @@
         <v>6</v>
       </c>
       <c r="E53" s="221" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3060</v>
       </c>
       <c r="F53" s="266" t="s">
@@ -15305,7 +15406,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I53" t="s">
@@ -15332,7 +15433,7 @@
         <v>7</v>
       </c>
       <c r="E54" s="221" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3070</v>
       </c>
       <c r="F54" s="266" t="s">
@@ -15342,7 +15443,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I54" t="s">
@@ -15369,7 +15470,7 @@
         <v>8</v>
       </c>
       <c r="E55" s="221" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3080</v>
       </c>
       <c r="F55" s="266" t="s">
@@ -15379,7 +15480,7 @@
         <v>4</v>
       </c>
       <c r="H55" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I55" t="s">
@@ -15406,7 +15507,7 @@
         <v>9</v>
       </c>
       <c r="E56" s="221" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3090</v>
       </c>
       <c r="F56" s="266" t="s">
@@ -15416,7 +15517,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I56" t="s">
@@ -15443,7 +15544,7 @@
         <v>10</v>
       </c>
       <c r="E57" s="221" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30A0</v>
       </c>
       <c r="F57" s="266" t="s">
@@ -15453,7 +15554,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I57" t="s">
@@ -15480,7 +15581,7 @@
         <v>11</v>
       </c>
       <c r="E58" s="221" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30B0</v>
       </c>
       <c r="F58" s="266" t="s">
@@ -15490,7 +15591,7 @@
         <v>4</v>
       </c>
       <c r="H58" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I58" t="s">
@@ -15517,7 +15618,7 @@
         <v>12</v>
       </c>
       <c r="E59" s="221" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30C0</v>
       </c>
       <c r="F59" s="266" t="s">
@@ -15527,7 +15628,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I59" t="s">
@@ -15554,7 +15655,7 @@
         <v>13</v>
       </c>
       <c r="E60" s="221" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30D0</v>
       </c>
       <c r="F60" s="266" t="s">
@@ -15564,7 +15665,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I60" t="s">
@@ -15591,7 +15692,7 @@
         <v>14</v>
       </c>
       <c r="E61" s="221" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30E0</v>
       </c>
       <c r="F61" s="266" t="s">
@@ -15601,7 +15702,7 @@
         <v>4</v>
       </c>
       <c r="H61" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I61" t="s">

--- a/docs/arch.xlsx
+++ b/docs/arch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\ProjetsRecherche\Embedded\CAN\dev\caniot\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B183EF-72C7-4FA4-997E-802B0ABDF21D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A31D46-CAAB-4FB9-89B0-50ACCEE27F72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{3F2F15D1-277A-4EC5-A845-66E8BFF58C30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F2F15D1-277A-4EC5-A845-66E8BFF58C30}"/>
   </bookViews>
   <sheets>
     <sheet name="frames-data-bits" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="362">
   <si>
     <t>temperature</t>
   </si>
@@ -783,9 +783,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
     <t>Data type</t>
   </si>
   <si>
@@ -1011,9 +1008,6 @@
     <t>special</t>
   </si>
   <si>
-    <t>255 (section</t>
-  </si>
-  <si>
     <t>size (B)</t>
   </si>
   <si>
@@ -1105,6 +1099,33 @@
   </si>
   <si>
     <t>lfsr31</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>3*1000</t>
+  </si>
+  <si>
+    <t>1*1000</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>FakeDevice</t>
+  </si>
+  <si>
+    <t>00.00</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To </t>
+  </si>
+  <si>
+    <t>Invalid</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1656,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="282">
+  <cellXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2338,6 +2359,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2837,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABEE202-717B-4A96-9406-D9A14283F0F2}">
   <dimension ref="B1:AH59"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="W53" sqref="W53"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3183,28 +3205,28 @@
         <v>81</v>
       </c>
       <c r="N13" s="167" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O13" s="167" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P13" s="167" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Q13" s="167" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="R13" s="167" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="S13" s="167" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="T13" s="167" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U13" s="167" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="V13" s="25" t="s">
         <v>45</v>
@@ -3996,7 +4018,7 @@
         <v>153</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -4562,7 +4584,7 @@
         <v>152</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
@@ -4575,7 +4597,7 @@
       <c r="L40" s="48"/>
       <c r="M40" s="48"/>
       <c r="T40" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="2:34" x14ac:dyDescent="0.2">
@@ -4605,7 +4627,7 @@
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F42" s="19" t="s">
         <v>144</v>
@@ -5128,7 +5150,7 @@
     </row>
     <row r="52" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>15</v>
@@ -5253,76 +5275,76 @@
     </row>
     <row r="55" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C55" s="268" t="s">
+        <v>316</v>
+      </c>
+      <c r="D55" s="268" t="s">
+        <v>316</v>
+      </c>
+      <c r="E55" s="268" t="s">
+        <v>316</v>
+      </c>
+      <c r="F55" s="268" t="s">
+        <v>316</v>
+      </c>
+      <c r="G55" s="269" t="s">
+        <v>251</v>
+      </c>
+      <c r="H55" s="269" t="s">
+        <v>251</v>
+      </c>
+      <c r="I55" s="269" t="s">
+        <v>251</v>
+      </c>
+      <c r="J55" s="269" t="s">
+        <v>251</v>
+      </c>
+      <c r="K55" s="269" t="s">
+        <v>251</v>
+      </c>
+      <c r="L55" s="269" t="s">
+        <v>251</v>
+      </c>
+      <c r="M55" s="269" t="s">
+        <v>251</v>
+      </c>
+      <c r="N55" s="269" t="s">
+        <v>251</v>
+      </c>
+      <c r="O55" s="270" t="s">
         <v>317</v>
       </c>
-      <c r="D55" s="268" t="s">
+      <c r="P55" s="270" t="s">
         <v>317</v>
       </c>
-      <c r="E55" s="268" t="s">
+      <c r="Q55" s="270" t="s">
         <v>317</v>
       </c>
-      <c r="F55" s="268" t="s">
+      <c r="R55" s="270" t="s">
         <v>317</v>
-      </c>
-      <c r="G55" s="269" t="s">
-        <v>252</v>
-      </c>
-      <c r="H55" s="269" t="s">
-        <v>252</v>
-      </c>
-      <c r="I55" s="269" t="s">
-        <v>252</v>
-      </c>
-      <c r="J55" s="269" t="s">
-        <v>252</v>
-      </c>
-      <c r="K55" s="269" t="s">
-        <v>252</v>
-      </c>
-      <c r="L55" s="269" t="s">
-        <v>252</v>
-      </c>
-      <c r="M55" s="269" t="s">
-        <v>252</v>
-      </c>
-      <c r="N55" s="269" t="s">
-        <v>252</v>
-      </c>
-      <c r="O55" s="270" t="s">
-        <v>318</v>
-      </c>
-      <c r="P55" s="270" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q55" s="270" t="s">
-        <v>318</v>
-      </c>
-      <c r="R55" s="270" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="57" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C57" s="268" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C58" s="269" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C59" s="270" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -5352,7 +5374,7 @@
   <sheetData>
     <row r="2" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A2" s="244" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>156</v>
@@ -5443,7 +5465,7 @@
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A3" s="247" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>83</v>
@@ -5648,207 +5670,207 @@
     <row r="4" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A4" s="245"/>
       <c r="B4" s="235" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C4" s="239">
         <v>8</v>
       </c>
       <c r="D4" s="241" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K4" s="243" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L4" s="241" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="R4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S4" s="243" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T4" s="241" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="V4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Y4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Z4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AA4" s="243" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AB4" s="241" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AD4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AE4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AI4" s="243" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AJ4" s="241" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AK4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AL4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AM4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AN4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AO4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AP4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AQ4" s="243" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AR4" s="241" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AS4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AT4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AU4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AV4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AW4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AX4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AY4" s="243" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AZ4" s="241" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BA4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BB4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BC4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BD4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BE4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BF4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BG4" s="243" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BH4" s="241" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BI4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BJ4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BK4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BL4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BM4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BN4" s="242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BO4" s="243" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A6" s="244" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>156</v>
@@ -5939,7 +5961,7 @@
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A7" s="246" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>82</v>
@@ -6144,7 +6166,7 @@
     <row r="8" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A8" s="245"/>
       <c r="B8" s="235" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C8" s="239">
         <v>1</v>
@@ -6344,7 +6366,7 @@
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A10" s="244" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>156</v>
@@ -6435,7 +6457,7 @@
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A11" s="247" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>82</v>
@@ -6640,7 +6662,7 @@
     <row r="12" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A12" s="245"/>
       <c r="B12" s="235" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C12" s="239">
         <v>4</v>
@@ -6712,34 +6734,34 @@
         <v>46</v>
       </c>
       <c r="Z12" s="188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA12" s="238" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AB12" s="187" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AC12" s="188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AD12" s="188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AE12" s="188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF12" s="188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG12" s="188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AH12" s="188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AI12" s="238" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AJ12" s="184" t="s">
         <v>46</v>
@@ -6874,7 +6896,7 @@
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A14" s="244" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>156</v>
@@ -6965,7 +6987,7 @@
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A15" s="247" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>83</v>
@@ -7170,7 +7192,7 @@
     <row r="16" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A16" s="245"/>
       <c r="B16" s="235" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C16" s="239">
         <v>4</v>
@@ -7404,7 +7426,7 @@
     </row>
     <row r="18" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A18" s="244" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>156</v>
@@ -7495,7 +7517,7 @@
     </row>
     <row r="19" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A19" s="247" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>83</v>
@@ -7700,7 +7722,7 @@
     <row r="20" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A20" s="245"/>
       <c r="B20" s="235" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C20" s="239">
         <v>8</v>
@@ -7850,34 +7872,34 @@
         <v>25</v>
       </c>
       <c r="AZ20" s="187" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BA20" s="188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BB20" s="188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BC20" s="188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BD20" s="188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BE20" s="188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BF20" s="188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BG20" s="238" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BH20" s="187" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BI20" s="188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BJ20" s="185" t="s">
         <v>46</v>
@@ -7934,7 +7956,7 @@
     </row>
     <row r="22" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A22" s="244" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>156</v>
@@ -8025,7 +8047,7 @@
     </row>
     <row r="23" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A23" s="247" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>83</v>
@@ -8230,7 +8252,7 @@
     <row r="24" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A24" s="245"/>
       <c r="B24" s="235" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C24" s="239">
         <v>8</v>
@@ -8332,94 +8354,94 @@
         <v>24</v>
       </c>
       <c r="AJ24" s="187" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AK24" s="188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL24" s="188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AM24" s="188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AN24" s="188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AO24" s="188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AP24" s="188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AQ24" s="238" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AR24" s="187" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AS24" s="188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AT24" s="188" t="s">
+        <v>253</v>
+      </c>
+      <c r="AU24" s="188" t="s">
+        <v>253</v>
+      </c>
+      <c r="AV24" s="188" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW24" s="188" t="s">
+        <v>253</v>
+      </c>
+      <c r="AX24" s="188" t="s">
+        <v>253</v>
+      </c>
+      <c r="AY24" s="188" t="s">
+        <v>253</v>
+      </c>
+      <c r="AZ24" s="187" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA24" s="188" t="s">
+        <v>253</v>
+      </c>
+      <c r="BB24" s="188" t="s">
+        <v>253</v>
+      </c>
+      <c r="BC24" s="188" t="s">
+        <v>253</v>
+      </c>
+      <c r="BD24" s="188" t="s">
         <v>254</v>
       </c>
-      <c r="AU24" s="188" t="s">
+      <c r="BE24" s="188" t="s">
         <v>254</v>
       </c>
-      <c r="AV24" s="188" t="s">
+      <c r="BF24" s="188" t="s">
         <v>254</v>
       </c>
-      <c r="AW24" s="188" t="s">
+      <c r="BG24" s="238" t="s">
         <v>254</v>
       </c>
-      <c r="AX24" s="188" t="s">
+      <c r="BH24" s="188" t="s">
         <v>254</v>
       </c>
-      <c r="AY24" s="188" t="s">
+      <c r="BI24" s="188" t="s">
         <v>254</v>
       </c>
-      <c r="AZ24" s="187" t="s">
+      <c r="BJ24" s="188" t="s">
         <v>254</v>
       </c>
-      <c r="BA24" s="188" t="s">
+      <c r="BK24" s="188" t="s">
         <v>254</v>
       </c>
-      <c r="BB24" s="188" t="s">
+      <c r="BL24" s="188" t="s">
         <v>254</v>
       </c>
-      <c r="BC24" s="188" t="s">
+      <c r="BM24" s="188" t="s">
         <v>254</v>
-      </c>
-      <c r="BD24" s="188" t="s">
-        <v>255</v>
-      </c>
-      <c r="BE24" s="188" t="s">
-        <v>255</v>
-      </c>
-      <c r="BF24" s="188" t="s">
-        <v>255</v>
-      </c>
-      <c r="BG24" s="238" t="s">
-        <v>255</v>
-      </c>
-      <c r="BH24" s="188" t="s">
-        <v>255</v>
-      </c>
-      <c r="BI24" s="188" t="s">
-        <v>255</v>
-      </c>
-      <c r="BJ24" s="188" t="s">
-        <v>255</v>
-      </c>
-      <c r="BK24" s="188" t="s">
-        <v>255</v>
-      </c>
-      <c r="BL24" s="188" t="s">
-        <v>255</v>
-      </c>
-      <c r="BM24" s="188" t="s">
-        <v>255</v>
       </c>
       <c r="BN24" s="185" t="s">
         <v>46</v>
@@ -8430,7 +8452,7 @@
     </row>
     <row r="26" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A26" s="244" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>156</v>
@@ -8521,7 +8543,7 @@
     </row>
     <row r="27" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A27" s="247" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>83</v>
@@ -8726,7 +8748,7 @@
     <row r="28" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A28" s="245"/>
       <c r="B28" s="235" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C28" s="239">
         <v>8</v>
@@ -8876,52 +8898,52 @@
         <v>26</v>
       </c>
       <c r="AZ28" s="39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BA28" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BB28" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BC28" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BD28" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BE28" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BF28" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BG28" s="41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BH28" s="39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BI28" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BJ28" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BK28" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BL28" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BM28" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BN28" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BO28" s="41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:67" x14ac:dyDescent="0.2">
@@ -8960,7 +8982,7 @@
     </row>
     <row r="30" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A30" s="244" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>156</v>
@@ -9256,7 +9278,7 @@
     <row r="32" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A32" s="245"/>
       <c r="B32" s="235" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C32" s="239">
         <v>0</v>
@@ -9533,7 +9555,7 @@
   <dimension ref="A3:M93"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9605,7 +9627,7 @@
         <v>8</v>
       </c>
       <c r="K4" s="256" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -9769,7 +9791,7 @@
         <v>45</v>
       </c>
       <c r="K11" s="256" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -9993,16 +10015,16 @@
         <v>57</v>
       </c>
       <c r="I23" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K23" s="257" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L23" s="278" t="s">
         <v>2</v>
       </c>
       <c r="M23" s="279" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -10067,7 +10089,7 @@
         <v>84</v>
       </c>
       <c r="I25" s="248" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K25" s="258"/>
       <c r="L25" s="35">
@@ -10101,7 +10123,7 @@
       </c>
       <c r="H26" s="86"/>
       <c r="I26" s="248" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K26" s="258"/>
       <c r="L26" s="35">
@@ -10130,7 +10152,7 @@
       </c>
       <c r="H27" s="86"/>
       <c r="I27" s="248" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K27" s="258"/>
       <c r="L27" s="35">
@@ -10157,7 +10179,7 @@
       </c>
       <c r="H28" s="88"/>
       <c r="I28" s="248" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K28" s="259"/>
       <c r="L28" s="35">
@@ -10184,7 +10206,7 @@
       </c>
       <c r="H29" s="88"/>
       <c r="I29" s="248" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K29" s="259"/>
       <c r="L29" s="35">
@@ -10211,7 +10233,7 @@
       </c>
       <c r="H30" s="88"/>
       <c r="I30" s="248" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K30" s="259"/>
       <c r="L30" s="35">
@@ -10238,9 +10260,11 @@
       </c>
       <c r="H31" s="88"/>
       <c r="I31" s="248" t="s">
-        <v>256</v>
-      </c>
-      <c r="K31" s="259"/>
+        <v>255</v>
+      </c>
+      <c r="K31" s="259" t="s">
+        <v>357</v>
+      </c>
       <c r="L31" s="35">
         <v>0</v>
       </c>
@@ -10265,7 +10289,7 @@
       </c>
       <c r="H32" s="88"/>
       <c r="I32" s="249" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K32" s="259"/>
       <c r="L32" s="277">
@@ -10292,7 +10316,7 @@
       </c>
       <c r="H33" s="88"/>
       <c r="I33" s="249" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K33" s="259"/>
       <c r="L33" s="277">
@@ -10319,7 +10343,7 @@
       </c>
       <c r="H34" s="88"/>
       <c r="I34" s="249" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K34" s="259"/>
       <c r="L34" s="277">
@@ -10346,7 +10370,7 @@
       </c>
       <c r="H35" s="88"/>
       <c r="I35" s="249" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K35" s="259"/>
       <c r="L35" s="277">
@@ -10373,7 +10397,7 @@
       </c>
       <c r="H36" s="88"/>
       <c r="I36" s="249" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K36" s="259"/>
       <c r="L36" s="277">
@@ -10400,7 +10424,7 @@
       </c>
       <c r="H37" s="88"/>
       <c r="I37" s="249" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K37" s="259"/>
       <c r="L37" s="277">
@@ -10427,7 +10451,7 @@
       </c>
       <c r="H38" s="85"/>
       <c r="I38" s="249" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K38" s="259"/>
       <c r="L38" s="277">
@@ -10454,7 +10478,7 @@
       </c>
       <c r="H39" s="89"/>
       <c r="I39" s="249" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K39" s="259"/>
       <c r="L39" s="277">
@@ -10480,7 +10504,7 @@
         <v>179</v>
       </c>
       <c r="I40" s="250" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K40" s="259"/>
       <c r="L40" s="277">
@@ -10506,7 +10530,7 @@
         <v>180</v>
       </c>
       <c r="I41" s="250" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K41" s="259"/>
       <c r="L41" s="277">
@@ -10532,7 +10556,7 @@
         <v>181</v>
       </c>
       <c r="I42" s="250" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K42" s="259"/>
       <c r="L42" s="277">
@@ -10558,7 +10582,7 @@
         <v>182</v>
       </c>
       <c r="I43" s="250" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K43" s="259"/>
       <c r="L43" s="277">
@@ -10584,7 +10608,7 @@
         <v>183</v>
       </c>
       <c r="I44" s="250" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K44" s="259"/>
       <c r="L44" s="277">
@@ -10610,7 +10634,7 @@
         <v>184</v>
       </c>
       <c r="I45" s="250" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K45" s="259"/>
       <c r="L45" s="277">
@@ -10636,7 +10660,7 @@
         <v>185</v>
       </c>
       <c r="I46" s="250" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K46" s="259"/>
       <c r="L46" s="277">
@@ -10662,7 +10686,7 @@
         <v>186</v>
       </c>
       <c r="I47" s="250" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K47" s="259"/>
       <c r="L47" s="277">
@@ -10688,10 +10712,10 @@
         <v>187</v>
       </c>
       <c r="I48" s="249" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K48" s="259" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L48" s="277">
         <v>3</v>
@@ -10716,10 +10740,10 @@
         <v>188</v>
       </c>
       <c r="I49" s="249" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K49" s="259" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L49" s="277">
         <v>3</v>
@@ -10744,10 +10768,10 @@
         <v>189</v>
       </c>
       <c r="I50" s="249" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K50" s="259" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L50" s="277">
         <v>3</v>
@@ -10772,7 +10796,7 @@
         <v>190</v>
       </c>
       <c r="I51" s="249" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K51" s="259"/>
       <c r="L51" s="277">
@@ -10798,7 +10822,7 @@
         <v>191</v>
       </c>
       <c r="I52" s="249" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K52" s="259"/>
       <c r="L52" s="277">
@@ -10824,7 +10848,7 @@
         <v>192</v>
       </c>
       <c r="I53" s="249" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K53" s="259"/>
       <c r="L53" s="277">
@@ -10850,7 +10874,7 @@
         <v>193</v>
       </c>
       <c r="I54" s="249" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K54" s="259"/>
       <c r="L54" s="277">
@@ -10876,7 +10900,7 @@
         <v>194</v>
       </c>
       <c r="I55" s="249" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K55" s="259"/>
       <c r="L55" s="277">
@@ -10902,7 +10926,7 @@
         <v>195</v>
       </c>
       <c r="I56" s="249" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K56" s="259"/>
       <c r="L56" s="277">
@@ -10928,7 +10952,7 @@
         <v>196</v>
       </c>
       <c r="I57" s="249" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K57" s="259"/>
       <c r="L57" s="277">
@@ -10954,7 +10978,7 @@
         <v>197</v>
       </c>
       <c r="I58" s="249" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K58" s="259"/>
       <c r="L58" s="277">
@@ -10980,7 +11004,7 @@
         <v>198</v>
       </c>
       <c r="I59" s="249" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K59" s="259"/>
       <c r="L59" s="277">
@@ -11006,7 +11030,7 @@
         <v>199</v>
       </c>
       <c r="I60" s="249" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K60" s="259"/>
       <c r="L60" s="277">
@@ -11032,7 +11056,7 @@
         <v>200</v>
       </c>
       <c r="I61" s="249" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K61" s="259"/>
       <c r="L61" s="277">
@@ -11058,7 +11082,7 @@
         <v>201</v>
       </c>
       <c r="I62" s="249" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K62" s="259"/>
       <c r="L62" s="277">
@@ -11084,7 +11108,7 @@
         <v>202</v>
       </c>
       <c r="I63" s="249" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K63" s="259"/>
       <c r="L63" s="277">
@@ -11110,10 +11134,10 @@
         <v>203</v>
       </c>
       <c r="I64" s="249" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K64" s="258" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L64" s="277">
         <v>5</v>
@@ -11138,7 +11162,7 @@
         <v>204</v>
       </c>
       <c r="I65" s="249" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K65" s="259"/>
       <c r="L65" s="277">
@@ -11164,7 +11188,7 @@
         <v>205</v>
       </c>
       <c r="I66" s="249" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K66" s="259"/>
       <c r="L66" s="277">
@@ -11190,7 +11214,7 @@
         <v>206</v>
       </c>
       <c r="I67" s="249" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K67" s="259"/>
       <c r="L67" s="277">
@@ -11216,7 +11240,7 @@
         <v>207</v>
       </c>
       <c r="I68" s="249" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K68" s="259"/>
       <c r="L68" s="277">
@@ -11242,7 +11266,7 @@
         <v>208</v>
       </c>
       <c r="I69" s="249" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K69" s="259"/>
       <c r="L69" s="277">
@@ -11268,7 +11292,7 @@
         <v>209</v>
       </c>
       <c r="I70" s="249" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K70" s="259"/>
       <c r="L70" s="277">
@@ -11294,7 +11318,7 @@
         <v>210</v>
       </c>
       <c r="I71" s="249" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K71" s="259"/>
       <c r="L71" s="277">
@@ -11320,7 +11344,7 @@
         <v>211</v>
       </c>
       <c r="I72" s="249" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K72" s="259"/>
       <c r="L72" s="277">
@@ -11346,7 +11370,7 @@
         <v>212</v>
       </c>
       <c r="I73" s="249" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K73" s="259"/>
       <c r="L73" s="277">
@@ -11372,7 +11396,7 @@
         <v>213</v>
       </c>
       <c r="I74" s="249" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K74" s="259"/>
       <c r="L74" s="277">
@@ -11398,7 +11422,7 @@
         <v>214</v>
       </c>
       <c r="I75" s="249" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K75" s="259"/>
       <c r="L75" s="277">
@@ -11424,7 +11448,7 @@
         <v>215</v>
       </c>
       <c r="I76" s="249" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K76" s="259"/>
       <c r="L76" s="277">
@@ -11450,7 +11474,7 @@
         <v>216</v>
       </c>
       <c r="I77" s="249" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K77" s="259"/>
       <c r="L77" s="277">
@@ -11476,7 +11500,7 @@
         <v>217</v>
       </c>
       <c r="I78" s="249" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K78" s="259"/>
       <c r="L78" s="277">
@@ -11502,7 +11526,7 @@
         <v>218</v>
       </c>
       <c r="I79" s="249" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K79" s="259"/>
       <c r="L79" s="277">
@@ -11729,7 +11753,7 @@
         <v>55</v>
       </c>
       <c r="B89" s="59" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C89" s="60"/>
       <c r="D89" s="63" t="s">
@@ -11757,7 +11781,7 @@
         <v>54</v>
       </c>
       <c r="B90" s="271" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C90" s="52"/>
       <c r="D90" s="272">
@@ -11827,13 +11851,13 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D93" s="67" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E93" s="67" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F93" s="67" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -12127,28 +12151,28 @@
         <v>81</v>
       </c>
       <c r="O8" s="25" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Q8" s="25" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="R8" s="25" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="S8" s="25" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="T8" s="25" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U8" s="25" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="V8" s="25" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="W8" s="25" t="s">
         <v>45</v>
@@ -12776,10 +12800,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="237" t="s">
         <v>251</v>
-      </c>
-      <c r="C7" s="237" t="s">
-        <v>252</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -12944,7 +12968,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13052,7 +13076,7 @@
       <c r="S4" s="94"/>
       <c r="T4" s="95"/>
       <c r="V4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -13107,12 +13131,12 @@
         <v>126</v>
       </c>
       <c r="V5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="V6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -13575,13 +13599,13 @@
         <v>123</v>
       </c>
       <c r="Q14" s="49" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R14" s="49" t="s">
         <v>124</v>
       </c>
       <c r="S14" s="49" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="T14" s="97" t="s">
         <v>148</v>
@@ -13651,7 +13675,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="212" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C16" s="96">
         <v>0</v>
@@ -13690,7 +13714,7 @@
         <v>104</v>
       </c>
       <c r="P16" s="262" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="262" t="s">
         <v>115</v>
@@ -13705,27 +13729,27 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
-      <c r="C17" s="96">
-        <v>1</v>
-      </c>
-      <c r="D17" s="97">
-        <v>0</v>
+      <c r="C17" s="96" t="s">
+        <v>359</v>
+      </c>
+      <c r="D17" s="97" t="s">
+        <v>359</v>
       </c>
       <c r="E17" s="58">
-        <v>0</v>
-      </c>
-      <c r="F17" s="96">
-        <v>1</v>
-      </c>
-      <c r="G17" s="97">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F17" s="96" t="s">
+        <v>359</v>
+      </c>
+      <c r="G17" s="97" t="s">
+        <v>359</v>
       </c>
       <c r="H17" s="96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="262">
         <v>1</v>
@@ -13734,37 +13758,59 @@
         <v>1</v>
       </c>
       <c r="K17" s="262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="O17" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" s="262" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q17" s="262" t="s">
+        <v>360</v>
+      </c>
+      <c r="R17" s="262" t="s">
+        <v>106</v>
+      </c>
+      <c r="S17" s="262" t="s">
+        <v>120</v>
+      </c>
+      <c r="T17" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="U17" s="282" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13772,8 +13818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440C4F6B-A1C2-4D6C-BCC9-98B3358D661D}">
   <dimension ref="A1:V383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13794,6 +13840,7 @@
     <col min="17" max="17" width="7" customWidth="1"/>
     <col min="19" max="19" width="13.5703125" customWidth="1"/>
     <col min="21" max="21" width="15.28515625" customWidth="1"/>
+    <col min="22" max="22" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -13810,7 +13857,7 @@
         <v>157</v>
       </c>
       <c r="G1" s="63" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>161</v>
@@ -13840,7 +13887,7 @@
         <v>173</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="218" customFormat="1" x14ac:dyDescent="0.25">
@@ -13848,7 +13895,7 @@
         <v>160</v>
       </c>
       <c r="C2" s="218" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D2" s="218">
         <v>0</v>
@@ -13860,13 +13907,13 @@
         <v>35</v>
       </c>
       <c r="K2" s="263" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L2" s="263" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M2" s="263" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N2" s="263" t="s">
         <v>88</v>
@@ -13963,7 +14010,7 @@
         <v>100</v>
       </c>
       <c r="U4" t="s">
-        <v>247</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -13975,7 +14022,7 @@
         <v>0020</v>
       </c>
       <c r="F5" s="266" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G5" s="34">
         <v>32</v>
@@ -14007,7 +14054,7 @@
         <v>0021</v>
       </c>
       <c r="F6" s="266" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
@@ -14023,7 +14070,7 @@
         <v>0022</v>
       </c>
       <c r="F7" s="266" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
@@ -14039,7 +14086,7 @@
         <v>0023</v>
       </c>
       <c r="F8" s="266" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
@@ -14055,7 +14102,7 @@
         <v>0024</v>
       </c>
       <c r="F9" s="266" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
@@ -14071,7 +14118,7 @@
         <v>0025</v>
       </c>
       <c r="F10" s="266" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
@@ -14087,7 +14134,7 @@
         <v>0026</v>
       </c>
       <c r="F11" s="266" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
@@ -14103,7 +14150,7 @@
         <v>0027</v>
       </c>
       <c r="F12" s="266" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
@@ -14138,7 +14185,7 @@
         <v>159</v>
       </c>
       <c r="C15" s="218" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D15" s="218">
         <v>1</v>
@@ -14194,7 +14241,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>1</v>
       </c>
@@ -14203,7 +14250,7 @@
         <v>1010</v>
       </c>
       <c r="F17" s="266" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G17" s="34">
         <v>4</v>
@@ -14232,7 +14279,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>2</v>
       </c>
@@ -14241,7 +14288,7 @@
         <v>1020</v>
       </c>
       <c r="F18" s="266" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G18" s="34">
         <v>4</v>
@@ -14263,10 +14310,10 @@
         <v>0</v>
       </c>
       <c r="N18" s="267" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="19" spans="4:22" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>3</v>
       </c>
@@ -14275,7 +14322,7 @@
         <v>1030</v>
       </c>
       <c r="F19" s="266" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G19" s="34">
         <v>4</v>
@@ -14298,11 +14345,11 @@
         <v>0</v>
       </c>
       <c r="N19" s="267" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O19" s="264"/>
     </row>
-    <row r="20" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>4</v>
       </c>
@@ -14311,7 +14358,7 @@
         <v>1040</v>
       </c>
       <c r="F20" s="266" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G20" s="34">
         <v>4</v>
@@ -14337,7 +14384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>5</v>
       </c>
@@ -14346,7 +14393,7 @@
         <v>1050</v>
       </c>
       <c r="F21" s="266" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G21" s="34">
         <v>4</v>
@@ -14372,7 +14419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>6</v>
       </c>
@@ -14381,7 +14428,7 @@
         <v>1060</v>
       </c>
       <c r="F22" s="266" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G22" s="34">
         <v>4</v>
@@ -14407,7 +14454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>7</v>
       </c>
@@ -14416,7 +14463,7 @@
         <v>1070</v>
       </c>
       <c r="F23" s="266" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G23" s="34">
         <v>4</v>
@@ -14442,7 +14489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>8</v>
       </c>
@@ -14451,7 +14498,7 @@
         <v>1080</v>
       </c>
       <c r="F24" s="266" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G24" s="34">
         <v>4</v>
@@ -14477,7 +14524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>9</v>
       </c>
@@ -14486,7 +14533,7 @@
         <v>1090</v>
       </c>
       <c r="F25" s="266" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G25" s="34">
         <v>4</v>
@@ -14512,7 +14559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>10</v>
       </c>
@@ -14521,7 +14568,7 @@
         <v>10A0</v>
       </c>
       <c r="F26" s="266" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G26" s="34">
         <v>4</v>
@@ -14547,7 +14594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>11</v>
       </c>
@@ -14556,7 +14603,7 @@
         <v>10B0</v>
       </c>
       <c r="F27" s="266" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G27" s="34">
         <v>4</v>
@@ -14582,7 +14629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>12</v>
       </c>
@@ -14591,7 +14638,7 @@
         <v>10C0</v>
       </c>
       <c r="F28" s="266" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G28" s="34">
         <v>4</v>
@@ -14616,23 +14663,8 @@
       <c r="N28" s="65">
         <v>0</v>
       </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>100</v>
-      </c>
-      <c r="T28">
-        <v>35</v>
-      </c>
-      <c r="U28" t="s">
-        <v>246</v>
-      </c>
-      <c r="V28" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="29" spans="4:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>13</v>
       </c>
@@ -14641,7 +14673,7 @@
         <v>10D0</v>
       </c>
       <c r="F29" s="266" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G29" s="34">
         <v>4</v>
@@ -14667,7 +14699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>14</v>
       </c>
@@ -14676,7 +14708,7 @@
         <v>10E0</v>
       </c>
       <c r="F30" s="266" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G30" s="34">
         <v>4</v>
@@ -14702,7 +14734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>15</v>
       </c>
@@ -14711,7 +14743,7 @@
         <v>10F0</v>
       </c>
       <c r="F31" s="266" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G31" s="34">
         <v>1</v>
@@ -14737,7 +14769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>16</v>
       </c>
@@ -14746,7 +14778,7 @@
         <v>1100</v>
       </c>
       <c r="F32" s="266" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G32" s="34">
         <v>1</v>
@@ -14781,7 +14813,7 @@
         <v>1110</v>
       </c>
       <c r="F33" s="266" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G33" s="34">
         <v>2</v>
@@ -14840,6 +14872,18 @@
       </c>
       <c r="N34" s="65">
         <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>100</v>
+      </c>
+      <c r="S34">
+        <v>35</v>
+      </c>
+      <c r="U34" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -14881,10 +14925,10 @@
     </row>
     <row r="38" spans="1:21" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="217" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C38" s="218" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D38" s="218">
         <v>2</v>
@@ -14911,7 +14955,7 @@
         <v>2000</v>
       </c>
       <c r="F39" s="266" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G39" s="34">
         <v>4</v>
@@ -14937,16 +14981,16 @@
         <v>1</v>
       </c>
       <c r="R39" t="s">
+        <v>277</v>
+      </c>
+      <c r="S39" t="s">
         <v>278</v>
-      </c>
-      <c r="S39" t="s">
-        <v>279</v>
       </c>
       <c r="T39">
         <v>10</v>
       </c>
       <c r="U39" t="s">
-        <v>176</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -14958,7 +15002,7 @@
         <v>2010</v>
       </c>
       <c r="F40" s="266" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G40" s="34">
         <v>4</v>
@@ -14984,13 +15028,19 @@
         <v>1</v>
       </c>
       <c r="P40" s="274" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="R40" t="s">
+        <v>277</v>
+      </c>
+      <c r="S40" t="s">
         <v>278</v>
       </c>
-      <c r="S40" t="s">
-        <v>279</v>
+      <c r="T40" t="s">
+        <v>354</v>
+      </c>
+      <c r="U40" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -15002,7 +15052,7 @@
         <v>2020</v>
       </c>
       <c r="F41" s="266" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G41" s="34">
         <v>4</v>
@@ -15027,10 +15077,16 @@
         <v>1</v>
       </c>
       <c r="R41" t="s">
+        <v>277</v>
+      </c>
+      <c r="S41" t="s">
         <v>278</v>
       </c>
-      <c r="S41" t="s">
-        <v>279</v>
+      <c r="T41" t="s">
+        <v>355</v>
+      </c>
+      <c r="U41" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -15042,7 +15098,7 @@
         <v>2030</v>
       </c>
       <c r="F42" s="266" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G42" s="34">
         <v>4</v>
@@ -15076,7 +15132,7 @@
         <v>2040</v>
       </c>
       <c r="F43" s="266" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G43" s="34">
         <v>4</v>
@@ -15123,13 +15179,13 @@
     </row>
     <row r="46" spans="1:21" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="217" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B46" s="218" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C46" s="218" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D46" s="218">
         <v>3</v>
@@ -15156,7 +15212,7 @@
         <v>3000</v>
       </c>
       <c r="F47" s="266" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G47" s="34">
         <v>1</v>
@@ -15182,16 +15238,16 @@
         <v>1</v>
       </c>
       <c r="R47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S47" t="s">
+        <v>308</v>
+      </c>
+      <c r="T47" t="s">
         <v>309</v>
       </c>
-      <c r="T47" t="s">
+      <c r="U47" t="s">
         <v>310</v>
-      </c>
-      <c r="U47" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
@@ -15203,7 +15259,7 @@
         <v>3010</v>
       </c>
       <c r="F48" s="266" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G48" s="34">
         <v>1</v>
@@ -15228,16 +15284,16 @@
         <v>1</v>
       </c>
       <c r="R48" t="s">
+        <v>311</v>
+      </c>
+      <c r="S48" t="s">
         <v>312</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
+        <v>314</v>
+      </c>
+      <c r="U48" t="s">
         <v>313</v>
-      </c>
-      <c r="T48" t="s">
-        <v>315</v>
-      </c>
-      <c r="U48" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -15249,7 +15305,7 @@
         <v>3020</v>
       </c>
       <c r="F49" s="266" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G49" s="34">
         <v>4</v>
@@ -15277,7 +15333,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -15289,7 +15345,7 @@
         <v>3030</v>
       </c>
       <c r="F50" s="266" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G50" s="34">
         <v>1</v>
@@ -15326,7 +15382,7 @@
         <v>3040</v>
       </c>
       <c r="F51" s="266" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G51" s="34">
         <v>1</v>
@@ -15363,7 +15419,7 @@
         <v>3050</v>
       </c>
       <c r="F52" s="266" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G52" s="34">
         <v>4</v>
@@ -15400,7 +15456,7 @@
         <v>3060</v>
       </c>
       <c r="F53" s="266" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G53" s="34">
         <v>1</v>
@@ -15437,7 +15493,7 @@
         <v>3070</v>
       </c>
       <c r="F54" s="266" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G54" s="34">
         <v>1</v>
@@ -15474,7 +15530,7 @@
         <v>3080</v>
       </c>
       <c r="F55" s="266" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G55" s="34">
         <v>4</v>
@@ -15511,7 +15567,7 @@
         <v>3090</v>
       </c>
       <c r="F56" s="266" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G56" s="34">
         <v>1</v>
@@ -15548,7 +15604,7 @@
         <v>30A0</v>
       </c>
       <c r="F57" s="266" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G57" s="34">
         <v>1</v>
@@ -15585,7 +15641,7 @@
         <v>30B0</v>
       </c>
       <c r="F58" s="266" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G58" s="34">
         <v>4</v>
@@ -15622,7 +15678,7 @@
         <v>30C0</v>
       </c>
       <c r="F59" s="266" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G59" s="34">
         <v>1</v>
@@ -15659,7 +15715,7 @@
         <v>30D0</v>
       </c>
       <c r="F60" s="266" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G60" s="34">
         <v>1</v>
@@ -15696,7 +15752,7 @@
         <v>30E0</v>
       </c>
       <c r="F61" s="266" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G61" s="34">
         <v>4</v>
@@ -15729,13 +15785,13 @@
     </row>
     <row r="63" spans="1:19" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="218" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B63" s="218" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C63" s="218" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D63" s="218">
         <v>4</v>
